--- a/week 6/فارسی/Skale(V3.6).xlsx
+++ b/week 6/فارسی/Skale(V3.6).xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\سروش\Quiz\skale week\week n\فارسی\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\سروش\Quiz\week 6\فارسی\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2093,7 +2093,7 @@
   <dimension ref="A1:AMJ2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K2" sqref="B2:K2"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2140,16 +2140,36 @@
       <c r="A2" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
+      <c r="B2" s="8">
+        <v>2</v>
+      </c>
+      <c r="C2" s="8">
+        <v>2</v>
+      </c>
+      <c r="D2" s="8">
+        <v>3</v>
+      </c>
+      <c r="E2" s="8">
+        <v>2</v>
+      </c>
+      <c r="F2" s="8">
+        <v>1</v>
+      </c>
+      <c r="G2" s="8">
+        <v>1</v>
+      </c>
+      <c r="H2" s="8">
+        <v>3</v>
+      </c>
+      <c r="I2" s="8">
+        <v>2</v>
+      </c>
+      <c r="J2" s="8">
+        <v>4</v>
+      </c>
+      <c r="K2" s="8">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -2236,47 +2256,47 @@
       </c>
       <c r="C2" s="12">
         <f>IF(گوگل!C2=کلید!B$2,3,IF(گوگل!C2="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D2" s="12">
         <f>IF(گوگل!D2=کلید!C$2,3,IF(گوگل!D2="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E2" s="12">
         <f>IF(گوگل!E2=کلید!D$2,3,IF(گوگل!E2="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F2" s="12">
         <f>IF(گوگل!F2=کلید!E$2,3,IF(گوگل!F2="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G2" s="12">
         <f>IF(گوگل!G2=کلید!F$2,3,IF(گوگل!G2="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H2" s="12">
         <f>IF(گوگل!H2=کلید!G$2,3,IF(گوگل!H2="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I2" s="12">
         <f>IF(گوگل!I2=کلید!H$2,3,IF(گوگل!I2="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J2" s="12">
         <f>IF(گوگل!J2=کلید!I$2,3,IF(گوگل!J2="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K2" s="12">
         <f>IF(گوگل!K2=کلید!J$2,3,IF(گوگل!K2="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L2" s="12">
         <f>IF(گوگل!L2=کلید!K$2,3,IF(گوگل!L2="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M2" s="13">
         <f t="shared" ref="M2:M44" si="0">(SUM(C2:L2)/(30))*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -2290,47 +2310,47 @@
       </c>
       <c r="C3" s="12">
         <f>IF(گوگل!C3=کلید!B$2,3,IF(گوگل!C3="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D3" s="12">
         <f>IF(گوگل!D3=کلید!C$2,3,IF(گوگل!D3="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E3" s="12">
         <f>IF(گوگل!E3=کلید!D$2,3,IF(گوگل!E3="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F3" s="12">
         <f>IF(گوگل!F3=کلید!E$2,3,IF(گوگل!F3="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G3" s="12">
         <f>IF(گوگل!G3=کلید!F$2,3,IF(گوگل!G3="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H3" s="12">
         <f>IF(گوگل!H3=کلید!G$2,3,IF(گوگل!H3="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I3" s="12">
         <f>IF(گوگل!I3=کلید!H$2,3,IF(گوگل!I3="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J3" s="12">
         <f>IF(گوگل!J3=کلید!I$2,3,IF(گوگل!J3="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K3" s="12">
         <f>IF(گوگل!K3=کلید!J$2,3,IF(گوگل!K3="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L3" s="12">
         <f>IF(گوگل!L3=کلید!K$2,3,IF(گوگل!L3="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M3" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -2344,47 +2364,47 @@
       </c>
       <c r="C4" s="12">
         <f>IF(گوگل!C4=کلید!B$2,3,IF(گوگل!C4="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D4" s="12">
         <f>IF(گوگل!D4=کلید!C$2,3,IF(گوگل!D4="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E4" s="12">
         <f>IF(گوگل!E4=کلید!D$2,3,IF(گوگل!E4="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F4" s="12">
         <f>IF(گوگل!F4=کلید!E$2,3,IF(گوگل!F4="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G4" s="12">
         <f>IF(گوگل!G4=کلید!F$2,3,IF(گوگل!G4="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H4" s="12">
         <f>IF(گوگل!H4=کلید!G$2,3,IF(گوگل!H4="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I4" s="12">
         <f>IF(گوگل!I4=کلید!H$2,3,IF(گوگل!I4="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J4" s="12">
         <f>IF(گوگل!J4=کلید!I$2,3,IF(گوگل!J4="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K4" s="12">
         <f>IF(گوگل!K4=کلید!J$2,3,IF(گوگل!K4="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L4" s="12">
         <f>IF(گوگل!L4=کلید!K$2,3,IF(گوگل!L4="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M4" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -2398,47 +2418,47 @@
       </c>
       <c r="C5" s="12">
         <f>IF(گوگل!C5=کلید!B$2,3,IF(گوگل!C5="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D5" s="12">
         <f>IF(گوگل!D5=کلید!C$2,3,IF(گوگل!D5="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E5" s="12">
         <f>IF(گوگل!E5=کلید!D$2,3,IF(گوگل!E5="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F5" s="12">
         <f>IF(گوگل!F5=کلید!E$2,3,IF(گوگل!F5="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G5" s="12">
         <f>IF(گوگل!G5=کلید!F$2,3,IF(گوگل!G5="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H5" s="12">
         <f>IF(گوگل!H5=کلید!G$2,3,IF(گوگل!H5="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I5" s="12">
         <f>IF(گوگل!I5=کلید!H$2,3,IF(گوگل!I5="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J5" s="12">
         <f>IF(گوگل!J5=کلید!I$2,3,IF(گوگل!J5="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K5" s="12">
         <f>IF(گوگل!K5=کلید!J$2,3,IF(گوگل!K5="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L5" s="12">
         <f>IF(گوگل!L5=کلید!K$2,3,IF(گوگل!L5="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M5" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -2452,47 +2472,47 @@
       </c>
       <c r="C6" s="12">
         <f>IF(گوگل!C6=کلید!B$2,3,IF(گوگل!C6="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D6" s="12">
         <f>IF(گوگل!D6=کلید!C$2,3,IF(گوگل!D6="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E6" s="12">
         <f>IF(گوگل!E6=کلید!D$2,3,IF(گوگل!E6="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F6" s="12">
         <f>IF(گوگل!F6=کلید!E$2,3,IF(گوگل!F6="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G6" s="12">
         <f>IF(گوگل!G6=کلید!F$2,3,IF(گوگل!G6="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H6" s="12">
         <f>IF(گوگل!H6=کلید!G$2,3,IF(گوگل!H6="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I6" s="12">
         <f>IF(گوگل!I6=کلید!H$2,3,IF(گوگل!I6="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J6" s="12">
         <f>IF(گوگل!J6=کلید!I$2,3,IF(گوگل!J6="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K6" s="12">
         <f>IF(گوگل!K6=کلید!J$2,3,IF(گوگل!K6="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L6" s="12">
         <f>IF(گوگل!L6=کلید!K$2,3,IF(گوگل!L6="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M6" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -2506,47 +2526,47 @@
       </c>
       <c r="C7" s="12">
         <f>IF(گوگل!C7=کلید!B$2,3,IF(گوگل!C7="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D7" s="12">
         <f>IF(گوگل!D7=کلید!C$2,3,IF(گوگل!D7="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E7" s="12">
         <f>IF(گوگل!E7=کلید!D$2,3,IF(گوگل!E7="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F7" s="12">
         <f>IF(گوگل!F7=کلید!E$2,3,IF(گوگل!F7="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G7" s="12">
         <f>IF(گوگل!G7=کلید!F$2,3,IF(گوگل!G7="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H7" s="12">
         <f>IF(گوگل!H7=کلید!G$2,3,IF(گوگل!H7="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I7" s="12">
         <f>IF(گوگل!I7=کلید!H$2,3,IF(گوگل!I7="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J7" s="12">
         <f>IF(گوگل!J7=کلید!I$2,3,IF(گوگل!J7="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K7" s="12">
         <f>IF(گوگل!K7=کلید!J$2,3,IF(گوگل!K7="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L7" s="12">
         <f>IF(گوگل!L7=کلید!K$2,3,IF(گوگل!L7="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M7" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -2560,47 +2580,47 @@
       </c>
       <c r="C8" s="12">
         <f>IF(گوگل!C8=کلید!B$2,3,IF(گوگل!C8="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D8" s="12">
         <f>IF(گوگل!D8=کلید!C$2,3,IF(گوگل!D8="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E8" s="12">
         <f>IF(گوگل!E8=کلید!D$2,3,IF(گوگل!E8="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F8" s="12">
         <f>IF(گوگل!F8=کلید!E$2,3,IF(گوگل!F8="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G8" s="12">
         <f>IF(گوگل!G8=کلید!F$2,3,IF(گوگل!G8="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H8" s="12">
         <f>IF(گوگل!H8=کلید!G$2,3,IF(گوگل!H8="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I8" s="12">
         <f>IF(گوگل!I8=کلید!H$2,3,IF(گوگل!I8="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J8" s="12">
         <f>IF(گوگل!J8=کلید!I$2,3,IF(گوگل!J8="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K8" s="12">
         <f>IF(گوگل!K8=کلید!J$2,3,IF(گوگل!K8="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L8" s="12">
         <f>IF(گوگل!L8=کلید!K$2,3,IF(گوگل!L8="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M8" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -2614,47 +2634,47 @@
       </c>
       <c r="C9" s="12">
         <f>IF(گوگل!C9=کلید!B$2,3,IF(گوگل!C9="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D9" s="12">
         <f>IF(گوگل!D9=کلید!C$2,3,IF(گوگل!D9="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E9" s="12">
         <f>IF(گوگل!E9=کلید!D$2,3,IF(گوگل!E9="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F9" s="12">
         <f>IF(گوگل!F9=کلید!E$2,3,IF(گوگل!F9="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G9" s="12">
         <f>IF(گوگل!G9=کلید!F$2,3,IF(گوگل!G9="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H9" s="12">
         <f>IF(گوگل!H9=کلید!G$2,3,IF(گوگل!H9="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I9" s="12">
         <f>IF(گوگل!I9=کلید!H$2,3,IF(گوگل!I9="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J9" s="12">
         <f>IF(گوگل!J9=کلید!I$2,3,IF(گوگل!J9="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K9" s="12">
         <f>IF(گوگل!K9=کلید!J$2,3,IF(گوگل!K9="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L9" s="12">
         <f>IF(گوگل!L9=کلید!K$2,3,IF(گوگل!L9="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M9" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -2668,47 +2688,47 @@
       </c>
       <c r="C10" s="12">
         <f>IF(گوگل!C10=کلید!B$2,3,IF(گوگل!C10="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D10" s="12">
         <f>IF(گوگل!D10=کلید!C$2,3,IF(گوگل!D10="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E10" s="12">
         <f>IF(گوگل!E10=کلید!D$2,3,IF(گوگل!E10="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F10" s="12">
         <f>IF(گوگل!F10=کلید!E$2,3,IF(گوگل!F10="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G10" s="12">
         <f>IF(گوگل!G10=کلید!F$2,3,IF(گوگل!G10="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H10" s="12">
         <f>IF(گوگل!H10=کلید!G$2,3,IF(گوگل!H10="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I10" s="12">
         <f>IF(گوگل!I10=کلید!H$2,3,IF(گوگل!I10="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J10" s="12">
         <f>IF(گوگل!J10=کلید!I$2,3,IF(گوگل!J10="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K10" s="12">
         <f>IF(گوگل!K10=کلید!J$2,3,IF(گوگل!K10="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L10" s="12">
         <f>IF(گوگل!L10=کلید!K$2,3,IF(گوگل!L10="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M10" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -2722,47 +2742,47 @@
       </c>
       <c r="C11" s="12">
         <f>IF(گوگل!C11=کلید!B$2,3,IF(گوگل!C11="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D11" s="12">
         <f>IF(گوگل!D11=کلید!C$2,3,IF(گوگل!D11="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E11" s="12">
         <f>IF(گوگل!E11=کلید!D$2,3,IF(گوگل!E11="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F11" s="12">
         <f>IF(گوگل!F11=کلید!E$2,3,IF(گوگل!F11="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G11" s="12">
         <f>IF(گوگل!G11=کلید!F$2,3,IF(گوگل!G11="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H11" s="12">
         <f>IF(گوگل!H11=کلید!G$2,3,IF(گوگل!H11="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I11" s="12">
         <f>IF(گوگل!I11=کلید!H$2,3,IF(گوگل!I11="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J11" s="12">
         <f>IF(گوگل!J11=کلید!I$2,3,IF(گوگل!J11="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K11" s="12">
         <f>IF(گوگل!K11=کلید!J$2,3,IF(گوگل!K11="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L11" s="12">
         <f>IF(گوگل!L11=کلید!K$2,3,IF(گوگل!L11="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M11" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -2776,47 +2796,47 @@
       </c>
       <c r="C12" s="12">
         <f>IF(گوگل!C12=کلید!B$2,3,IF(گوگل!C12="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D12" s="12">
         <f>IF(گوگل!D12=کلید!C$2,3,IF(گوگل!D12="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E12" s="12">
         <f>IF(گوگل!E12=کلید!D$2,3,IF(گوگل!E12="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F12" s="12">
         <f>IF(گوگل!F12=کلید!E$2,3,IF(گوگل!F12="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G12" s="12">
         <f>IF(گوگل!G12=کلید!F$2,3,IF(گوگل!G12="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H12" s="12">
         <f>IF(گوگل!H12=کلید!G$2,3,IF(گوگل!H12="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I12" s="12">
         <f>IF(گوگل!I12=کلید!H$2,3,IF(گوگل!I12="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J12" s="12">
         <f>IF(گوگل!J12=کلید!I$2,3,IF(گوگل!J12="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K12" s="12">
         <f>IF(گوگل!K12=کلید!J$2,3,IF(گوگل!K12="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L12" s="12">
         <f>IF(گوگل!L12=کلید!K$2,3,IF(گوگل!L12="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M12" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -2830,47 +2850,47 @@
       </c>
       <c r="C13" s="12">
         <f>IF(گوگل!C13=کلید!B$2,3,IF(گوگل!C13="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D13" s="12">
         <f>IF(گوگل!D13=کلید!C$2,3,IF(گوگل!D13="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E13" s="12">
         <f>IF(گوگل!E13=کلید!D$2,3,IF(گوگل!E13="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F13" s="12">
         <f>IF(گوگل!F13=کلید!E$2,3,IF(گوگل!F13="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G13" s="12">
         <f>IF(گوگل!G13=کلید!F$2,3,IF(گوگل!G13="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H13" s="12">
         <f>IF(گوگل!H13=کلید!G$2,3,IF(گوگل!H13="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I13" s="12">
         <f>IF(گوگل!I13=کلید!H$2,3,IF(گوگل!I13="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J13" s="12">
         <f>IF(گوگل!J13=کلید!I$2,3,IF(گوگل!J13="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K13" s="12">
         <f>IF(گوگل!K13=کلید!J$2,3,IF(گوگل!K13="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L13" s="12">
         <f>IF(گوگل!L13=کلید!K$2,3,IF(گوگل!L13="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M13" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -2884,47 +2904,47 @@
       </c>
       <c r="C14" s="12">
         <f>IF(گوگل!C14=کلید!B$2,3,IF(گوگل!C14="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D14" s="12">
         <f>IF(گوگل!D14=کلید!C$2,3,IF(گوگل!D14="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E14" s="12">
         <f>IF(گوگل!E14=کلید!D$2,3,IF(گوگل!E14="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F14" s="12">
         <f>IF(گوگل!F14=کلید!E$2,3,IF(گوگل!F14="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G14" s="12">
         <f>IF(گوگل!G14=کلید!F$2,3,IF(گوگل!G14="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H14" s="12">
         <f>IF(گوگل!H14=کلید!G$2,3,IF(گوگل!H14="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I14" s="12">
         <f>IF(گوگل!I14=کلید!H$2,3,IF(گوگل!I14="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J14" s="12">
         <f>IF(گوگل!J14=کلید!I$2,3,IF(گوگل!J14="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K14" s="12">
         <f>IF(گوگل!K14=کلید!J$2,3,IF(گوگل!K14="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L14" s="12">
         <f>IF(گوگل!L14=کلید!K$2,3,IF(گوگل!L14="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M14" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -2938,47 +2958,47 @@
       </c>
       <c r="C15" s="12">
         <f>IF(گوگل!C15=کلید!B$2,3,IF(گوگل!C15="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D15" s="12">
         <f>IF(گوگل!D15=کلید!C$2,3,IF(گوگل!D15="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E15" s="12">
         <f>IF(گوگل!E15=کلید!D$2,3,IF(گوگل!E15="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F15" s="12">
         <f>IF(گوگل!F15=کلید!E$2,3,IF(گوگل!F15="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G15" s="12">
         <f>IF(گوگل!G15=کلید!F$2,3,IF(گوگل!G15="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H15" s="12">
         <f>IF(گوگل!H15=کلید!G$2,3,IF(گوگل!H15="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I15" s="12">
         <f>IF(گوگل!I15=کلید!H$2,3,IF(گوگل!I15="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J15" s="12">
         <f>IF(گوگل!J15=کلید!I$2,3,IF(گوگل!J15="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K15" s="12">
         <f>IF(گوگل!K15=کلید!J$2,3,IF(گوگل!K15="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L15" s="12">
         <f>IF(گوگل!L15=کلید!K$2,3,IF(گوگل!L15="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M15" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -2992,47 +3012,47 @@
       </c>
       <c r="C16" s="12">
         <f>IF(گوگل!C16=کلید!B$2,3,IF(گوگل!C16="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D16" s="12">
         <f>IF(گوگل!D16=کلید!C$2,3,IF(گوگل!D16="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E16" s="12">
         <f>IF(گوگل!E16=کلید!D$2,3,IF(گوگل!E16="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F16" s="12">
         <f>IF(گوگل!F16=کلید!E$2,3,IF(گوگل!F16="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G16" s="12">
         <f>IF(گوگل!G16=کلید!F$2,3,IF(گوگل!G16="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H16" s="12">
         <f>IF(گوگل!H16=کلید!G$2,3,IF(گوگل!H16="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I16" s="12">
         <f>IF(گوگل!I16=کلید!H$2,3,IF(گوگل!I16="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J16" s="12">
         <f>IF(گوگل!J16=کلید!I$2,3,IF(گوگل!J16="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K16" s="12">
         <f>IF(گوگل!K16=کلید!J$2,3,IF(گوگل!K16="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L16" s="12">
         <f>IF(گوگل!L16=کلید!K$2,3,IF(گوگل!L16="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M16" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -3046,47 +3066,47 @@
       </c>
       <c r="C17" s="12">
         <f>IF(گوگل!C17=کلید!B$2,3,IF(گوگل!C17="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D17" s="12">
         <f>IF(گوگل!D17=کلید!C$2,3,IF(گوگل!D17="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E17" s="12">
         <f>IF(گوگل!E17=کلید!D$2,3,IF(گوگل!E17="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F17" s="12">
         <f>IF(گوگل!F17=کلید!E$2,3,IF(گوگل!F17="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G17" s="12">
         <f>IF(گوگل!G17=کلید!F$2,3,IF(گوگل!G17="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H17" s="12">
         <f>IF(گوگل!H17=کلید!G$2,3,IF(گوگل!H17="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I17" s="12">
         <f>IF(گوگل!I17=کلید!H$2,3,IF(گوگل!I17="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J17" s="12">
         <f>IF(گوگل!J17=کلید!I$2,3,IF(گوگل!J17="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K17" s="12">
         <f>IF(گوگل!K17=کلید!J$2,3,IF(گوگل!K17="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L17" s="12">
         <f>IF(گوگل!L17=کلید!K$2,3,IF(گوگل!L17="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M17" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -3100,47 +3120,47 @@
       </c>
       <c r="C18" s="12">
         <f>IF(گوگل!C18=کلید!B$2,3,IF(گوگل!C18="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D18" s="12">
         <f>IF(گوگل!D18=کلید!C$2,3,IF(گوگل!D18="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E18" s="12">
         <f>IF(گوگل!E18=کلید!D$2,3,IF(گوگل!E18="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F18" s="12">
         <f>IF(گوگل!F18=کلید!E$2,3,IF(گوگل!F18="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G18" s="12">
         <f>IF(گوگل!G18=کلید!F$2,3,IF(گوگل!G18="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H18" s="12">
         <f>IF(گوگل!H18=کلید!G$2,3,IF(گوگل!H18="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I18" s="12">
         <f>IF(گوگل!I18=کلید!H$2,3,IF(گوگل!I18="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J18" s="12">
         <f>IF(گوگل!J18=کلید!I$2,3,IF(گوگل!J18="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K18" s="12">
         <f>IF(گوگل!K18=کلید!J$2,3,IF(گوگل!K18="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L18" s="12">
         <f>IF(گوگل!L18=کلید!K$2,3,IF(گوگل!L18="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M18" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -3154,47 +3174,47 @@
       </c>
       <c r="C19" s="12">
         <f>IF(گوگل!C19=کلید!B$2,3,IF(گوگل!C19="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D19" s="12">
         <f>IF(گوگل!D19=کلید!C$2,3,IF(گوگل!D19="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E19" s="12">
         <f>IF(گوگل!E19=کلید!D$2,3,IF(گوگل!E19="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F19" s="12">
         <f>IF(گوگل!F19=کلید!E$2,3,IF(گوگل!F19="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G19" s="12">
         <f>IF(گوگل!G19=کلید!F$2,3,IF(گوگل!G19="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H19" s="12">
         <f>IF(گوگل!H19=کلید!G$2,3,IF(گوگل!H19="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I19" s="12">
         <f>IF(گوگل!I19=کلید!H$2,3,IF(گوگل!I19="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J19" s="12">
         <f>IF(گوگل!J19=کلید!I$2,3,IF(گوگل!J19="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K19" s="12">
         <f>IF(گوگل!K19=کلید!J$2,3,IF(گوگل!K19="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L19" s="12">
         <f>IF(گوگل!L19=کلید!K$2,3,IF(گوگل!L19="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M19" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -3208,47 +3228,47 @@
       </c>
       <c r="C20" s="12">
         <f>IF(گوگل!C20=کلید!B$2,3,IF(گوگل!C20="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D20" s="12">
         <f>IF(گوگل!D20=کلید!C$2,3,IF(گوگل!D20="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E20" s="12">
         <f>IF(گوگل!E20=کلید!D$2,3,IF(گوگل!E20="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F20" s="12">
         <f>IF(گوگل!F20=کلید!E$2,3,IF(گوگل!F20="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G20" s="12">
         <f>IF(گوگل!G20=کلید!F$2,3,IF(گوگل!G20="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H20" s="12">
         <f>IF(گوگل!H20=کلید!G$2,3,IF(گوگل!H20="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I20" s="12">
         <f>IF(گوگل!I20=کلید!H$2,3,IF(گوگل!I20="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J20" s="12">
         <f>IF(گوگل!J20=کلید!I$2,3,IF(گوگل!J20="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K20" s="12">
         <f>IF(گوگل!K20=کلید!J$2,3,IF(گوگل!K20="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L20" s="12">
         <f>IF(گوگل!L20=کلید!K$2,3,IF(گوگل!L20="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M20" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -3262,47 +3282,47 @@
       </c>
       <c r="C21" s="12">
         <f>IF(گوگل!C21=کلید!B$2,3,IF(گوگل!C21="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D21" s="12">
         <f>IF(گوگل!D21=کلید!C$2,3,IF(گوگل!D21="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E21" s="12">
         <f>IF(گوگل!E21=کلید!D$2,3,IF(گوگل!E21="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F21" s="12">
         <f>IF(گوگل!F21=کلید!E$2,3,IF(گوگل!F21="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G21" s="12">
         <f>IF(گوگل!G21=کلید!F$2,3,IF(گوگل!G21="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H21" s="12">
         <f>IF(گوگل!H21=کلید!G$2,3,IF(گوگل!H21="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I21" s="12">
         <f>IF(گوگل!I21=کلید!H$2,3,IF(گوگل!I21="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J21" s="12">
         <f>IF(گوگل!J21=کلید!I$2,3,IF(گوگل!J21="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K21" s="12">
         <f>IF(گوگل!K21=کلید!J$2,3,IF(گوگل!K21="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L21" s="12">
         <f>IF(گوگل!L21=کلید!K$2,3,IF(گوگل!L21="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M21" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -3316,47 +3336,47 @@
       </c>
       <c r="C22" s="12">
         <f>IF(گوگل!C22=کلید!B$2,3,IF(گوگل!C22="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D22" s="12">
         <f>IF(گوگل!D22=کلید!C$2,3,IF(گوگل!D22="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E22" s="12">
         <f>IF(گوگل!E22=کلید!D$2,3,IF(گوگل!E22="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F22" s="12">
         <f>IF(گوگل!F22=کلید!E$2,3,IF(گوگل!F22="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G22" s="12">
         <f>IF(گوگل!G22=کلید!F$2,3,IF(گوگل!G22="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H22" s="12">
         <f>IF(گوگل!H22=کلید!G$2,3,IF(گوگل!H22="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I22" s="12">
         <f>IF(گوگل!I22=کلید!H$2,3,IF(گوگل!I22="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J22" s="12">
         <f>IF(گوگل!J22=کلید!I$2,3,IF(گوگل!J22="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K22" s="12">
         <f>IF(گوگل!K22=کلید!J$2,3,IF(گوگل!K22="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L22" s="12">
         <f>IF(گوگل!L22=کلید!K$2,3,IF(گوگل!L22="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M22" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -3370,47 +3390,47 @@
       </c>
       <c r="C23" s="12">
         <f>IF(گوگل!C23=کلید!B$2,3,IF(گوگل!C23="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D23" s="12">
         <f>IF(گوگل!D23=کلید!C$2,3,IF(گوگل!D23="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E23" s="12">
         <f>IF(گوگل!E23=کلید!D$2,3,IF(گوگل!E23="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F23" s="12">
         <f>IF(گوگل!F23=کلید!E$2,3,IF(گوگل!F23="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G23" s="12">
         <f>IF(گوگل!G23=کلید!F$2,3,IF(گوگل!G23="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H23" s="12">
         <f>IF(گوگل!H23=کلید!G$2,3,IF(گوگل!H23="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I23" s="12">
         <f>IF(گوگل!I23=کلید!H$2,3,IF(گوگل!I23="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J23" s="12">
         <f>IF(گوگل!J23=کلید!I$2,3,IF(گوگل!J23="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K23" s="12">
         <f>IF(گوگل!K23=کلید!J$2,3,IF(گوگل!K23="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L23" s="12">
         <f>IF(گوگل!L23=کلید!K$2,3,IF(گوگل!L23="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M23" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -3424,47 +3444,47 @@
       </c>
       <c r="C24" s="12">
         <f>IF(گوگل!C24=کلید!B$2,3,IF(گوگل!C24="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D24" s="12">
         <f>IF(گوگل!D24=کلید!C$2,3,IF(گوگل!D24="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E24" s="12">
         <f>IF(گوگل!E24=کلید!D$2,3,IF(گوگل!E24="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F24" s="12">
         <f>IF(گوگل!F24=کلید!E$2,3,IF(گوگل!F24="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G24" s="12">
         <f>IF(گوگل!G24=کلید!F$2,3,IF(گوگل!G24="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H24" s="12">
         <f>IF(گوگل!H24=کلید!G$2,3,IF(گوگل!H24="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I24" s="12">
         <f>IF(گوگل!I24=کلید!H$2,3,IF(گوگل!I24="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J24" s="12">
         <f>IF(گوگل!J24=کلید!I$2,3,IF(گوگل!J24="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K24" s="12">
         <f>IF(گوگل!K24=کلید!J$2,3,IF(گوگل!K24="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L24" s="12">
         <f>IF(گوگل!L24=کلید!K$2,3,IF(گوگل!L24="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M24" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -3478,47 +3498,47 @@
       </c>
       <c r="C25" s="12">
         <f>IF(گوگل!C25=کلید!B$2,3,IF(گوگل!C25="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D25" s="12">
         <f>IF(گوگل!D25=کلید!C$2,3,IF(گوگل!D25="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E25" s="12">
         <f>IF(گوگل!E25=کلید!D$2,3,IF(گوگل!E25="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F25" s="12">
         <f>IF(گوگل!F25=کلید!E$2,3,IF(گوگل!F25="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G25" s="12">
         <f>IF(گوگل!G25=کلید!F$2,3,IF(گوگل!G25="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H25" s="12">
         <f>IF(گوگل!H25=کلید!G$2,3,IF(گوگل!H25="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I25" s="12">
         <f>IF(گوگل!I25=کلید!H$2,3,IF(گوگل!I25="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J25" s="12">
         <f>IF(گوگل!J25=کلید!I$2,3,IF(گوگل!J25="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K25" s="12">
         <f>IF(گوگل!K25=کلید!J$2,3,IF(گوگل!K25="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L25" s="12">
         <f>IF(گوگل!L25=کلید!K$2,3,IF(گوگل!L25="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M25" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -3532,47 +3552,47 @@
       </c>
       <c r="C26" s="12">
         <f>IF(گوگل!C26=کلید!B$2,3,IF(گوگل!C26="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D26" s="12">
         <f>IF(گوگل!D26=کلید!C$2,3,IF(گوگل!D26="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E26" s="12">
         <f>IF(گوگل!E26=کلید!D$2,3,IF(گوگل!E26="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F26" s="12">
         <f>IF(گوگل!F26=کلید!E$2,3,IF(گوگل!F26="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G26" s="12">
         <f>IF(گوگل!G26=کلید!F$2,3,IF(گوگل!G26="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H26" s="12">
         <f>IF(گوگل!H26=کلید!G$2,3,IF(گوگل!H26="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I26" s="12">
         <f>IF(گوگل!I26=کلید!H$2,3,IF(گوگل!I26="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J26" s="12">
         <f>IF(گوگل!J26=کلید!I$2,3,IF(گوگل!J26="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K26" s="12">
         <f>IF(گوگل!K26=کلید!J$2,3,IF(گوگل!K26="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L26" s="12">
         <f>IF(گوگل!L26=کلید!K$2,3,IF(گوگل!L26="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M26" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -3586,47 +3606,47 @@
       </c>
       <c r="C27" s="12">
         <f>IF(گوگل!C27=کلید!B$2,3,IF(گوگل!C27="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D27" s="12">
         <f>IF(گوگل!D27=کلید!C$2,3,IF(گوگل!D27="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E27" s="12">
         <f>IF(گوگل!E27=کلید!D$2,3,IF(گوگل!E27="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F27" s="12">
         <f>IF(گوگل!F27=کلید!E$2,3,IF(گوگل!F27="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G27" s="12">
         <f>IF(گوگل!G27=کلید!F$2,3,IF(گوگل!G27="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H27" s="12">
         <f>IF(گوگل!H27=کلید!G$2,3,IF(گوگل!H27="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I27" s="12">
         <f>IF(گوگل!I27=کلید!H$2,3,IF(گوگل!I27="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J27" s="12">
         <f>IF(گوگل!J27=کلید!I$2,3,IF(گوگل!J27="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K27" s="12">
         <f>IF(گوگل!K27=کلید!J$2,3,IF(گوگل!K27="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L27" s="12">
         <f>IF(گوگل!L27=کلید!K$2,3,IF(گوگل!L27="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M27" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -3640,47 +3660,47 @@
       </c>
       <c r="C28" s="12">
         <f>IF(گوگل!C28=کلید!B$2,3,IF(گوگل!C28="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D28" s="12">
         <f>IF(گوگل!D28=کلید!C$2,3,IF(گوگل!D28="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E28" s="12">
         <f>IF(گوگل!E28=کلید!D$2,3,IF(گوگل!E28="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F28" s="12">
         <f>IF(گوگل!F28=کلید!E$2,3,IF(گوگل!F28="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G28" s="12">
         <f>IF(گوگل!G28=کلید!F$2,3,IF(گوگل!G28="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H28" s="12">
         <f>IF(گوگل!H28=کلید!G$2,3,IF(گوگل!H28="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I28" s="12">
         <f>IF(گوگل!I28=کلید!H$2,3,IF(گوگل!I28="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J28" s="12">
         <f>IF(گوگل!J28=کلید!I$2,3,IF(گوگل!J28="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K28" s="12">
         <f>IF(گوگل!K28=کلید!J$2,3,IF(گوگل!K28="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L28" s="12">
         <f>IF(گوگل!L28=کلید!K$2,3,IF(گوگل!L28="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M28" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -3694,47 +3714,47 @@
       </c>
       <c r="C29" s="12">
         <f>IF(گوگل!C29=کلید!B$2,3,IF(گوگل!C29="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D29" s="12">
         <f>IF(گوگل!D29=کلید!C$2,3,IF(گوگل!D29="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E29" s="12">
         <f>IF(گوگل!E29=کلید!D$2,3,IF(گوگل!E29="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F29" s="12">
         <f>IF(گوگل!F29=کلید!E$2,3,IF(گوگل!F29="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G29" s="12">
         <f>IF(گوگل!G29=کلید!F$2,3,IF(گوگل!G29="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H29" s="12">
         <f>IF(گوگل!H29=کلید!G$2,3,IF(گوگل!H29="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I29" s="12">
         <f>IF(گوگل!I29=کلید!H$2,3,IF(گوگل!I29="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J29" s="12">
         <f>IF(گوگل!J29=کلید!I$2,3,IF(گوگل!J29="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K29" s="12">
         <f>IF(گوگل!K29=کلید!J$2,3,IF(گوگل!K29="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L29" s="12">
         <f>IF(گوگل!L29=کلید!K$2,3,IF(گوگل!L29="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M29" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -3748,47 +3768,47 @@
       </c>
       <c r="C30" s="12">
         <f>IF(گوگل!C30=کلید!B$2,3,IF(گوگل!C30="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D30" s="12">
         <f>IF(گوگل!D30=کلید!C$2,3,IF(گوگل!D30="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E30" s="12">
         <f>IF(گوگل!E30=کلید!D$2,3,IF(گوگل!E30="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F30" s="12">
         <f>IF(گوگل!F30=کلید!E$2,3,IF(گوگل!F30="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G30" s="12">
         <f>IF(گوگل!G30=کلید!F$2,3,IF(گوگل!G30="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H30" s="12">
         <f>IF(گوگل!H30=کلید!G$2,3,IF(گوگل!H30="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I30" s="12">
         <f>IF(گوگل!I30=کلید!H$2,3,IF(گوگل!I30="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J30" s="12">
         <f>IF(گوگل!J30=کلید!I$2,3,IF(گوگل!J30="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K30" s="12">
         <f>IF(گوگل!K30=کلید!J$2,3,IF(گوگل!K30="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L30" s="12">
         <f>IF(گوگل!L30=کلید!K$2,3,IF(گوگل!L30="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M30" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -3802,47 +3822,47 @@
       </c>
       <c r="C31" s="12">
         <f>IF(گوگل!C31=کلید!B$2,3,IF(گوگل!C31="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D31" s="12">
         <f>IF(گوگل!D31=کلید!C$2,3,IF(گوگل!D31="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E31" s="12">
         <f>IF(گوگل!E31=کلید!D$2,3,IF(گوگل!E31="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F31" s="12">
         <f>IF(گوگل!F31=کلید!E$2,3,IF(گوگل!F31="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G31" s="12">
         <f>IF(گوگل!G31=کلید!F$2,3,IF(گوگل!G31="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H31" s="12">
         <f>IF(گوگل!H31=کلید!G$2,3,IF(گوگل!H31="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I31" s="12">
         <f>IF(گوگل!I31=کلید!H$2,3,IF(گوگل!I31="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J31" s="12">
         <f>IF(گوگل!J31=کلید!I$2,3,IF(گوگل!J31="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K31" s="12">
         <f>IF(گوگل!K31=کلید!J$2,3,IF(گوگل!K31="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L31" s="12">
         <f>IF(گوگل!L31=کلید!K$2,3,IF(گوگل!L31="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M31" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -3856,47 +3876,47 @@
       </c>
       <c r="C32" s="12">
         <f>IF(گوگل!C32=کلید!B$2,3,IF(گوگل!C32="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D32" s="12">
         <f>IF(گوگل!D32=کلید!C$2,3,IF(گوگل!D32="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E32" s="12">
         <f>IF(گوگل!E32=کلید!D$2,3,IF(گوگل!E32="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F32" s="12">
         <f>IF(گوگل!F32=کلید!E$2,3,IF(گوگل!F32="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G32" s="12">
         <f>IF(گوگل!G32=کلید!F$2,3,IF(گوگل!G32="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H32" s="12">
         <f>IF(گوگل!H32=کلید!G$2,3,IF(گوگل!H32="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I32" s="12">
         <f>IF(گوگل!I32=کلید!H$2,3,IF(گوگل!I32="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J32" s="12">
         <f>IF(گوگل!J32=کلید!I$2,3,IF(گوگل!J32="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K32" s="12">
         <f>IF(گوگل!K32=کلید!J$2,3,IF(گوگل!K32="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L32" s="12">
         <f>IF(گوگل!L32=کلید!K$2,3,IF(گوگل!L32="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M32" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -3910,47 +3930,47 @@
       </c>
       <c r="C33" s="12">
         <f>IF(گوگل!C33=کلید!B$2,3,IF(گوگل!C33="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D33" s="12">
         <f>IF(گوگل!D33=کلید!C$2,3,IF(گوگل!D33="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E33" s="12">
         <f>IF(گوگل!E33=کلید!D$2,3,IF(گوگل!E33="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F33" s="12">
         <f>IF(گوگل!F33=کلید!E$2,3,IF(گوگل!F33="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G33" s="12">
         <f>IF(گوگل!G33=کلید!F$2,3,IF(گوگل!G33="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H33" s="12">
         <f>IF(گوگل!H33=کلید!G$2,3,IF(گوگل!H33="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I33" s="12">
         <f>IF(گوگل!I33=کلید!H$2,3,IF(گوگل!I33="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J33" s="12">
         <f>IF(گوگل!J33=کلید!I$2,3,IF(گوگل!J33="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K33" s="12">
         <f>IF(گوگل!K33=کلید!J$2,3,IF(گوگل!K33="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L33" s="12">
         <f>IF(گوگل!L33=کلید!K$2,3,IF(گوگل!L33="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M33" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -3964,47 +3984,47 @@
       </c>
       <c r="C34" s="12">
         <f>IF(گوگل!C34=کلید!B$2,3,IF(گوگل!C34="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D34" s="12">
         <f>IF(گوگل!D34=کلید!C$2,3,IF(گوگل!D34="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E34" s="12">
         <f>IF(گوگل!E34=کلید!D$2,3,IF(گوگل!E34="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F34" s="12">
         <f>IF(گوگل!F34=کلید!E$2,3,IF(گوگل!F34="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G34" s="12">
         <f>IF(گوگل!G34=کلید!F$2,3,IF(گوگل!G34="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H34" s="12">
         <f>IF(گوگل!H34=کلید!G$2,3,IF(گوگل!H34="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I34" s="12">
         <f>IF(گوگل!I34=کلید!H$2,3,IF(گوگل!I34="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J34" s="12">
         <f>IF(گوگل!J34=کلید!I$2,3,IF(گوگل!J34="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K34" s="12">
         <f>IF(گوگل!K34=کلید!J$2,3,IF(گوگل!K34="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L34" s="12">
         <f>IF(گوگل!L34=کلید!K$2,3,IF(گوگل!L34="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M34" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -4018,47 +4038,47 @@
       </c>
       <c r="C35" s="12">
         <f>IF(گوگل!C35=کلید!B$2,3,IF(گوگل!C35="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D35" s="12">
         <f>IF(گوگل!D35=کلید!C$2,3,IF(گوگل!D35="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E35" s="12">
         <f>IF(گوگل!E35=کلید!D$2,3,IF(گوگل!E35="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F35" s="12">
         <f>IF(گوگل!F35=کلید!E$2,3,IF(گوگل!F35="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G35" s="12">
         <f>IF(گوگل!G35=کلید!F$2,3,IF(گوگل!G35="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H35" s="12">
         <f>IF(گوگل!H35=کلید!G$2,3,IF(گوگل!H35="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I35" s="12">
         <f>IF(گوگل!I35=کلید!H$2,3,IF(گوگل!I35="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J35" s="12">
         <f>IF(گوگل!J35=کلید!I$2,3,IF(گوگل!J35="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K35" s="12">
         <f>IF(گوگل!K35=کلید!J$2,3,IF(گوگل!K35="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L35" s="12">
         <f>IF(گوگل!L35=کلید!K$2,3,IF(گوگل!L35="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M35" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -4072,47 +4092,47 @@
       </c>
       <c r="C36" s="12">
         <f>IF(گوگل!C36=کلید!B$2,3,IF(گوگل!C36="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D36" s="12">
         <f>IF(گوگل!D36=کلید!C$2,3,IF(گوگل!D36="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E36" s="12">
         <f>IF(گوگل!E36=کلید!D$2,3,IF(گوگل!E36="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F36" s="12">
         <f>IF(گوگل!F36=کلید!E$2,3,IF(گوگل!F36="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G36" s="12">
         <f>IF(گوگل!G36=کلید!F$2,3,IF(گوگل!G36="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H36" s="12">
         <f>IF(گوگل!H36=کلید!G$2,3,IF(گوگل!H36="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I36" s="12">
         <f>IF(گوگل!I36=کلید!H$2,3,IF(گوگل!I36="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J36" s="12">
         <f>IF(گوگل!J36=کلید!I$2,3,IF(گوگل!J36="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K36" s="12">
         <f>IF(گوگل!K36=کلید!J$2,3,IF(گوگل!K36="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L36" s="12">
         <f>IF(گوگل!L36=کلید!K$2,3,IF(گوگل!L36="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M36" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -4126,47 +4146,47 @@
       </c>
       <c r="C37" s="12">
         <f>IF(گوگل!C37=کلید!B$2,3,IF(گوگل!C37="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D37" s="12">
         <f>IF(گوگل!D37=کلید!C$2,3,IF(گوگل!D37="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E37" s="12">
         <f>IF(گوگل!E37=کلید!D$2,3,IF(گوگل!E37="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F37" s="12">
         <f>IF(گوگل!F37=کلید!E$2,3,IF(گوگل!F37="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G37" s="12">
         <f>IF(گوگل!G37=کلید!F$2,3,IF(گوگل!G37="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H37" s="12">
         <f>IF(گوگل!H37=کلید!G$2,3,IF(گوگل!H37="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I37" s="12">
         <f>IF(گوگل!I37=کلید!H$2,3,IF(گوگل!I37="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J37" s="12">
         <f>IF(گوگل!J37=کلید!I$2,3,IF(گوگل!J37="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K37" s="12">
         <f>IF(گوگل!K37=کلید!J$2,3,IF(گوگل!K37="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L37" s="12">
         <f>IF(گوگل!L37=کلید!K$2,3,IF(گوگل!L37="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M37" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -4180,47 +4200,47 @@
       </c>
       <c r="C38" s="12">
         <f>IF(گوگل!C38=کلید!B$2,3,IF(گوگل!C38="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D38" s="12">
         <f>IF(گوگل!D38=کلید!C$2,3,IF(گوگل!D38="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E38" s="12">
         <f>IF(گوگل!E38=کلید!D$2,3,IF(گوگل!E38="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F38" s="12">
         <f>IF(گوگل!F38=کلید!E$2,3,IF(گوگل!F38="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G38" s="12">
         <f>IF(گوگل!G38=کلید!F$2,3,IF(گوگل!G38="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H38" s="12">
         <f>IF(گوگل!H38=کلید!G$2,3,IF(گوگل!H38="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I38" s="12">
         <f>IF(گوگل!I38=کلید!H$2,3,IF(گوگل!I38="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J38" s="12">
         <f>IF(گوگل!J38=کلید!I$2,3,IF(گوگل!J38="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K38" s="12">
         <f>IF(گوگل!K38=کلید!J$2,3,IF(گوگل!K38="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L38" s="12">
         <f>IF(گوگل!L38=کلید!K$2,3,IF(گوگل!L38="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M38" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -4234,47 +4254,47 @@
       </c>
       <c r="C39" s="12">
         <f>IF(گوگل!C39=کلید!B$2,3,IF(گوگل!C39="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D39" s="12">
         <f>IF(گوگل!D39=کلید!C$2,3,IF(گوگل!D39="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E39" s="12">
         <f>IF(گوگل!E39=کلید!D$2,3,IF(گوگل!E39="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F39" s="12">
         <f>IF(گوگل!F39=کلید!E$2,3,IF(گوگل!F39="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G39" s="12">
         <f>IF(گوگل!G39=کلید!F$2,3,IF(گوگل!G39="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H39" s="12">
         <f>IF(گوگل!H39=کلید!G$2,3,IF(گوگل!H39="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I39" s="12">
         <f>IF(گوگل!I39=کلید!H$2,3,IF(گوگل!I39="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J39" s="12">
         <f>IF(گوگل!J39=کلید!I$2,3,IF(گوگل!J39="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K39" s="12">
         <f>IF(گوگل!K39=کلید!J$2,3,IF(گوگل!K39="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L39" s="12">
         <f>IF(گوگل!L39=کلید!K$2,3,IF(گوگل!L39="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M39" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -4288,47 +4308,47 @@
       </c>
       <c r="C40" s="12">
         <f>IF(گوگل!C40=کلید!B$2,3,IF(گوگل!C40="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D40" s="12">
         <f>IF(گوگل!D40=کلید!C$2,3,IF(گوگل!D40="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E40" s="12">
         <f>IF(گوگل!E40=کلید!D$2,3,IF(گوگل!E40="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F40" s="12">
         <f>IF(گوگل!F40=کلید!E$2,3,IF(گوگل!F40="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G40" s="12">
         <f>IF(گوگل!G40=کلید!F$2,3,IF(گوگل!G40="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H40" s="12">
         <f>IF(گوگل!H40=کلید!G$2,3,IF(گوگل!H40="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I40" s="12">
         <f>IF(گوگل!I40=کلید!H$2,3,IF(گوگل!I40="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J40" s="12">
         <f>IF(گوگل!J40=کلید!I$2,3,IF(گوگل!J40="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K40" s="12">
         <f>IF(گوگل!K40=کلید!J$2,3,IF(گوگل!K40="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L40" s="12">
         <f>IF(گوگل!L40=کلید!K$2,3,IF(گوگل!L40="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M40" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -4342,47 +4362,47 @@
       </c>
       <c r="C41" s="12">
         <f>IF(گوگل!C41=کلید!B$2,3,IF(گوگل!C41="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D41" s="12">
         <f>IF(گوگل!D41=کلید!C$2,3,IF(گوگل!D41="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E41" s="12">
         <f>IF(گوگل!E41=کلید!D$2,3,IF(گوگل!E41="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F41" s="12">
         <f>IF(گوگل!F41=کلید!E$2,3,IF(گوگل!F41="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G41" s="12">
         <f>IF(گوگل!G41=کلید!F$2,3,IF(گوگل!G41="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H41" s="12">
         <f>IF(گوگل!H41=کلید!G$2,3,IF(گوگل!H41="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I41" s="12">
         <f>IF(گوگل!I41=کلید!H$2,3,IF(گوگل!I41="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J41" s="12">
         <f>IF(گوگل!J41=کلید!I$2,3,IF(گوگل!J41="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K41" s="12">
         <f>IF(گوگل!K41=کلید!J$2,3,IF(گوگل!K41="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L41" s="12">
         <f>IF(گوگل!L41=کلید!K$2,3,IF(گوگل!L41="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M41" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -4396,47 +4416,47 @@
       </c>
       <c r="C42" s="12">
         <f>IF(گوگل!C42=کلید!B$2,3,IF(گوگل!C42="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D42" s="12">
         <f>IF(گوگل!D42=کلید!C$2,3,IF(گوگل!D42="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E42" s="12">
         <f>IF(گوگل!E42=کلید!D$2,3,IF(گوگل!E42="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F42" s="12">
         <f>IF(گوگل!F42=کلید!E$2,3,IF(گوگل!F42="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G42" s="12">
         <f>IF(گوگل!G42=کلید!F$2,3,IF(گوگل!G42="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H42" s="12">
         <f>IF(گوگل!H42=کلید!G$2,3,IF(گوگل!H42="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I42" s="12">
         <f>IF(گوگل!I42=کلید!H$2,3,IF(گوگل!I42="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J42" s="12">
         <f>IF(گوگل!J42=کلید!I$2,3,IF(گوگل!J42="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K42" s="12">
         <f>IF(گوگل!K42=کلید!J$2,3,IF(گوگل!K42="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L42" s="12">
         <f>IF(گوگل!L42=کلید!K$2,3,IF(گوگل!L42="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M42" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -4450,47 +4470,47 @@
       </c>
       <c r="C43" s="12">
         <f>IF(گوگل!C43=کلید!B$2,3,IF(گوگل!C43="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D43" s="12">
         <f>IF(گوگل!D43=کلید!C$2,3,IF(گوگل!D43="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E43" s="12">
         <f>IF(گوگل!E43=کلید!D$2,3,IF(گوگل!E43="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F43" s="12">
         <f>IF(گوگل!F43=کلید!E$2,3,IF(گوگل!F43="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G43" s="12">
         <f>IF(گوگل!G43=کلید!F$2,3,IF(گوگل!G43="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H43" s="12">
         <f>IF(گوگل!H43=کلید!G$2,3,IF(گوگل!H43="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I43" s="12">
         <f>IF(گوگل!I43=کلید!H$2,3,IF(گوگل!I43="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J43" s="12">
         <f>IF(گوگل!J43=کلید!I$2,3,IF(گوگل!J43="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K43" s="12">
         <f>IF(گوگل!K43=کلید!J$2,3,IF(گوگل!K43="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L43" s="12">
         <f>IF(گوگل!L43=کلید!K$2,3,IF(گوگل!L43="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M43" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -4504,47 +4524,47 @@
       </c>
       <c r="C44" s="12">
         <f>IF(گوگل!C44=کلید!B$2,3,IF(گوگل!C44="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D44" s="12">
         <f>IF(گوگل!D44=کلید!C$2,3,IF(گوگل!D44="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E44" s="12">
         <f>IF(گوگل!E44=کلید!D$2,3,IF(گوگل!E44="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F44" s="12">
         <f>IF(گوگل!F44=کلید!E$2,3,IF(گوگل!F44="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G44" s="12">
         <f>IF(گوگل!G44=کلید!F$2,3,IF(گوگل!G44="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H44" s="12">
         <f>IF(گوگل!H44=کلید!G$2,3,IF(گوگل!H44="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I44" s="12">
         <f>IF(گوگل!I44=کلید!H$2,3,IF(گوگل!I44="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J44" s="12">
         <f>IF(گوگل!J44=کلید!I$2,3,IF(گوگل!J44="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K44" s="12">
         <f>IF(گوگل!K44=کلید!J$2,3,IF(گوگل!K44="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L44" s="12">
         <f>IF(گوگل!L44=کلید!K$2,3,IF(گوگل!L44="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M44" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -7993,43 +8013,43 @@
       </c>
       <c r="E44" s="39">
         <f>کلید!B2</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F44" s="39">
         <f>کلید!C2</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G44" s="39">
         <f>کلید!D2</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H44" s="39">
         <f>کلید!E2</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" s="39">
         <f>کلید!F2</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" s="39">
         <f>کلید!G2</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K44" s="39">
         <f>کلید!H2</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L44" s="39">
         <f>کلید!I2</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M44" s="39">
         <f>کلید!J2</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N44" s="39">
         <f>کلید!K2</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O44" s="39" t="s">
         <v>53</v>
@@ -11156,43 +11176,43 @@
       </c>
       <c r="E44" s="39">
         <f>کلید!B2</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F44" s="39">
         <f>کلید!C2</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G44" s="39">
         <f>کلید!D2</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H44" s="39">
         <f>کلید!E2</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" s="39">
         <f>کلید!F2</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" s="39">
         <f>کلید!G2</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K44" s="39">
         <f>کلید!H2</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L44" s="39">
         <f>کلید!I2</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M44" s="39">
         <f>کلید!J2</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N44" s="39">
         <f>کلید!K2</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O44" s="39" t="s">
         <v>53</v>

--- a/week 6/فارسی/Skale(V3.6).xlsx
+++ b/week 6/فارسی/Skale(V3.6).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="گوگل" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="67">
   <si>
     <t>نام</t>
   </si>
@@ -228,6 +228,9 @@
   </si>
   <si>
     <t>کلید</t>
+  </si>
+  <si>
+    <t>محمدکیان ولکجی</t>
   </si>
 </sst>
 </file>
@@ -1413,8 +1416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ45"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1463,523 +1466,1215 @@
       <c r="N1" s="2"/>
     </row>
     <row r="2" spans="1:14" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="44"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
+      <c r="A2" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="44">
+        <v>1038</v>
+      </c>
+      <c r="C2" s="44">
+        <v>2</v>
+      </c>
+      <c r="D2" s="44">
+        <v>2</v>
+      </c>
+      <c r="E2" s="44">
+        <v>2</v>
+      </c>
+      <c r="F2" s="44">
+        <v>3</v>
+      </c>
+      <c r="G2" s="44">
+        <v>3</v>
+      </c>
+      <c r="H2" s="44">
+        <v>1</v>
+      </c>
+      <c r="I2" s="44">
+        <v>3</v>
+      </c>
+      <c r="J2" s="44">
+        <v>3</v>
+      </c>
+      <c r="K2" s="44">
+        <v>1</v>
+      </c>
+      <c r="L2" s="44">
+        <v>3</v>
+      </c>
       <c r="N2" s="2"/>
     </row>
     <row r="3" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="44"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="45"/>
+      <c r="A3" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="44">
+        <v>1030</v>
+      </c>
+      <c r="C3" s="45"/>
+      <c r="D3" s="44">
+        <v>2</v>
+      </c>
       <c r="E3" s="45"/>
-      <c r="F3" s="44"/>
+      <c r="F3" s="44">
+        <v>2</v>
+      </c>
       <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
+      <c r="H3" s="44">
+        <v>1</v>
+      </c>
+      <c r="I3" s="44">
+        <v>3</v>
+      </c>
       <c r="J3" s="45"/>
       <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
+      <c r="L3" s="44">
+        <v>4</v>
+      </c>
     </row>
     <row r="4" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="44"/>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
+      <c r="A4" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="44">
+        <v>1020</v>
+      </c>
+      <c r="C4" s="44">
+        <v>2</v>
+      </c>
+      <c r="D4" s="44">
+        <v>2</v>
+      </c>
+      <c r="E4" s="44">
+        <v>3</v>
+      </c>
+      <c r="F4" s="44">
+        <v>2</v>
+      </c>
       <c r="G4" s="45"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="45"/>
+      <c r="H4" s="44">
+        <v>1</v>
+      </c>
+      <c r="I4" s="44">
+        <v>3</v>
+      </c>
+      <c r="J4" s="44">
+        <v>3</v>
+      </c>
       <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
+      <c r="L4" s="44">
+        <v>4</v>
+      </c>
     </row>
     <row r="5" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="44"/>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
+      <c r="A5" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="44">
+        <v>1011</v>
+      </c>
+      <c r="C5" s="44">
+        <v>2</v>
+      </c>
+      <c r="D5" s="44">
+        <v>2</v>
+      </c>
+      <c r="E5" s="44">
+        <v>4</v>
+      </c>
+      <c r="F5" s="44">
+        <v>2</v>
+      </c>
+      <c r="G5" s="44">
+        <v>4</v>
+      </c>
+      <c r="H5" s="44">
+        <v>1</v>
+      </c>
+      <c r="I5" s="44">
+        <v>3</v>
+      </c>
+      <c r="J5" s="45"/>
+      <c r="K5" s="44">
+        <v>4</v>
+      </c>
+      <c r="L5" s="44">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="44"/>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="44"/>
+      <c r="A6" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="44">
+        <v>1008</v>
+      </c>
+      <c r="C6" s="44">
+        <v>2</v>
+      </c>
+      <c r="D6" s="44">
+        <v>2</v>
+      </c>
+      <c r="E6" s="44">
+        <v>3</v>
+      </c>
+      <c r="F6" s="44">
+        <v>2</v>
+      </c>
+      <c r="G6" s="44">
+        <v>3</v>
+      </c>
+      <c r="H6" s="44">
+        <v>1</v>
+      </c>
+      <c r="I6" s="44">
+        <v>3</v>
+      </c>
+      <c r="J6" s="44">
+        <v>3</v>
+      </c>
+      <c r="K6" s="44">
+        <v>3</v>
+      </c>
+      <c r="L6" s="44">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="44"/>
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44"/>
+      <c r="A7" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="44">
+        <v>1004</v>
+      </c>
+      <c r="C7" s="44">
+        <v>2</v>
+      </c>
+      <c r="D7" s="44">
+        <v>2</v>
+      </c>
+      <c r="E7" s="44">
+        <v>3</v>
+      </c>
+      <c r="F7" s="44">
+        <v>3</v>
+      </c>
+      <c r="G7" s="44">
+        <v>4</v>
+      </c>
+      <c r="H7" s="44">
+        <v>1</v>
+      </c>
+      <c r="I7" s="44">
+        <v>3</v>
+      </c>
+      <c r="J7" s="44">
+        <v>4</v>
+      </c>
+      <c r="K7" s="44">
+        <v>2</v>
+      </c>
+      <c r="L7" s="44">
+        <v>3</v>
+      </c>
     </row>
     <row r="8" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="44"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
+      <c r="A8" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="44">
+        <v>1001</v>
+      </c>
+      <c r="C8" s="44">
+        <v>2</v>
+      </c>
+      <c r="D8" s="44">
+        <v>2</v>
+      </c>
+      <c r="E8" s="44">
+        <v>2</v>
+      </c>
+      <c r="F8" s="44">
+        <v>1</v>
+      </c>
       <c r="G8" s="45"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="44"/>
+      <c r="H8" s="44">
+        <v>4</v>
+      </c>
+      <c r="I8" s="44">
+        <v>2</v>
+      </c>
+      <c r="J8" s="45"/>
+      <c r="K8" s="44">
+        <v>3</v>
+      </c>
+      <c r="L8" s="44">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="44"/>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="45"/>
+      <c r="A9" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="44">
+        <v>1029</v>
+      </c>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="44">
+        <v>3</v>
+      </c>
+      <c r="F9" s="44">
+        <v>2</v>
+      </c>
+      <c r="G9" s="44">
+        <v>2</v>
+      </c>
+      <c r="H9" s="44">
+        <v>1</v>
+      </c>
+      <c r="I9" s="44">
+        <v>2</v>
+      </c>
+      <c r="J9" s="45"/>
+      <c r="K9" s="44">
+        <v>4</v>
+      </c>
+      <c r="L9" s="44">
+        <v>4</v>
+      </c>
     </row>
     <row r="10" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="44"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
+      <c r="A10" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="44">
+        <v>1014</v>
+      </c>
+      <c r="C10" s="45"/>
+      <c r="D10" s="44">
+        <v>1</v>
+      </c>
+      <c r="E10" s="44">
+        <v>3</v>
+      </c>
+      <c r="F10" s="45"/>
       <c r="G10" s="45"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="45"/>
-      <c r="L10" s="44"/>
+      <c r="H10" s="44">
+        <v>1</v>
+      </c>
+      <c r="I10" s="44">
+        <v>3</v>
+      </c>
+      <c r="J10" s="44">
+        <v>3</v>
+      </c>
+      <c r="K10" s="44">
+        <v>4</v>
+      </c>
+      <c r="L10" s="45"/>
     </row>
     <row r="11" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="44"/>
-      <c r="B11" s="44"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="45"/>
-      <c r="L11" s="44"/>
+      <c r="A11" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="44">
+        <v>1018</v>
+      </c>
+      <c r="C11" s="44">
+        <v>2</v>
+      </c>
+      <c r="D11" s="44">
+        <v>2</v>
+      </c>
+      <c r="E11" s="44">
+        <v>3</v>
+      </c>
+      <c r="F11" s="44">
+        <v>2</v>
+      </c>
+      <c r="G11" s="44">
+        <v>2</v>
+      </c>
+      <c r="H11" s="44">
+        <v>1</v>
+      </c>
+      <c r="I11" s="44">
+        <v>3</v>
+      </c>
+      <c r="J11" s="44">
+        <v>1</v>
+      </c>
+      <c r="K11" s="44">
+        <v>4</v>
+      </c>
+      <c r="L11" s="44">
+        <v>3</v>
+      </c>
     </row>
     <row r="12" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="44"/>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
+      <c r="A12" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="44">
+        <v>1026</v>
+      </c>
+      <c r="C12" s="44">
+        <v>2</v>
+      </c>
+      <c r="D12" s="44">
+        <v>2</v>
+      </c>
+      <c r="E12" s="44">
+        <v>3</v>
+      </c>
+      <c r="F12" s="44">
+        <v>2</v>
+      </c>
       <c r="G12" s="45"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="45"/>
+      <c r="H12" s="44">
+        <v>1</v>
+      </c>
+      <c r="I12" s="44">
+        <v>3</v>
+      </c>
+      <c r="J12" s="44">
+        <v>3</v>
+      </c>
       <c r="K12" s="45"/>
-      <c r="L12" s="45"/>
+      <c r="L12" s="44">
+        <v>2</v>
+      </c>
     </row>
     <row r="13" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="44"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="45"/>
-      <c r="K13" s="44"/>
-      <c r="L13" s="44"/>
+      <c r="A13" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="44">
+        <v>1039</v>
+      </c>
+      <c r="C13" s="44">
+        <v>2</v>
+      </c>
+      <c r="D13" s="44">
+        <v>2</v>
+      </c>
+      <c r="E13" s="44">
+        <v>3</v>
+      </c>
+      <c r="F13" s="44">
+        <v>2</v>
+      </c>
+      <c r="G13" s="44">
+        <v>3</v>
+      </c>
+      <c r="H13" s="44">
+        <v>1</v>
+      </c>
+      <c r="I13" s="44">
+        <v>3</v>
+      </c>
+      <c r="J13" s="44">
+        <v>3</v>
+      </c>
+      <c r="K13" s="45"/>
+      <c r="L13" s="44">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="44"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="44"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="45"/>
-      <c r="L14" s="44"/>
+      <c r="A14" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="44">
+        <v>1002</v>
+      </c>
+      <c r="C14" s="45"/>
+      <c r="D14" s="44">
+        <v>2</v>
+      </c>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="44">
+        <v>1</v>
+      </c>
+      <c r="H14" s="44">
+        <v>1</v>
+      </c>
+      <c r="I14" s="44">
+        <v>3</v>
+      </c>
+      <c r="J14" s="44">
+        <v>3</v>
+      </c>
+      <c r="K14" s="44">
+        <v>1</v>
+      </c>
+      <c r="L14" s="45"/>
     </row>
     <row r="15" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="44"/>
-      <c r="B15" s="44"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
+      <c r="A15" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="44">
+        <v>1010</v>
+      </c>
+      <c r="C15" s="44">
+        <v>2</v>
+      </c>
+      <c r="D15" s="44">
+        <v>1</v>
+      </c>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
       <c r="G15" s="45"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="45"/>
+      <c r="H15" s="44">
+        <v>1</v>
+      </c>
+      <c r="I15" s="44">
+        <v>3</v>
+      </c>
       <c r="J15" s="45"/>
       <c r="K15" s="45"/>
       <c r="L15" s="45"/>
     </row>
     <row r="16" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="44"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="45"/>
-      <c r="L16" s="45"/>
+      <c r="A16" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="44">
+        <v>1023</v>
+      </c>
+      <c r="C16" s="44">
+        <v>2</v>
+      </c>
+      <c r="D16" s="44">
+        <v>1</v>
+      </c>
+      <c r="E16" s="44">
+        <v>2</v>
+      </c>
+      <c r="F16" s="44">
+        <v>3</v>
+      </c>
+      <c r="G16" s="44">
+        <v>2</v>
+      </c>
+      <c r="H16" s="44">
+        <v>1</v>
+      </c>
+      <c r="I16" s="44">
+        <v>4</v>
+      </c>
+      <c r="J16" s="44">
+        <v>1</v>
+      </c>
+      <c r="K16" s="44">
+        <v>4</v>
+      </c>
+      <c r="L16" s="44">
+        <v>2</v>
+      </c>
     </row>
     <row r="17" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="44"/>
-      <c r="B17" s="44"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="45"/>
-      <c r="L17" s="44"/>
+      <c r="A17" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="44">
+        <v>1041</v>
+      </c>
+      <c r="C17" s="44">
+        <v>2</v>
+      </c>
+      <c r="D17" s="44">
+        <v>2</v>
+      </c>
+      <c r="E17" s="44">
+        <v>3</v>
+      </c>
+      <c r="F17" s="44">
+        <v>1</v>
+      </c>
+      <c r="G17" s="44">
+        <v>3</v>
+      </c>
+      <c r="H17" s="44">
+        <v>1</v>
+      </c>
+      <c r="I17" s="44">
+        <v>2</v>
+      </c>
+      <c r="J17" s="44">
+        <v>3</v>
+      </c>
+      <c r="K17" s="44">
+        <v>1</v>
+      </c>
+      <c r="L17" s="44">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="44"/>
-      <c r="B18" s="44"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
+      <c r="A18" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="44">
+        <v>1031</v>
+      </c>
+      <c r="C18" s="45"/>
+      <c r="D18" s="44">
+        <v>1</v>
+      </c>
+      <c r="E18" s="44">
+        <v>3</v>
+      </c>
       <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="44"/>
+      <c r="G18" s="44">
+        <v>1</v>
+      </c>
+      <c r="H18" s="44">
+        <v>1</v>
+      </c>
       <c r="I18" s="45"/>
       <c r="J18" s="45"/>
-      <c r="K18" s="44"/>
+      <c r="K18" s="44">
+        <v>4</v>
+      </c>
       <c r="L18" s="45"/>
     </row>
     <row r="19" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="44"/>
-      <c r="B19" s="44"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44"/>
+      <c r="A19" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="44">
+        <v>1005</v>
+      </c>
+      <c r="C19" s="45"/>
+      <c r="D19" s="44">
+        <v>2</v>
+      </c>
+      <c r="E19" s="44">
+        <v>3</v>
+      </c>
+      <c r="F19" s="45"/>
       <c r="G19" s="45"/>
-      <c r="H19" s="44"/>
+      <c r="H19" s="44">
+        <v>1</v>
+      </c>
       <c r="I19" s="45"/>
-      <c r="J19" s="45"/>
-      <c r="K19" s="45"/>
+      <c r="J19" s="44">
+        <v>1</v>
+      </c>
+      <c r="K19" s="44">
+        <v>4</v>
+      </c>
       <c r="L19" s="45"/>
     </row>
     <row r="20" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="44"/>
-      <c r="B20" s="44"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="45"/>
+      <c r="A20" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="44">
+        <v>1028</v>
+      </c>
+      <c r="C20" s="44">
+        <v>2</v>
+      </c>
+      <c r="D20" s="44">
+        <v>2</v>
+      </c>
+      <c r="E20" s="44">
+        <v>3</v>
+      </c>
+      <c r="F20" s="44">
+        <v>2</v>
+      </c>
+      <c r="G20" s="44">
+        <v>3</v>
+      </c>
+      <c r="H20" s="44">
+        <v>1</v>
+      </c>
+      <c r="I20" s="44">
+        <v>3</v>
+      </c>
       <c r="J20" s="45"/>
-      <c r="K20" s="44"/>
+      <c r="K20" s="45"/>
       <c r="L20" s="45"/>
     </row>
     <row r="21" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="44"/>
-      <c r="B21" s="44"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
+      <c r="A21" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="44">
+        <v>1024</v>
+      </c>
+      <c r="C21" s="45"/>
+      <c r="D21" s="44">
+        <v>1</v>
+      </c>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
       <c r="G21" s="45"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="44"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="45"/>
       <c r="J21" s="45"/>
-      <c r="K21" s="45"/>
+      <c r="K21" s="44">
+        <v>4</v>
+      </c>
       <c r="L21" s="45"/>
     </row>
     <row r="22" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="44"/>
-      <c r="B22" s="44"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
+      <c r="A22" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="44">
+        <v>1009</v>
+      </c>
+      <c r="C22" s="44">
+        <v>2</v>
+      </c>
+      <c r="D22" s="44">
+        <v>2</v>
+      </c>
+      <c r="E22" s="44">
+        <v>3</v>
+      </c>
+      <c r="F22" s="45"/>
       <c r="G22" s="45"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="45"/>
-      <c r="J22" s="45"/>
-      <c r="K22" s="45"/>
+      <c r="H22" s="44">
+        <v>1</v>
+      </c>
+      <c r="I22" s="44">
+        <v>1</v>
+      </c>
+      <c r="J22" s="44">
+        <v>1</v>
+      </c>
+      <c r="K22" s="44">
+        <v>4</v>
+      </c>
       <c r="L22" s="45"/>
     </row>
     <row r="23" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="44"/>
-      <c r="B23" s="44"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
+      <c r="A23" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="44">
+        <v>1025</v>
+      </c>
+      <c r="C23" s="44">
+        <v>2</v>
+      </c>
+      <c r="D23" s="44">
+        <v>2</v>
+      </c>
+      <c r="E23" s="44">
+        <v>4</v>
+      </c>
+      <c r="F23" s="45"/>
       <c r="G23" s="45"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="44"/>
-      <c r="K23" s="44"/>
-      <c r="L23" s="44"/>
+      <c r="H23" s="44">
+        <v>1</v>
+      </c>
+      <c r="I23" s="44">
+        <v>3</v>
+      </c>
+      <c r="J23" s="45"/>
+      <c r="K23" s="45"/>
+      <c r="L23" s="45"/>
     </row>
     <row r="24" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="44"/>
-      <c r="B24" s="44"/>
-      <c r="C24" s="44"/>
+      <c r="A24" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="44">
+        <v>1033</v>
+      </c>
+      <c r="C24" s="44">
+        <v>2</v>
+      </c>
       <c r="D24" s="45"/>
       <c r="E24" s="45"/>
       <c r="F24" s="45"/>
       <c r="G24" s="45"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="45"/>
-      <c r="J24" s="45"/>
-      <c r="K24" s="44"/>
-      <c r="L24" s="45"/>
+      <c r="H24" s="44">
+        <v>1</v>
+      </c>
+      <c r="I24" s="44">
+        <v>3</v>
+      </c>
+      <c r="J24" s="44">
+        <v>2</v>
+      </c>
+      <c r="K24" s="44">
+        <v>4</v>
+      </c>
+      <c r="L24" s="44">
+        <v>2</v>
+      </c>
     </row>
     <row r="25" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="44"/>
-      <c r="B25" s="44"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
+      <c r="A25" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="44">
+        <v>1012</v>
+      </c>
+      <c r="C25" s="44">
+        <v>2</v>
+      </c>
+      <c r="D25" s="44">
+        <v>2</v>
+      </c>
+      <c r="E25" s="45"/>
+      <c r="F25" s="44">
+        <v>2</v>
+      </c>
       <c r="G25" s="45"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="44"/>
-      <c r="L25" s="44"/>
+      <c r="H25" s="44">
+        <v>1</v>
+      </c>
+      <c r="I25" s="44">
+        <v>3</v>
+      </c>
+      <c r="J25" s="44">
+        <v>3</v>
+      </c>
+      <c r="K25" s="44">
+        <v>4</v>
+      </c>
+      <c r="L25" s="45"/>
     </row>
     <row r="26" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="44"/>
-      <c r="B26" s="44"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="44"/>
+      <c r="A26" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="44">
+        <v>1017</v>
+      </c>
+      <c r="C26" s="45"/>
+      <c r="D26" s="44">
+        <v>1</v>
+      </c>
+      <c r="E26" s="44">
+        <v>4</v>
+      </c>
+      <c r="F26" s="45"/>
       <c r="G26" s="45"/>
-      <c r="H26" s="44"/>
-      <c r="I26" s="45"/>
-      <c r="J26" s="45"/>
-      <c r="K26" s="44"/>
-      <c r="L26" s="45"/>
+      <c r="H26" s="44">
+        <v>1</v>
+      </c>
+      <c r="I26" s="44">
+        <v>3</v>
+      </c>
+      <c r="J26" s="44">
+        <v>3</v>
+      </c>
+      <c r="K26" s="44">
+        <v>1</v>
+      </c>
+      <c r="L26" s="44">
+        <v>4</v>
+      </c>
     </row>
     <row r="27" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="44"/>
-      <c r="B27" s="44"/>
-      <c r="C27" s="44"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="45"/>
-      <c r="I27" s="44"/>
+      <c r="A27" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="44">
+        <v>1007</v>
+      </c>
+      <c r="C27" s="45"/>
+      <c r="D27" s="44">
+        <v>2</v>
+      </c>
+      <c r="E27" s="44">
+        <v>3</v>
+      </c>
+      <c r="F27" s="45"/>
+      <c r="G27" s="44">
+        <v>2</v>
+      </c>
+      <c r="H27" s="44">
+        <v>1</v>
+      </c>
+      <c r="I27" s="45"/>
       <c r="J27" s="45"/>
-      <c r="K27" s="44"/>
+      <c r="K27" s="44">
+        <v>4</v>
+      </c>
       <c r="L27" s="45"/>
     </row>
     <row r="28" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="44"/>
-      <c r="B28" s="44"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
+      <c r="A28" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="44">
+        <v>1015</v>
+      </c>
+      <c r="C28" s="44">
+        <v>2</v>
+      </c>
+      <c r="D28" s="44">
+        <v>2</v>
+      </c>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
       <c r="G28" s="45"/>
-      <c r="H28" s="44"/>
-      <c r="I28" s="44"/>
-      <c r="J28" s="45"/>
-      <c r="K28" s="45"/>
-      <c r="L28" s="45"/>
+      <c r="H28" s="44">
+        <v>1</v>
+      </c>
+      <c r="I28" s="44">
+        <v>3</v>
+      </c>
+      <c r="J28" s="44">
+        <v>2</v>
+      </c>
+      <c r="K28" s="44">
+        <v>4</v>
+      </c>
+      <c r="L28" s="44">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="44"/>
-      <c r="B29" s="44"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="45"/>
-      <c r="J29" s="45"/>
-      <c r="K29" s="45"/>
+      <c r="A29" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" s="44">
+        <v>1003</v>
+      </c>
+      <c r="C29" s="44">
+        <v>2</v>
+      </c>
+      <c r="D29" s="44">
+        <v>1</v>
+      </c>
+      <c r="E29" s="44">
+        <v>3</v>
+      </c>
+      <c r="F29" s="44">
+        <v>2</v>
+      </c>
+      <c r="G29" s="45"/>
+      <c r="H29" s="44">
+        <v>1</v>
+      </c>
+      <c r="I29" s="44">
+        <v>3</v>
+      </c>
+      <c r="J29" s="44">
+        <v>3</v>
+      </c>
+      <c r="K29" s="44">
+        <v>3</v>
+      </c>
       <c r="L29" s="45"/>
     </row>
     <row r="30" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="44"/>
-      <c r="B30" s="44"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="44"/>
-      <c r="I30" s="45"/>
-      <c r="J30" s="45"/>
-      <c r="K30" s="44"/>
+      <c r="A30" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="44">
+        <v>1013</v>
+      </c>
+      <c r="C30" s="44">
+        <v>2</v>
+      </c>
+      <c r="D30" s="44">
+        <v>2</v>
+      </c>
+      <c r="E30" s="44">
+        <v>3</v>
+      </c>
+      <c r="F30" s="44">
+        <v>2</v>
+      </c>
+      <c r="G30" s="44">
+        <v>2</v>
+      </c>
+      <c r="H30" s="44">
+        <v>1</v>
+      </c>
+      <c r="I30" s="44">
+        <v>3</v>
+      </c>
+      <c r="J30" s="44">
+        <v>3</v>
+      </c>
+      <c r="K30" s="45"/>
       <c r="L30" s="45"/>
     </row>
     <row r="31" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="44"/>
-      <c r="B31" s="44"/>
-      <c r="C31" s="44"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="44"/>
-      <c r="H31" s="44"/>
-      <c r="I31" s="44"/>
-      <c r="J31" s="45"/>
-      <c r="K31" s="45"/>
-      <c r="L31" s="44"/>
+      <c r="A31" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="44">
+        <v>1037</v>
+      </c>
+      <c r="C31" s="44">
+        <v>2</v>
+      </c>
+      <c r="D31" s="44">
+        <v>1</v>
+      </c>
+      <c r="E31" s="44">
+        <v>3</v>
+      </c>
+      <c r="F31" s="45"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="44">
+        <v>1</v>
+      </c>
+      <c r="I31" s="44">
+        <v>3</v>
+      </c>
+      <c r="J31" s="44">
+        <v>1</v>
+      </c>
+      <c r="K31" s="44">
+        <v>4</v>
+      </c>
+      <c r="L31" s="45"/>
     </row>
     <row r="32" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="44"/>
-      <c r="B32" s="44"/>
-      <c r="C32" s="44"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="44"/>
+      <c r="A32" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="44">
+        <v>1019</v>
+      </c>
+      <c r="C32" s="44">
+        <v>2</v>
+      </c>
+      <c r="D32" s="44">
+        <v>2</v>
+      </c>
+      <c r="E32" s="44">
+        <v>3</v>
+      </c>
       <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="45"/>
+      <c r="G32" s="44">
+        <v>1</v>
+      </c>
+      <c r="H32" s="44">
+        <v>1</v>
+      </c>
       <c r="I32" s="45"/>
       <c r="J32" s="45"/>
-      <c r="K32" s="45"/>
-      <c r="L32" s="44"/>
+      <c r="K32" s="44">
+        <v>3</v>
+      </c>
+      <c r="L32" s="44">
+        <v>3</v>
+      </c>
     </row>
     <row r="33" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="44"/>
-      <c r="B33" s="44"/>
-      <c r="C33" s="44"/>
-      <c r="D33" s="44"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="44"/>
-      <c r="H33" s="45"/>
-      <c r="I33" s="44"/>
-      <c r="J33" s="45"/>
-      <c r="K33" s="45"/>
-      <c r="L33" s="45"/>
+      <c r="A33" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" s="44">
+        <v>1016</v>
+      </c>
+      <c r="C33" s="44">
+        <v>2</v>
+      </c>
+      <c r="D33" s="44">
+        <v>2</v>
+      </c>
+      <c r="E33" s="45"/>
+      <c r="F33" s="44">
+        <v>2</v>
+      </c>
+      <c r="G33" s="45"/>
+      <c r="H33" s="44">
+        <v>1</v>
+      </c>
+      <c r="I33" s="44">
+        <v>3</v>
+      </c>
+      <c r="J33" s="44">
+        <v>3</v>
+      </c>
+      <c r="K33" s="44">
+        <v>1</v>
+      </c>
+      <c r="L33" s="44">
+        <v>3</v>
+      </c>
     </row>
     <row r="34" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="44"/>
-      <c r="B34" s="44"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="44"/>
-      <c r="I34" s="44"/>
-      <c r="J34" s="44"/>
-      <c r="K34" s="44"/>
-      <c r="L34" s="45"/>
+      <c r="A34" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" s="44">
+        <v>1006</v>
+      </c>
+      <c r="C34" s="44">
+        <v>2</v>
+      </c>
+      <c r="D34" s="44">
+        <v>2</v>
+      </c>
+      <c r="E34" s="44">
+        <v>3</v>
+      </c>
+      <c r="F34" s="44">
+        <v>2</v>
+      </c>
+      <c r="G34" s="44">
+        <v>2</v>
+      </c>
+      <c r="H34" s="44">
+        <v>1</v>
+      </c>
+      <c r="I34" s="44">
+        <v>3</v>
+      </c>
+      <c r="J34" s="44">
+        <v>3</v>
+      </c>
+      <c r="K34" s="45"/>
+      <c r="L34" s="44">
+        <v>2</v>
+      </c>
     </row>
     <row r="35" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="44"/>
-      <c r="B35" s="44"/>
-      <c r="C35" s="44"/>
-      <c r="D35" s="45"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="44"/>
-      <c r="G35" s="45"/>
-      <c r="H35" s="44"/>
-      <c r="I35" s="45"/>
-      <c r="J35" s="45"/>
-      <c r="K35" s="45"/>
+      <c r="A35" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" s="44">
+        <v>1022</v>
+      </c>
+      <c r="C35" s="44">
+        <v>2</v>
+      </c>
+      <c r="D35" s="44">
+        <v>2</v>
+      </c>
+      <c r="E35" s="45"/>
+      <c r="F35" s="44">
+        <v>2</v>
+      </c>
+      <c r="G35" s="44">
+        <v>2</v>
+      </c>
+      <c r="H35" s="44">
+        <v>4</v>
+      </c>
+      <c r="I35" s="44">
+        <v>4</v>
+      </c>
+      <c r="J35" s="44">
+        <v>2</v>
+      </c>
+      <c r="K35" s="44">
+        <v>4</v>
+      </c>
       <c r="L35" s="45"/>
     </row>
     <row r="36" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="44"/>
-      <c r="B36" s="44"/>
-      <c r="C36" s="45"/>
-      <c r="D36" s="45"/>
-      <c r="E36" s="44"/>
+      <c r="A36" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" s="44">
+        <v>1040</v>
+      </c>
+      <c r="C36" s="44">
+        <v>3</v>
+      </c>
+      <c r="D36" s="44">
+        <v>2</v>
+      </c>
+      <c r="E36" s="44">
+        <v>1</v>
+      </c>
       <c r="F36" s="45"/>
-      <c r="G36" s="44"/>
-      <c r="H36" s="44"/>
-      <c r="I36" s="44"/>
-      <c r="J36" s="44"/>
-      <c r="K36" s="44"/>
-      <c r="L36" s="44"/>
+      <c r="G36" s="44">
+        <v>3</v>
+      </c>
+      <c r="H36" s="44">
+        <v>2</v>
+      </c>
+      <c r="I36" s="44">
+        <v>3</v>
+      </c>
+      <c r="J36" s="44">
+        <v>4</v>
+      </c>
+      <c r="K36" s="44">
+        <v>3</v>
+      </c>
+      <c r="L36" s="45"/>
     </row>
     <row r="37" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="44"/>
-      <c r="B37" s="44"/>
-      <c r="C37" s="45"/>
-      <c r="D37" s="44"/>
-      <c r="E37" s="45"/>
-      <c r="F37" s="44"/>
-      <c r="G37" s="44"/>
-      <c r="H37" s="44"/>
-      <c r="I37" s="44"/>
-      <c r="J37" s="44"/>
+      <c r="A37" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37" s="44">
+        <v>1035</v>
+      </c>
+      <c r="C37" s="44">
+        <v>2</v>
+      </c>
+      <c r="D37" s="44">
+        <v>2</v>
+      </c>
+      <c r="E37" s="44">
+        <v>3</v>
+      </c>
+      <c r="F37" s="44">
+        <v>3</v>
+      </c>
+      <c r="G37" s="44">
+        <v>3</v>
+      </c>
+      <c r="H37" s="44">
+        <v>1</v>
+      </c>
+      <c r="I37" s="44">
+        <v>2</v>
+      </c>
+      <c r="J37" s="44">
+        <v>2</v>
+      </c>
       <c r="K37" s="45"/>
-      <c r="L37" s="44"/>
+      <c r="L37" s="44">
+        <v>4</v>
+      </c>
     </row>
     <row r="38" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="44"/>
-      <c r="B38" s="44"/>
+      <c r="A38" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" s="44">
+        <v>1036</v>
+      </c>
       <c r="C38" s="45"/>
       <c r="D38" s="45"/>
-      <c r="E38" s="44"/>
-      <c r="F38" s="44"/>
-      <c r="G38" s="45"/>
-      <c r="H38" s="45"/>
-      <c r="I38" s="44"/>
-      <c r="J38" s="45"/>
-      <c r="K38" s="44"/>
-      <c r="L38" s="44"/>
+      <c r="E38" s="44">
+        <v>3</v>
+      </c>
+      <c r="F38" s="44">
+        <v>2</v>
+      </c>
+      <c r="G38" s="44">
+        <v>2</v>
+      </c>
+      <c r="H38" s="44">
+        <v>1</v>
+      </c>
+      <c r="I38" s="44">
+        <v>1</v>
+      </c>
+      <c r="J38" s="44">
+        <v>1</v>
+      </c>
+      <c r="K38" s="44">
+        <v>1</v>
+      </c>
+      <c r="L38" s="45"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
@@ -2092,8 +2787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E8" sqref="E6:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2246,67 +2941,67 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A2" s="11">
+      <c r="A2" s="11" t="str">
         <f>گوگل!A2</f>
-        <v>0</v>
+        <v>دانیل میری</v>
       </c>
       <c r="B2" s="11">
         <f>گوگل!B2</f>
-        <v>0</v>
+        <v>1038</v>
       </c>
       <c r="C2" s="12">
         <f>IF(گوگل!C2=کلید!B$2,3,IF(گوگل!C2="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D2" s="12">
         <f>IF(گوگل!D2=کلید!C$2,3,IF(گوگل!D2="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E2" s="12">
         <f>IF(گوگل!E2=کلید!D$2,3,IF(گوگل!E2="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F2" s="12">
         <f>IF(گوگل!F2=کلید!E$2,3,IF(گوگل!F2="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G2" s="12">
         <f>IF(گوگل!G2=کلید!F$2,3,IF(گوگل!G2="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H2" s="12">
         <f>IF(گوگل!H2=کلید!G$2,3,IF(گوگل!H2="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I2" s="12">
         <f>IF(گوگل!I2=کلید!H$2,3,IF(گوگل!I2="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J2" s="12">
         <f>IF(گوگل!J2=کلید!I$2,3,IF(گوگل!J2="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K2" s="12">
         <f>IF(گوگل!K2=کلید!J$2,3,IF(گوگل!K2="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L2" s="12">
         <f>IF(گوگل!L2=کلید!K$2,3,IF(گوگل!L2="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M2" s="13">
         <f t="shared" ref="M2:M44" si="0">(SUM(C2:L2)/(30))*100</f>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
+      <c r="A3" s="11" t="str">
         <f>گوگل!A3</f>
-        <v>0</v>
+        <v>ابوالفضل کوکبی</v>
       </c>
       <c r="B3" s="11">
         <f>گوگل!B3</f>
-        <v>0</v>
+        <v>1030</v>
       </c>
       <c r="C3" s="12">
         <f>IF(گوگل!C3=کلید!B$2,3,IF(گوگل!C3="",0,-1))</f>
@@ -2314,7 +3009,7 @@
       </c>
       <c r="D3" s="12">
         <f>IF(گوگل!D3=کلید!C$2,3,IF(گوگل!D3="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E3" s="12">
         <f>IF(گوگل!E3=کلید!D$2,3,IF(گوگل!E3="",0,-1))</f>
@@ -2322,7 +3017,7 @@
       </c>
       <c r="F3" s="12">
         <f>IF(گوگل!F3=کلید!E$2,3,IF(گوگل!F3="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G3" s="12">
         <f>IF(گوگل!G3=کلید!F$2,3,IF(گوگل!G3="",0,-1))</f>
@@ -2330,11 +3025,11 @@
       </c>
       <c r="H3" s="12">
         <f>IF(گوگل!H3=کلید!G$2,3,IF(گوگل!H3="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I3" s="12">
         <f>IF(گوگل!I3=کلید!H$2,3,IF(گوگل!I3="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J3" s="12">
         <f>IF(گوگل!J3=کلید!I$2,3,IF(گوگل!J3="",0,-1))</f>
@@ -2346,37 +3041,37 @@
       </c>
       <c r="L3" s="12">
         <f>IF(گوگل!L3=کلید!K$2,3,IF(گوگل!L3="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M3" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>36.666666666666664</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
+      <c r="A4" s="11" t="str">
         <f>گوگل!A4</f>
-        <v>0</v>
+        <v>محمد صادقی</v>
       </c>
       <c r="B4" s="11">
         <f>گوگل!B4</f>
-        <v>0</v>
+        <v>1020</v>
       </c>
       <c r="C4" s="12">
         <f>IF(گوگل!C4=کلید!B$2,3,IF(گوگل!C4="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D4" s="12">
         <f>IF(گوگل!D4=کلید!C$2,3,IF(گوگل!D4="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E4" s="12">
         <f>IF(گوگل!E4=کلید!D$2,3,IF(گوگل!E4="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F4" s="12">
         <f>IF(گوگل!F4=کلید!E$2,3,IF(گوگل!F4="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G4" s="12">
         <f>IF(گوگل!G4=کلید!F$2,3,IF(گوگل!G4="",0,-1))</f>
@@ -2384,15 +3079,15 @@
       </c>
       <c r="H4" s="12">
         <f>IF(گوگل!H4=کلید!G$2,3,IF(گوگل!H4="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I4" s="12">
         <f>IF(گوگل!I4=کلید!H$2,3,IF(گوگل!I4="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J4" s="12">
         <f>IF(گوگل!J4=کلید!I$2,3,IF(گوگل!J4="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K4" s="12">
         <f>IF(گوگل!K4=کلید!J$2,3,IF(گوگل!K4="",0,-1))</f>
@@ -2400,49 +3095,49 @@
       </c>
       <c r="L4" s="12">
         <f>IF(گوگل!L4=کلید!K$2,3,IF(گوگل!L4="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M4" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>53.333333333333336</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
+      <c r="A5" s="11" t="str">
         <f>گوگل!A5</f>
-        <v>0</v>
+        <v>هومن حدیدی</v>
       </c>
       <c r="B5" s="11">
         <f>گوگل!B5</f>
-        <v>0</v>
+        <v>1011</v>
       </c>
       <c r="C5" s="12">
         <f>IF(گوگل!C5=کلید!B$2,3,IF(گوگل!C5="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D5" s="12">
         <f>IF(گوگل!D5=کلید!C$2,3,IF(گوگل!D5="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E5" s="12">
         <f>IF(گوگل!E5=کلید!D$2,3,IF(گوگل!E5="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F5" s="12">
         <f>IF(گوگل!F5=کلید!E$2,3,IF(گوگل!F5="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G5" s="12">
         <f>IF(گوگل!G5=کلید!F$2,3,IF(گوگل!G5="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H5" s="12">
         <f>IF(گوگل!H5=کلید!G$2,3,IF(گوگل!H5="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I5" s="12">
         <f>IF(گوگل!I5=کلید!H$2,3,IF(گوگل!I5="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J5" s="12">
         <f>IF(گوگل!J5=کلید!I$2,3,IF(گوگل!J5="",0,-1))</f>
@@ -2450,149 +3145,149 @@
       </c>
       <c r="K5" s="12">
         <f>IF(گوگل!K5=کلید!J$2,3,IF(گوگل!K5="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L5" s="12">
         <f>IF(گوگل!L5=کلید!K$2,3,IF(گوگل!L5="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M5" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>63.333333333333329</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
+      <c r="A6" s="11" t="str">
         <f>گوگل!A6</f>
-        <v>0</v>
+        <v>علیرضا باقری</v>
       </c>
       <c r="B6" s="11">
         <f>گوگل!B6</f>
-        <v>0</v>
+        <v>1008</v>
       </c>
       <c r="C6" s="12">
         <f>IF(گوگل!C6=کلید!B$2,3,IF(گوگل!C6="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D6" s="12">
         <f>IF(گوگل!D6=کلید!C$2,3,IF(گوگل!D6="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E6" s="12">
         <f>IF(گوگل!E6=کلید!D$2,3,IF(گوگل!E6="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F6" s="12">
         <f>IF(گوگل!F6=کلید!E$2,3,IF(گوگل!F6="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G6" s="12">
         <f>IF(گوگل!G6=کلید!F$2,3,IF(گوگل!G6="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H6" s="12">
         <f>IF(گوگل!H6=کلید!G$2,3,IF(گوگل!H6="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I6" s="12">
         <f>IF(گوگل!I6=کلید!H$2,3,IF(گوگل!I6="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J6" s="12">
         <f>IF(گوگل!J6=کلید!I$2,3,IF(گوگل!J6="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K6" s="12">
         <f>IF(گوگل!K6=کلید!J$2,3,IF(گوگل!K6="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L6" s="12">
         <f>IF(گوگل!L6=کلید!K$2,3,IF(گوگل!L6="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M6" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
+      <c r="A7" s="11" t="str">
         <f>گوگل!A7</f>
-        <v>0</v>
+        <v>محمدمهدی امیدی</v>
       </c>
       <c r="B7" s="11">
         <f>گوگل!B7</f>
-        <v>0</v>
+        <v>1004</v>
       </c>
       <c r="C7" s="12">
         <f>IF(گوگل!C7=کلید!B$2,3,IF(گوگل!C7="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D7" s="12">
         <f>IF(گوگل!D7=کلید!C$2,3,IF(گوگل!D7="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E7" s="12">
         <f>IF(گوگل!E7=کلید!D$2,3,IF(گوگل!E7="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F7" s="12">
         <f>IF(گوگل!F7=کلید!E$2,3,IF(گوگل!F7="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G7" s="12">
         <f>IF(گوگل!G7=کلید!F$2,3,IF(گوگل!G7="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H7" s="12">
         <f>IF(گوگل!H7=کلید!G$2,3,IF(گوگل!H7="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I7" s="12">
         <f>IF(گوگل!I7=کلید!H$2,3,IF(گوگل!I7="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J7" s="12">
         <f>IF(گوگل!J7=کلید!I$2,3,IF(گوگل!J7="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K7" s="12">
         <f>IF(گوگل!K7=کلید!J$2,3,IF(گوگل!K7="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L7" s="12">
         <f>IF(گوگل!L7=کلید!K$2,3,IF(گوگل!L7="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M7" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>33.333333333333329</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
+      <c r="A8" s="11" t="str">
         <f>گوگل!A8</f>
-        <v>0</v>
+        <v>امیرحسین ابوئی</v>
       </c>
       <c r="B8" s="11">
         <f>گوگل!B8</f>
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="C8" s="12">
         <f>IF(گوگل!C8=کلید!B$2,3,IF(گوگل!C8="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D8" s="12">
         <f>IF(گوگل!D8=کلید!C$2,3,IF(گوگل!D8="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E8" s="12">
         <f>IF(گوگل!E8=کلید!D$2,3,IF(گوگل!E8="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F8" s="12">
         <f>IF(گوگل!F8=کلید!E$2,3,IF(گوگل!F8="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G8" s="12">
         <f>IF(گوگل!G8=کلید!F$2,3,IF(گوگل!G8="",0,-1))</f>
@@ -2600,11 +3295,11 @@
       </c>
       <c r="H8" s="12">
         <f>IF(گوگل!H8=کلید!G$2,3,IF(گوگل!H8="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I8" s="12">
         <f>IF(گوگل!I8=کلید!H$2,3,IF(گوگل!I8="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J8" s="12">
         <f>IF(گوگل!J8=کلید!I$2,3,IF(گوگل!J8="",0,-1))</f>
@@ -2612,11 +3307,11 @@
       </c>
       <c r="K8" s="12">
         <f>IF(گوگل!K8=کلید!J$2,3,IF(گوگل!K8="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L8" s="12">
         <f>IF(گوگل!L8=کلید!K$2,3,IF(گوگل!L8="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M8" s="13">
         <f t="shared" si="0"/>
@@ -2624,13 +3319,13 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
+      <c r="A9" s="11" t="str">
         <f>گوگل!A9</f>
-        <v>0</v>
+        <v>امیرمهدی قاسمی</v>
       </c>
       <c r="B9" s="11">
         <f>گوگل!B9</f>
-        <v>0</v>
+        <v>1029</v>
       </c>
       <c r="C9" s="12">
         <f>IF(گوگل!C9=کلید!B$2,3,IF(گوگل!C9="",0,-1))</f>
@@ -2642,23 +3337,23 @@
       </c>
       <c r="E9" s="12">
         <f>IF(گوگل!E9=کلید!D$2,3,IF(گوگل!E9="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F9" s="12">
         <f>IF(گوگل!F9=کلید!E$2,3,IF(گوگل!F9="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G9" s="12">
         <f>IF(گوگل!G9=کلید!F$2,3,IF(گوگل!G9="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H9" s="12">
         <f>IF(گوگل!H9=کلید!G$2,3,IF(گوگل!H9="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I9" s="12">
         <f>IF(گوگل!I9=کلید!H$2,3,IF(گوگل!I9="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J9" s="12">
         <f>IF(گوگل!J9=کلید!I$2,3,IF(گوگل!J9="",0,-1))</f>
@@ -2666,25 +3361,25 @@
       </c>
       <c r="K9" s="12">
         <f>IF(گوگل!K9=کلید!J$2,3,IF(گوگل!K9="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L9" s="12">
         <f>IF(گوگل!L9=کلید!K$2,3,IF(گوگل!L9="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M9" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
+      <c r="A10" s="11" t="str">
         <f>گوگل!A10</f>
-        <v>0</v>
+        <v>محمدامین حسین نژاد</v>
       </c>
       <c r="B10" s="11">
         <f>گوگل!B10</f>
-        <v>0</v>
+        <v>1014</v>
       </c>
       <c r="C10" s="12">
         <f>IF(گوگل!C10=کلید!B$2,3,IF(گوگل!C10="",0,-1))</f>
@@ -2692,11 +3387,11 @@
       </c>
       <c r="D10" s="12">
         <f>IF(گوگل!D10=کلید!C$2,3,IF(گوگل!D10="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E10" s="12">
         <f>IF(گوگل!E10=کلید!D$2,3,IF(گوگل!E10="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F10" s="12">
         <f>IF(گوگل!F10=کلید!E$2,3,IF(گوگل!F10="",0,-1))</f>
@@ -2708,19 +3403,19 @@
       </c>
       <c r="H10" s="12">
         <f>IF(گوگل!H10=کلید!G$2,3,IF(گوگل!H10="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I10" s="12">
         <f>IF(گوگل!I10=کلید!H$2,3,IF(گوگل!I10="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J10" s="12">
         <f>IF(گوگل!J10=کلید!I$2,3,IF(گوگل!J10="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K10" s="12">
         <f>IF(گوگل!K10=کلید!J$2,3,IF(گوگل!K10="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L10" s="12">
         <f>IF(گوگل!L10=کلید!K$2,3,IF(گوگل!L10="",0,-1))</f>
@@ -2728,87 +3423,87 @@
       </c>
       <c r="M10" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>33.333333333333329</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A11" s="11">
+      <c r="A11" s="11" t="str">
         <f>گوگل!A11</f>
-        <v>0</v>
+        <v>علی شعبانی</v>
       </c>
       <c r="B11" s="11">
         <f>گوگل!B11</f>
-        <v>0</v>
+        <v>1018</v>
       </c>
       <c r="C11" s="12">
         <f>IF(گوگل!C11=کلید!B$2,3,IF(گوگل!C11="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D11" s="12">
         <f>IF(گوگل!D11=کلید!C$2,3,IF(گوگل!D11="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E11" s="12">
         <f>IF(گوگل!E11=کلید!D$2,3,IF(گوگل!E11="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F11" s="12">
         <f>IF(گوگل!F11=کلید!E$2,3,IF(گوگل!F11="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G11" s="12">
         <f>IF(گوگل!G11=کلید!F$2,3,IF(گوگل!G11="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H11" s="12">
         <f>IF(گوگل!H11=کلید!G$2,3,IF(گوگل!H11="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I11" s="12">
         <f>IF(گوگل!I11=کلید!H$2,3,IF(گوگل!I11="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J11" s="12">
         <f>IF(گوگل!J11=کلید!I$2,3,IF(گوگل!J11="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K11" s="12">
         <f>IF(گوگل!K11=کلید!J$2,3,IF(گوگل!K11="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L11" s="12">
         <f>IF(گوگل!L11=کلید!K$2,3,IF(گوگل!L11="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M11" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A12" s="11">
+      <c r="A12" s="11" t="str">
         <f>گوگل!A12</f>
-        <v>0</v>
+        <v>علی اصغر علیشاه نژاد</v>
       </c>
       <c r="B12" s="11">
         <f>گوگل!B12</f>
-        <v>0</v>
+        <v>1026</v>
       </c>
       <c r="C12" s="12">
         <f>IF(گوگل!C12=کلید!B$2,3,IF(گوگل!C12="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D12" s="12">
         <f>IF(گوگل!D12=کلید!C$2,3,IF(گوگل!D12="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E12" s="12">
         <f>IF(گوگل!E12=کلید!D$2,3,IF(گوگل!E12="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F12" s="12">
         <f>IF(گوگل!F12=کلید!E$2,3,IF(گوگل!F12="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G12" s="12">
         <f>IF(گوگل!G12=کلید!F$2,3,IF(گوگل!G12="",0,-1))</f>
@@ -2816,15 +3511,15 @@
       </c>
       <c r="H12" s="12">
         <f>IF(گوگل!H12=کلید!G$2,3,IF(گوگل!H12="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I12" s="12">
         <f>IF(گوگل!I12=کلید!H$2,3,IF(گوگل!I12="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J12" s="12">
         <f>IF(گوگل!J12=کلید!I$2,3,IF(گوگل!J12="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K12" s="12">
         <f>IF(گوگل!K12=کلید!J$2,3,IF(گوگل!K12="",0,-1))</f>
@@ -2832,53 +3527,53 @@
       </c>
       <c r="L12" s="12">
         <f>IF(گوگل!L12=کلید!K$2,3,IF(گوگل!L12="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M12" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>66.666666666666657</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A13" s="11">
+      <c r="A13" s="11" t="str">
         <f>گوگل!A13</f>
-        <v>0</v>
+        <v>نیما نجفی</v>
       </c>
       <c r="B13" s="11">
         <f>گوگل!B13</f>
-        <v>0</v>
+        <v>1039</v>
       </c>
       <c r="C13" s="12">
         <f>IF(گوگل!C13=کلید!B$2,3,IF(گوگل!C13="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D13" s="12">
         <f>IF(گوگل!D13=کلید!C$2,3,IF(گوگل!D13="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E13" s="12">
         <f>IF(گوگل!E13=کلید!D$2,3,IF(گوگل!E13="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F13" s="12">
         <f>IF(گوگل!F13=کلید!E$2,3,IF(گوگل!F13="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G13" s="12">
         <f>IF(گوگل!G13=کلید!F$2,3,IF(گوگل!G13="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H13" s="12">
         <f>IF(گوگل!H13=کلید!G$2,3,IF(گوگل!H13="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I13" s="12">
         <f>IF(گوگل!I13=کلید!H$2,3,IF(گوگل!I13="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J13" s="12">
         <f>IF(گوگل!J13=کلید!I$2,3,IF(گوگل!J13="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K13" s="12">
         <f>IF(گوگل!K13=کلید!J$2,3,IF(گوگل!K13="",0,-1))</f>
@@ -2886,21 +3581,21 @@
       </c>
       <c r="L13" s="12">
         <f>IF(گوگل!L13=کلید!K$2,3,IF(گوگل!L13="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M13" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A14" s="11">
+      <c r="A14" s="11" t="str">
         <f>گوگل!A14</f>
-        <v>0</v>
+        <v>علی ارفش</v>
       </c>
       <c r="B14" s="11">
         <f>گوگل!B14</f>
-        <v>0</v>
+        <v>1002</v>
       </c>
       <c r="C14" s="12">
         <f>IF(گوگل!C14=کلید!B$2,3,IF(گوگل!C14="",0,-1))</f>
@@ -2908,7 +3603,7 @@
       </c>
       <c r="D14" s="12">
         <f>IF(گوگل!D14=کلید!C$2,3,IF(گوگل!D14="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E14" s="12">
         <f>IF(گوگل!E14=کلید!D$2,3,IF(گوگل!E14="",0,-1))</f>
@@ -2920,23 +3615,23 @@
       </c>
       <c r="G14" s="12">
         <f>IF(گوگل!G14=کلید!F$2,3,IF(گوگل!G14="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H14" s="12">
         <f>IF(گوگل!H14=کلید!G$2,3,IF(گوگل!H14="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I14" s="12">
         <f>IF(گوگل!I14=کلید!H$2,3,IF(گوگل!I14="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J14" s="12">
         <f>IF(گوگل!J14=کلید!I$2,3,IF(گوگل!J14="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K14" s="12">
         <f>IF(گوگل!K14=کلید!J$2,3,IF(گوگل!K14="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L14" s="12">
         <f>IF(گوگل!L14=کلید!K$2,3,IF(گوگل!L14="",0,-1))</f>
@@ -2944,25 +3639,25 @@
       </c>
       <c r="M14" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>33.333333333333329</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A15" s="11">
+      <c r="A15" s="11" t="str">
         <f>گوگل!A15</f>
-        <v>0</v>
+        <v>آرین پاشازاده</v>
       </c>
       <c r="B15" s="11">
         <f>گوگل!B15</f>
-        <v>0</v>
+        <v>1010</v>
       </c>
       <c r="C15" s="12">
         <f>IF(گوگل!C15=کلید!B$2,3,IF(گوگل!C15="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D15" s="12">
         <f>IF(گوگل!D15=کلید!C$2,3,IF(گوگل!D15="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E15" s="12">
         <f>IF(گوگل!E15=کلید!D$2,3,IF(گوگل!E15="",0,-1))</f>
@@ -2978,11 +3673,11 @@
       </c>
       <c r="H15" s="12">
         <f>IF(گوگل!H15=کلید!G$2,3,IF(گوگل!H15="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I15" s="12">
         <f>IF(گوگل!I15=کلید!H$2,3,IF(گوگل!I15="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J15" s="12">
         <f>IF(گوگل!J15=کلید!I$2,3,IF(گوگل!J15="",0,-1))</f>
@@ -2998,125 +3693,125 @@
       </c>
       <c r="M15" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>26.666666666666668</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A16" s="11">
+      <c r="A16" s="11" t="str">
         <f>گوگل!A16</f>
-        <v>0</v>
+        <v>سینا عبدپور</v>
       </c>
       <c r="B16" s="11">
         <f>گوگل!B16</f>
-        <v>0</v>
+        <v>1023</v>
       </c>
       <c r="C16" s="12">
         <f>IF(گوگل!C16=کلید!B$2,3,IF(گوگل!C16="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D16" s="12">
         <f>IF(گوگل!D16=کلید!C$2,3,IF(گوگل!D16="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E16" s="12">
         <f>IF(گوگل!E16=کلید!D$2,3,IF(گوگل!E16="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F16" s="12">
         <f>IF(گوگل!F16=کلید!E$2,3,IF(گوگل!F16="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G16" s="12">
         <f>IF(گوگل!G16=کلید!F$2,3,IF(گوگل!G16="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H16" s="12">
         <f>IF(گوگل!H16=کلید!G$2,3,IF(گوگل!H16="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I16" s="12">
         <f>IF(گوگل!I16=کلید!H$2,3,IF(گوگل!I16="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J16" s="12">
         <f>IF(گوگل!J16=کلید!I$2,3,IF(گوگل!J16="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K16" s="12">
         <f>IF(گوگل!K16=کلید!J$2,3,IF(گوگل!K16="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L16" s="12">
         <f>IF(گوگل!L16=کلید!K$2,3,IF(گوگل!L16="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M16" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A17" s="11">
+      <c r="A17" s="11" t="str">
         <f>گوگل!A17</f>
-        <v>0</v>
+        <v>محمدکیان ولکجی</v>
       </c>
       <c r="B17" s="11">
         <f>گوگل!B17</f>
-        <v>0</v>
+        <v>1041</v>
       </c>
       <c r="C17" s="12">
         <f>IF(گوگل!C17=کلید!B$2,3,IF(گوگل!C17="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D17" s="12">
         <f>IF(گوگل!D17=کلید!C$2,3,IF(گوگل!D17="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E17" s="12">
         <f>IF(گوگل!E17=کلید!D$2,3,IF(گوگل!E17="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F17" s="12">
         <f>IF(گوگل!F17=کلید!E$2,3,IF(گوگل!F17="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G17" s="12">
         <f>IF(گوگل!G17=کلید!F$2,3,IF(گوگل!G17="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H17" s="12">
         <f>IF(گوگل!H17=کلید!G$2,3,IF(گوگل!H17="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I17" s="12">
         <f>IF(گوگل!I17=کلید!H$2,3,IF(گوگل!I17="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J17" s="12">
         <f>IF(گوگل!J17=کلید!I$2,3,IF(گوگل!J17="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K17" s="12">
         <f>IF(گوگل!K17=کلید!J$2,3,IF(گوگل!K17="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L17" s="12">
         <f>IF(گوگل!L17=کلید!K$2,3,IF(گوگل!L17="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M17" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A18" s="11">
+      <c r="A18" s="11" t="str">
         <f>گوگل!A18</f>
-        <v>0</v>
+        <v>معراج لشگری</v>
       </c>
       <c r="B18" s="11">
         <f>گوگل!B18</f>
-        <v>0</v>
+        <v>1031</v>
       </c>
       <c r="C18" s="12">
         <f>IF(گوگل!C18=کلید!B$2,3,IF(گوگل!C18="",0,-1))</f>
@@ -3124,11 +3819,11 @@
       </c>
       <c r="D18" s="12">
         <f>IF(گوگل!D18=کلید!C$2,3,IF(گوگل!D18="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E18" s="12">
         <f>IF(گوگل!E18=کلید!D$2,3,IF(گوگل!E18="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F18" s="12">
         <f>IF(گوگل!F18=کلید!E$2,3,IF(گوگل!F18="",0,-1))</f>
@@ -3136,11 +3831,11 @@
       </c>
       <c r="G18" s="12">
         <f>IF(گوگل!G18=کلید!F$2,3,IF(گوگل!G18="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H18" s="12">
         <f>IF(گوگل!H18=کلید!G$2,3,IF(گوگل!H18="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I18" s="12">
         <f>IF(گوگل!I18=کلید!H$2,3,IF(گوگل!I18="",0,-1))</f>
@@ -3152,7 +3847,7 @@
       </c>
       <c r="K18" s="12">
         <f>IF(گوگل!K18=کلید!J$2,3,IF(گوگل!K18="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L18" s="12">
         <f>IF(گوگل!L18=کلید!K$2,3,IF(گوگل!L18="",0,-1))</f>
@@ -3160,17 +3855,17 @@
       </c>
       <c r="M18" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>36.666666666666664</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A19" s="11">
+      <c r="A19" s="11" t="str">
         <f>گوگل!A19</f>
-        <v>0</v>
+        <v>محمدجواد امیدی</v>
       </c>
       <c r="B19" s="11">
         <f>گوگل!B19</f>
-        <v>0</v>
+        <v>1005</v>
       </c>
       <c r="C19" s="12">
         <f>IF(گوگل!C19=کلید!B$2,3,IF(گوگل!C19="",0,-1))</f>
@@ -3178,11 +3873,11 @@
       </c>
       <c r="D19" s="12">
         <f>IF(گوگل!D19=کلید!C$2,3,IF(گوگل!D19="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E19" s="12">
         <f>IF(گوگل!E19=کلید!D$2,3,IF(گوگل!E19="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F19" s="12">
         <f>IF(گوگل!F19=کلید!E$2,3,IF(گوگل!F19="",0,-1))</f>
@@ -3194,7 +3889,7 @@
       </c>
       <c r="H19" s="12">
         <f>IF(گوگل!H19=کلید!G$2,3,IF(گوگل!H19="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I19" s="12">
         <f>IF(گوگل!I19=کلید!H$2,3,IF(گوگل!I19="",0,-1))</f>
@@ -3202,11 +3897,11 @@
       </c>
       <c r="J19" s="12">
         <f>IF(گوگل!J19=کلید!I$2,3,IF(گوگل!J19="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K19" s="12">
         <f>IF(گوگل!K19=کلید!J$2,3,IF(گوگل!K19="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L19" s="12">
         <f>IF(گوگل!L19=کلید!K$2,3,IF(گوگل!L19="",0,-1))</f>
@@ -3214,45 +3909,45 @@
       </c>
       <c r="M19" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>36.666666666666664</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A20" s="11">
+      <c r="A20" s="11" t="str">
         <f>گوگل!A20</f>
-        <v>0</v>
+        <v>امیرحسین قاسمی</v>
       </c>
       <c r="B20" s="11">
         <f>گوگل!B20</f>
-        <v>0</v>
+        <v>1028</v>
       </c>
       <c r="C20" s="12">
         <f>IF(گوگل!C20=کلید!B$2,3,IF(گوگل!C20="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D20" s="12">
         <f>IF(گوگل!D20=کلید!C$2,3,IF(گوگل!D20="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E20" s="12">
         <f>IF(گوگل!E20=کلید!D$2,3,IF(گوگل!E20="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F20" s="12">
         <f>IF(گوگل!F20=کلید!E$2,3,IF(گوگل!F20="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G20" s="12">
         <f>IF(گوگل!G20=کلید!F$2,3,IF(گوگل!G20="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H20" s="12">
         <f>IF(گوگل!H20=کلید!G$2,3,IF(گوگل!H20="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I20" s="12">
         <f>IF(گوگل!I20=کلید!H$2,3,IF(گوگل!I20="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J20" s="12">
         <f>IF(گوگل!J20=کلید!I$2,3,IF(گوگل!J20="",0,-1))</f>
@@ -3268,17 +3963,17 @@
       </c>
       <c r="M20" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>56.666666666666664</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A21" s="11">
+      <c r="A21" s="11" t="str">
         <f>گوگل!A21</f>
-        <v>0</v>
+        <v>محمد عسگری</v>
       </c>
       <c r="B21" s="11">
         <f>گوگل!B21</f>
-        <v>0</v>
+        <v>1024</v>
       </c>
       <c r="C21" s="12">
         <f>IF(گوگل!C21=کلید!B$2,3,IF(گوگل!C21="",0,-1))</f>
@@ -3286,7 +3981,7 @@
       </c>
       <c r="D21" s="12">
         <f>IF(گوگل!D21=کلید!C$2,3,IF(گوگل!D21="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E21" s="12">
         <f>IF(گوگل!E21=کلید!D$2,3,IF(گوگل!E21="",0,-1))</f>
@@ -3314,7 +4009,7 @@
       </c>
       <c r="K21" s="12">
         <f>IF(گوگل!K21=کلید!J$2,3,IF(گوگل!K21="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L21" s="12">
         <f>IF(گوگل!L21=کلید!K$2,3,IF(گوگل!L21="",0,-1))</f>
@@ -3322,29 +4017,29 @@
       </c>
       <c r="M21" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.666666666666667</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A22" s="11">
+      <c r="A22" s="11" t="str">
         <f>گوگل!A22</f>
-        <v>0</v>
+        <v>علی بشیرزاده</v>
       </c>
       <c r="B22" s="11">
         <f>گوگل!B22</f>
-        <v>0</v>
+        <v>1009</v>
       </c>
       <c r="C22" s="12">
         <f>IF(گوگل!C22=کلید!B$2,3,IF(گوگل!C22="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D22" s="12">
         <f>IF(گوگل!D22=کلید!C$2,3,IF(گوگل!D22="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E22" s="12">
         <f>IF(گوگل!E22=کلید!D$2,3,IF(گوگل!E22="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F22" s="12">
         <f>IF(گوگل!F22=کلید!E$2,3,IF(گوگل!F22="",0,-1))</f>
@@ -3356,19 +4051,19 @@
       </c>
       <c r="H22" s="12">
         <f>IF(گوگل!H22=کلید!G$2,3,IF(گوگل!H22="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I22" s="12">
         <f>IF(گوگل!I22=کلید!H$2,3,IF(گوگل!I22="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J22" s="12">
         <f>IF(گوگل!J22=کلید!I$2,3,IF(گوگل!J22="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K22" s="12">
         <f>IF(گوگل!K22=کلید!J$2,3,IF(گوگل!K22="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L22" s="12">
         <f>IF(گوگل!L22=کلید!K$2,3,IF(گوگل!L22="",0,-1))</f>
@@ -3376,29 +4071,29 @@
       </c>
       <c r="M22" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>43.333333333333336</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A23" s="11">
+      <c r="A23" s="11" t="str">
         <f>گوگل!A23</f>
-        <v>0</v>
+        <v>محمدحسین علیجانی</v>
       </c>
       <c r="B23" s="11">
         <f>گوگل!B23</f>
-        <v>0</v>
+        <v>1025</v>
       </c>
       <c r="C23" s="12">
         <f>IF(گوگل!C23=کلید!B$2,3,IF(گوگل!C23="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D23" s="12">
         <f>IF(گوگل!D23=کلید!C$2,3,IF(گوگل!D23="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E23" s="12">
         <f>IF(گوگل!E23=کلید!D$2,3,IF(گوگل!E23="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F23" s="12">
         <f>IF(گوگل!F23=کلید!E$2,3,IF(گوگل!F23="",0,-1))</f>
@@ -3410,11 +4105,11 @@
       </c>
       <c r="H23" s="12">
         <f>IF(گوگل!H23=کلید!G$2,3,IF(گوگل!H23="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I23" s="12">
         <f>IF(گوگل!I23=کلید!H$2,3,IF(گوگل!I23="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J23" s="12">
         <f>IF(گوگل!J23=کلید!I$2,3,IF(گوگل!J23="",0,-1))</f>
@@ -3430,21 +4125,21 @@
       </c>
       <c r="M23" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>36.666666666666664</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A24" s="11">
+      <c r="A24" s="11" t="str">
         <f>گوگل!A24</f>
-        <v>0</v>
+        <v>بنیامین لطفی</v>
       </c>
       <c r="B24" s="11">
         <f>گوگل!B24</f>
-        <v>0</v>
+        <v>1033</v>
       </c>
       <c r="C24" s="12">
         <f>IF(گوگل!C24=کلید!B$2,3,IF(گوگل!C24="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D24" s="12">
         <f>IF(گوگل!D24=کلید!C$2,3,IF(گوگل!D24="",0,-1))</f>
@@ -3464,45 +4159,45 @@
       </c>
       <c r="H24" s="12">
         <f>IF(گوگل!H24=کلید!G$2,3,IF(گوگل!H24="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I24" s="12">
         <f>IF(گوگل!I24=کلید!H$2,3,IF(گوگل!I24="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J24" s="12">
         <f>IF(گوگل!J24=کلید!I$2,3,IF(گوگل!J24="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K24" s="12">
         <f>IF(گوگل!K24=کلید!J$2,3,IF(گوگل!K24="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L24" s="12">
         <f>IF(گوگل!L24=کلید!K$2,3,IF(گوگل!L24="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M24" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A25" s="11">
+      <c r="A25" s="11" t="str">
         <f>گوگل!A25</f>
-        <v>0</v>
+        <v>مهدی حسن وند</v>
       </c>
       <c r="B25" s="11">
         <f>گوگل!B25</f>
-        <v>0</v>
+        <v>1012</v>
       </c>
       <c r="C25" s="12">
         <f>IF(گوگل!C25=کلید!B$2,3,IF(گوگل!C25="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D25" s="12">
         <f>IF(گوگل!D25=کلید!C$2,3,IF(گوگل!D25="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E25" s="12">
         <f>IF(گوگل!E25=کلید!D$2,3,IF(گوگل!E25="",0,-1))</f>
@@ -3510,7 +4205,7 @@
       </c>
       <c r="F25" s="12">
         <f>IF(گوگل!F25=کلید!E$2,3,IF(گوگل!F25="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G25" s="12">
         <f>IF(گوگل!G25=کلید!F$2,3,IF(گوگل!G25="",0,-1))</f>
@@ -3518,19 +4213,19 @@
       </c>
       <c r="H25" s="12">
         <f>IF(گوگل!H25=کلید!G$2,3,IF(گوگل!H25="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I25" s="12">
         <f>IF(گوگل!I25=کلید!H$2,3,IF(گوگل!I25="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J25" s="12">
         <f>IF(گوگل!J25=کلید!I$2,3,IF(گوگل!J25="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K25" s="12">
         <f>IF(گوگل!K25=کلید!J$2,3,IF(گوگل!K25="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L25" s="12">
         <f>IF(گوگل!L25=کلید!K$2,3,IF(گوگل!L25="",0,-1))</f>
@@ -3538,17 +4233,17 @@
       </c>
       <c r="M25" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>56.666666666666664</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A26" s="11">
+      <c r="A26" s="11" t="str">
         <f>گوگل!A26</f>
-        <v>0</v>
+        <v>دانیال رجبی</v>
       </c>
       <c r="B26" s="11">
         <f>گوگل!B26</f>
-        <v>0</v>
+        <v>1017</v>
       </c>
       <c r="C26" s="12">
         <f>IF(گوگل!C26=کلید!B$2,3,IF(گوگل!C26="",0,-1))</f>
@@ -3556,11 +4251,11 @@
       </c>
       <c r="D26" s="12">
         <f>IF(گوگل!D26=کلید!C$2,3,IF(گوگل!D26="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E26" s="12">
         <f>IF(گوگل!E26=کلید!D$2,3,IF(گوگل!E26="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F26" s="12">
         <f>IF(گوگل!F26=کلید!E$2,3,IF(گوگل!F26="",0,-1))</f>
@@ -3572,37 +4267,37 @@
       </c>
       <c r="H26" s="12">
         <f>IF(گوگل!H26=کلید!G$2,3,IF(گوگل!H26="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I26" s="12">
         <f>IF(گوگل!I26=کلید!H$2,3,IF(گوگل!I26="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J26" s="12">
         <f>IF(گوگل!J26=کلید!I$2,3,IF(گوگل!J26="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K26" s="12">
         <f>IF(گوگل!K26=کلید!J$2,3,IF(گوگل!K26="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L26" s="12">
         <f>IF(گوگل!L26=کلید!K$2,3,IF(گوگل!L26="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M26" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.3333333333333335</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A27" s="11">
+      <c r="A27" s="11" t="str">
         <f>گوگل!A27</f>
-        <v>0</v>
+        <v>امین بابایی</v>
       </c>
       <c r="B27" s="11">
         <f>گوگل!B27</f>
-        <v>0</v>
+        <v>1007</v>
       </c>
       <c r="C27" s="12">
         <f>IF(گوگل!C27=کلید!B$2,3,IF(گوگل!C27="",0,-1))</f>
@@ -3610,11 +4305,11 @@
       </c>
       <c r="D27" s="12">
         <f>IF(گوگل!D27=کلید!C$2,3,IF(گوگل!D27="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E27" s="12">
         <f>IF(گوگل!E27=کلید!D$2,3,IF(گوگل!E27="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F27" s="12">
         <f>IF(گوگل!F27=کلید!E$2,3,IF(گوگل!F27="",0,-1))</f>
@@ -3622,11 +4317,11 @@
       </c>
       <c r="G27" s="12">
         <f>IF(گوگل!G27=کلید!F$2,3,IF(گوگل!G27="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H27" s="12">
         <f>IF(گوگل!H27=کلید!G$2,3,IF(گوگل!H27="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I27" s="12">
         <f>IF(گوگل!I27=کلید!H$2,3,IF(گوگل!I27="",0,-1))</f>
@@ -3638,7 +4333,7 @@
       </c>
       <c r="K27" s="12">
         <f>IF(گوگل!K27=کلید!J$2,3,IF(گوگل!K27="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L27" s="12">
         <f>IF(گوگل!L27=کلید!K$2,3,IF(گوگل!L27="",0,-1))</f>
@@ -3646,25 +4341,25 @@
       </c>
       <c r="M27" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>36.666666666666664</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A28" s="11">
+      <c r="A28" s="11" t="str">
         <f>گوگل!A28</f>
-        <v>0</v>
+        <v>سید مهدی درخشان</v>
       </c>
       <c r="B28" s="11">
         <f>گوگل!B28</f>
-        <v>0</v>
+        <v>1015</v>
       </c>
       <c r="C28" s="12">
         <f>IF(گوگل!C28=کلید!B$2,3,IF(گوگل!C28="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D28" s="12">
         <f>IF(گوگل!D28=کلید!C$2,3,IF(گوگل!D28="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E28" s="12">
         <f>IF(گوگل!E28=کلید!D$2,3,IF(گوگل!E28="",0,-1))</f>
@@ -3680,53 +4375,53 @@
       </c>
       <c r="H28" s="12">
         <f>IF(گوگل!H28=کلید!G$2,3,IF(گوگل!H28="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I28" s="12">
         <f>IF(گوگل!I28=کلید!H$2,3,IF(گوگل!I28="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J28" s="12">
         <f>IF(گوگل!J28=کلید!I$2,3,IF(گوگل!J28="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K28" s="12">
         <f>IF(گوگل!K28=کلید!J$2,3,IF(گوگل!K28="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L28" s="12">
         <f>IF(گوگل!L28=کلید!K$2,3,IF(گوگل!L28="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M28" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>56.666666666666664</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A29" s="11">
+      <c r="A29" s="11" t="str">
         <f>گوگل!A29</f>
-        <v>0</v>
+        <v>امیرمهدی امانی</v>
       </c>
       <c r="B29" s="11">
         <f>گوگل!B29</f>
-        <v>0</v>
+        <v>1003</v>
       </c>
       <c r="C29" s="12">
         <f>IF(گوگل!C29=کلید!B$2,3,IF(گوگل!C29="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D29" s="12">
         <f>IF(گوگل!D29=کلید!C$2,3,IF(گوگل!D29="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E29" s="12">
         <f>IF(گوگل!E29=کلید!D$2,3,IF(گوگل!E29="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F29" s="12">
         <f>IF(گوگل!F29=کلید!E$2,3,IF(گوگل!F29="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G29" s="12">
         <f>IF(گوگل!G29=کلید!F$2,3,IF(گوگل!G29="",0,-1))</f>
@@ -3734,19 +4429,19 @@
       </c>
       <c r="H29" s="12">
         <f>IF(گوگل!H29=کلید!G$2,3,IF(گوگل!H29="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I29" s="12">
         <f>IF(گوگل!I29=کلید!H$2,3,IF(گوگل!I29="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J29" s="12">
         <f>IF(گوگل!J29=کلید!I$2,3,IF(گوگل!J29="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K29" s="12">
         <f>IF(گوگل!K29=کلید!J$2,3,IF(گوگل!K29="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L29" s="12">
         <f>IF(گوگل!L29=کلید!K$2,3,IF(گوگل!L29="",0,-1))</f>
@@ -3754,49 +4449,49 @@
       </c>
       <c r="M29" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A30" s="11">
+      <c r="A30" s="11" t="str">
         <f>گوگل!A30</f>
-        <v>0</v>
+        <v>مانی حسینی</v>
       </c>
       <c r="B30" s="11">
         <f>گوگل!B30</f>
-        <v>0</v>
+        <v>1013</v>
       </c>
       <c r="C30" s="12">
         <f>IF(گوگل!C30=کلید!B$2,3,IF(گوگل!C30="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D30" s="12">
         <f>IF(گوگل!D30=کلید!C$2,3,IF(گوگل!D30="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E30" s="12">
         <f>IF(گوگل!E30=کلید!D$2,3,IF(گوگل!E30="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F30" s="12">
         <f>IF(گوگل!F30=کلید!E$2,3,IF(گوگل!F30="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G30" s="12">
         <f>IF(گوگل!G30=کلید!F$2,3,IF(گوگل!G30="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H30" s="12">
         <f>IF(گوگل!H30=کلید!G$2,3,IF(گوگل!H30="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I30" s="12">
         <f>IF(گوگل!I30=کلید!H$2,3,IF(گوگل!I30="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J30" s="12">
         <f>IF(گوگل!J30=کلید!I$2,3,IF(گوگل!J30="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K30" s="12">
         <f>IF(گوگل!K30=کلید!J$2,3,IF(گوگل!K30="",0,-1))</f>
@@ -3808,29 +4503,29 @@
       </c>
       <c r="M30" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>53.333333333333336</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A31" s="11">
+      <c r="A31" s="11" t="str">
         <f>گوگل!A31</f>
-        <v>0</v>
+        <v>محسن موسیوند</v>
       </c>
       <c r="B31" s="11">
         <f>گوگل!B31</f>
-        <v>0</v>
+        <v>1037</v>
       </c>
       <c r="C31" s="12">
         <f>IF(گوگل!C31=کلید!B$2,3,IF(گوگل!C31="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D31" s="12">
         <f>IF(گوگل!D31=کلید!C$2,3,IF(گوگل!D31="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E31" s="12">
         <f>IF(گوگل!E31=کلید!D$2,3,IF(گوگل!E31="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F31" s="12">
         <f>IF(گوگل!F31=کلید!E$2,3,IF(گوگل!F31="",0,-1))</f>
@@ -3842,19 +4537,19 @@
       </c>
       <c r="H31" s="12">
         <f>IF(گوگل!H31=کلید!G$2,3,IF(گوگل!H31="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I31" s="12">
         <f>IF(گوگل!I31=کلید!H$2,3,IF(گوگل!I31="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J31" s="12">
         <f>IF(گوگل!J31=کلید!I$2,3,IF(گوگل!J31="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K31" s="12">
         <f>IF(گوگل!K31=کلید!J$2,3,IF(گوگل!K31="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L31" s="12">
         <f>IF(گوگل!L31=کلید!K$2,3,IF(گوگل!L31="",0,-1))</f>
@@ -3862,29 +4557,29 @@
       </c>
       <c r="M31" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>43.333333333333336</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A32" s="11">
+      <c r="A32" s="11" t="str">
         <f>گوگل!A32</f>
-        <v>0</v>
+        <v>ابوالفضل شکرانه</v>
       </c>
       <c r="B32" s="11">
         <f>گوگل!B32</f>
-        <v>0</v>
+        <v>1019</v>
       </c>
       <c r="C32" s="12">
         <f>IF(گوگل!C32=کلید!B$2,3,IF(گوگل!C32="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D32" s="12">
         <f>IF(گوگل!D32=کلید!C$2,3,IF(گوگل!D32="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E32" s="12">
         <f>IF(گوگل!E32=کلید!D$2,3,IF(گوگل!E32="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F32" s="12">
         <f>IF(گوگل!F32=کلید!E$2,3,IF(گوگل!F32="",0,-1))</f>
@@ -3892,11 +4587,11 @@
       </c>
       <c r="G32" s="12">
         <f>IF(گوگل!G32=کلید!F$2,3,IF(گوگل!G32="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H32" s="12">
         <f>IF(گوگل!H32=کلید!G$2,3,IF(گوگل!H32="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I32" s="12">
         <f>IF(گوگل!I32=کلید!H$2,3,IF(گوگل!I32="",0,-1))</f>
@@ -3908,33 +4603,33 @@
       </c>
       <c r="K32" s="12">
         <f>IF(گوگل!K32=کلید!J$2,3,IF(گوگل!K32="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L32" s="12">
         <f>IF(گوگل!L32=کلید!K$2,3,IF(گوگل!L32="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M32" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>43.333333333333336</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A33" s="11">
+      <c r="A33" s="11" t="str">
         <f>گوگل!A33</f>
-        <v>0</v>
+        <v>ایلیا دوروزه</v>
       </c>
       <c r="B33" s="11">
         <f>گوگل!B33</f>
-        <v>0</v>
+        <v>1016</v>
       </c>
       <c r="C33" s="12">
         <f>IF(گوگل!C33=کلید!B$2,3,IF(گوگل!C33="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D33" s="12">
         <f>IF(گوگل!D33=کلید!C$2,3,IF(گوگل!D33="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E33" s="12">
         <f>IF(گوگل!E33=کلید!D$2,3,IF(گوگل!E33="",0,-1))</f>
@@ -3942,7 +4637,7 @@
       </c>
       <c r="F33" s="12">
         <f>IF(گوگل!F33=کلید!E$2,3,IF(گوگل!F33="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G33" s="12">
         <f>IF(گوگل!G33=کلید!F$2,3,IF(گوگل!G33="",0,-1))</f>
@@ -3950,69 +4645,69 @@
       </c>
       <c r="H33" s="12">
         <f>IF(گوگل!H33=کلید!G$2,3,IF(گوگل!H33="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I33" s="12">
         <f>IF(گوگل!I33=کلید!H$2,3,IF(گوگل!I33="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J33" s="12">
         <f>IF(گوگل!J33=کلید!I$2,3,IF(گوگل!J33="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K33" s="12">
         <f>IF(گوگل!K33=کلید!J$2,3,IF(گوگل!K33="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L33" s="12">
         <f>IF(گوگل!L33=کلید!K$2,3,IF(گوگل!L33="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M33" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A34" s="11">
+      <c r="A34" s="11" t="str">
         <f>گوگل!A34</f>
-        <v>0</v>
+        <v>هادی آذری</v>
       </c>
       <c r="B34" s="11">
         <f>گوگل!B34</f>
-        <v>0</v>
+        <v>1006</v>
       </c>
       <c r="C34" s="12">
         <f>IF(گوگل!C34=کلید!B$2,3,IF(گوگل!C34="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D34" s="12">
         <f>IF(گوگل!D34=کلید!C$2,3,IF(گوگل!D34="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E34" s="12">
         <f>IF(گوگل!E34=کلید!D$2,3,IF(گوگل!E34="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F34" s="12">
         <f>IF(گوگل!F34=کلید!E$2,3,IF(گوگل!F34="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G34" s="12">
         <f>IF(گوگل!G34=کلید!F$2,3,IF(گوگل!G34="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H34" s="12">
         <f>IF(گوگل!H34=کلید!G$2,3,IF(گوگل!H34="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I34" s="12">
         <f>IF(گوگل!I34=کلید!H$2,3,IF(گوگل!I34="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J34" s="12">
         <f>IF(گوگل!J34=کلید!I$2,3,IF(گوگل!J34="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K34" s="12">
         <f>IF(گوگل!K34=کلید!J$2,3,IF(گوگل!K34="",0,-1))</f>
@@ -4020,29 +4715,29 @@
       </c>
       <c r="L34" s="12">
         <f>IF(گوگل!L34=کلید!K$2,3,IF(گوگل!L34="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M34" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>63.333333333333329</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A35" s="11">
+      <c r="A35" s="11" t="str">
         <f>گوگل!A35</f>
-        <v>0</v>
+        <v>محمدپارسا عباس زاده</v>
       </c>
       <c r="B35" s="11">
         <f>گوگل!B35</f>
-        <v>0</v>
+        <v>1022</v>
       </c>
       <c r="C35" s="12">
         <f>IF(گوگل!C35=کلید!B$2,3,IF(گوگل!C35="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D35" s="12">
         <f>IF(گوگل!D35=کلید!C$2,3,IF(گوگل!D35="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E35" s="12">
         <f>IF(گوگل!E35=کلید!D$2,3,IF(گوگل!E35="",0,-1))</f>
@@ -4050,27 +4745,27 @@
       </c>
       <c r="F35" s="12">
         <f>IF(گوگل!F35=کلید!E$2,3,IF(گوگل!F35="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G35" s="12">
         <f>IF(گوگل!G35=کلید!F$2,3,IF(گوگل!G35="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H35" s="12">
         <f>IF(گوگل!H35=کلید!G$2,3,IF(گوگل!H35="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I35" s="12">
         <f>IF(گوگل!I35=کلید!H$2,3,IF(گوگل!I35="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J35" s="12">
         <f>IF(گوگل!J35=کلید!I$2,3,IF(گوگل!J35="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K35" s="12">
         <f>IF(گوگل!K35=کلید!J$2,3,IF(گوگل!K35="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L35" s="12">
         <f>IF(گوگل!L35=کلید!K$2,3,IF(گوگل!L35="",0,-1))</f>
@@ -4078,29 +4773,29 @@
       </c>
       <c r="M35" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A36" s="11">
+      <c r="A36" s="11" t="str">
         <f>گوگل!A36</f>
-        <v>0</v>
+        <v>بهراد وقاری</v>
       </c>
       <c r="B36" s="11">
         <f>گوگل!B36</f>
-        <v>0</v>
+        <v>1040</v>
       </c>
       <c r="C36" s="12">
         <f>IF(گوگل!C36=کلید!B$2,3,IF(گوگل!C36="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D36" s="12">
         <f>IF(گوگل!D36=کلید!C$2,3,IF(گوگل!D36="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E36" s="12">
         <f>IF(گوگل!E36=کلید!D$2,3,IF(گوگل!E36="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F36" s="12">
         <f>IF(گوگل!F36=کلید!E$2,3,IF(گوگل!F36="",0,-1))</f>
@@ -4108,23 +4803,23 @@
       </c>
       <c r="G36" s="12">
         <f>IF(گوگل!G36=کلید!F$2,3,IF(گوگل!G36="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H36" s="12">
         <f>IF(گوگل!H36=کلید!G$2,3,IF(گوگل!H36="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I36" s="12">
         <f>IF(گوگل!I36=کلید!H$2,3,IF(گوگل!I36="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J36" s="12">
         <f>IF(گوگل!J36=کلید!I$2,3,IF(گوگل!J36="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K36" s="12">
         <f>IF(گوگل!K36=کلید!J$2,3,IF(گوگل!K36="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L36" s="12">
         <f>IF(گوگل!L36=کلید!K$2,3,IF(گوگل!L36="",0,-1))</f>
@@ -4136,45 +4831,45 @@
       </c>
     </row>
     <row r="37" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A37" s="11">
+      <c r="A37" s="11" t="str">
         <f>گوگل!A37</f>
-        <v>0</v>
+        <v>حسین محسن وند</v>
       </c>
       <c r="B37" s="11">
         <f>گوگل!B37</f>
-        <v>0</v>
+        <v>1035</v>
       </c>
       <c r="C37" s="12">
         <f>IF(گوگل!C37=کلید!B$2,3,IF(گوگل!C37="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D37" s="12">
         <f>IF(گوگل!D37=کلید!C$2,3,IF(گوگل!D37="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E37" s="12">
         <f>IF(گوگل!E37=کلید!D$2,3,IF(گوگل!E37="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F37" s="12">
         <f>IF(گوگل!F37=کلید!E$2,3,IF(گوگل!F37="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G37" s="12">
         <f>IF(گوگل!G37=کلید!F$2,3,IF(گوگل!G37="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H37" s="12">
         <f>IF(گوگل!H37=کلید!G$2,3,IF(گوگل!H37="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I37" s="12">
         <f>IF(گوگل!I37=کلید!H$2,3,IF(گوگل!I37="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J37" s="12">
         <f>IF(گوگل!J37=کلید!I$2,3,IF(گوگل!J37="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K37" s="12">
         <f>IF(گوگل!K37=کلید!J$2,3,IF(گوگل!K37="",0,-1))</f>
@@ -4182,21 +4877,21 @@
       </c>
       <c r="L37" s="12">
         <f>IF(گوگل!L37=کلید!K$2,3,IF(گوگل!L37="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M37" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>36.666666666666664</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A38" s="11">
+      <c r="A38" s="11" t="str">
         <f>گوگل!A38</f>
-        <v>0</v>
+        <v>علی محمدی</v>
       </c>
       <c r="B38" s="11">
         <f>گوگل!B38</f>
-        <v>0</v>
+        <v>1036</v>
       </c>
       <c r="C38" s="12">
         <f>IF(گوگل!C38=کلید!B$2,3,IF(گوگل!C38="",0,-1))</f>
@@ -4208,31 +4903,31 @@
       </c>
       <c r="E38" s="12">
         <f>IF(گوگل!E38=کلید!D$2,3,IF(گوگل!E38="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F38" s="12">
         <f>IF(گوگل!F38=کلید!E$2,3,IF(گوگل!F38="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G38" s="12">
         <f>IF(گوگل!G38=کلید!F$2,3,IF(گوگل!G38="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H38" s="12">
         <f>IF(گوگل!H38=کلید!G$2,3,IF(گوگل!H38="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I38" s="12">
         <f>IF(گوگل!I38=کلید!H$2,3,IF(گوگل!I38="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J38" s="12">
         <f>IF(گوگل!J38=کلید!I$2,3,IF(گوگل!J38="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K38" s="12">
         <f>IF(گوگل!K38=کلید!J$2,3,IF(گوگل!K38="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L38" s="12">
         <f>IF(گوگل!L38=کلید!K$2,3,IF(گوگل!L38="",0,-1))</f>
@@ -4240,7 +4935,7 @@
       </c>
       <c r="M38" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16.666666666666664</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -4632,7 +5327,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMI45"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
@@ -4669,11 +5364,11 @@
       </c>
       <c r="C2" s="34" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,B2)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
-      </c>
-      <c r="D2" s="40" t="str">
+        <v>حاضر</v>
+      </c>
+      <c r="D2" s="40">
         <f>IF(COUNTIF(درصد!B$2:B$44,B2)&gt;0, INDEX(گوگل!B$2:B$44,MATCH(B2,درصد!B$2:B$44,0)),"غایب")</f>
-        <v>غایب</v>
+        <v>1008</v>
       </c>
       <c r="AMI2"/>
     </row>
@@ -4686,11 +5381,11 @@
       </c>
       <c r="C3" s="34" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,B3)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
-      </c>
-      <c r="D3" s="40" t="str">
+        <v>حاضر</v>
+      </c>
+      <c r="D3" s="40">
         <f>IF(COUNTIF(درصد!B$2:B$44,B3)&gt;0, INDEX(گوگل!B$2:B$44,MATCH(B3,درصد!B$2:B$44,0)),"غایب")</f>
-        <v>غایب</v>
+        <v>1011</v>
       </c>
       <c r="AMI3"/>
     </row>
@@ -4703,11 +5398,11 @@
       </c>
       <c r="C4" s="34" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,B4)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
-      </c>
-      <c r="D4" s="40" t="str">
+        <v>حاضر</v>
+      </c>
+      <c r="D4" s="40">
         <f>IF(COUNTIF(درصد!B$2:B$44,B4)&gt;0, INDEX(گوگل!B$2:B$44,MATCH(B4,درصد!B$2:B$44,0)),"غایب")</f>
-        <v>غایب</v>
+        <v>1026</v>
       </c>
       <c r="E4" s="17"/>
       <c r="F4" s="17"/>
@@ -4727,11 +5422,11 @@
       </c>
       <c r="C5" s="34" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,B5)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
-      </c>
-      <c r="D5" s="40" t="str">
+        <v>حاضر</v>
+      </c>
+      <c r="D5" s="40">
         <f>IF(COUNTIF(درصد!B$2:B$44,B5)&gt;0, INDEX(گوگل!B$2:B$44,MATCH(B5,درصد!B$2:B$44,0)),"غایب")</f>
-        <v>غایب</v>
+        <v>1002</v>
       </c>
       <c r="E5" s="17"/>
       <c r="F5" s="17"/>
@@ -4752,11 +5447,11 @@
       </c>
       <c r="C6" s="34" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,B6)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
-      </c>
-      <c r="D6" s="40" t="str">
+        <v>حاضر</v>
+      </c>
+      <c r="D6" s="40">
         <f>IF(COUNTIF(درصد!B$2:B$44,B6)&gt;0, INDEX(گوگل!B$2:B$44,MATCH(B6,درصد!B$2:B$44,0)),"غایب")</f>
-        <v>غایب</v>
+        <v>1018</v>
       </c>
       <c r="E6" s="17"/>
       <c r="F6" s="17"/>
@@ -4776,11 +5471,11 @@
       </c>
       <c r="C7" s="34" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,B7)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
-      </c>
-      <c r="D7" s="40" t="str">
+        <v>حاضر</v>
+      </c>
+      <c r="D7" s="40">
         <f>IF(COUNTIF(درصد!B$2:B$44,B7)&gt;0, INDEX(گوگل!B$2:B$44,MATCH(B7,درصد!B$2:B$44,0)),"غایب")</f>
-        <v>غایب</v>
+        <v>1030</v>
       </c>
       <c r="E7" s="17"/>
       <c r="F7" s="17"/>
@@ -4800,11 +5495,11 @@
       </c>
       <c r="C8" s="34" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,B8)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
-      </c>
-      <c r="D8" s="40" t="str">
+        <v>حاضر</v>
+      </c>
+      <c r="D8" s="40">
         <f>IF(COUNTIF(درصد!B$2:B$44,B8)&gt;0, INDEX(گوگل!B$2:B$44,MATCH(B8,درصد!B$2:B$44,0)),"غایب")</f>
-        <v>غایب</v>
+        <v>1009</v>
       </c>
       <c r="E8" s="17"/>
       <c r="F8" s="17"/>
@@ -4824,11 +5519,11 @@
       </c>
       <c r="C9" s="34" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,B9)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
-      </c>
-      <c r="D9" s="40" t="str">
+        <v>حاضر</v>
+      </c>
+      <c r="D9" s="40">
         <f>IF(COUNTIF(درصد!B$2:B$44,B9)&gt;0, INDEX(گوگل!B$2:B$44,MATCH(B9,درصد!B$2:B$44,0)),"غایب")</f>
-        <v>غایب</v>
+        <v>1012</v>
       </c>
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
@@ -4848,11 +5543,11 @@
       </c>
       <c r="C10" s="34" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,B10)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
-      </c>
-      <c r="D10" s="40" t="str">
+        <v>حاضر</v>
+      </c>
+      <c r="D10" s="40">
         <f>IF(COUNTIF(درصد!B$2:B$44,B10)&gt;0, INDEX(گوگل!B$2:B$44,MATCH(B10,درصد!B$2:B$44,0)),"غایب")</f>
-        <v>غایب</v>
+        <v>1024</v>
       </c>
       <c r="E10" s="17"/>
       <c r="F10" s="17"/>
@@ -4872,11 +5567,11 @@
       </c>
       <c r="C11" s="34" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,B11)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
-      </c>
-      <c r="D11" s="40" t="str">
+        <v>حاضر</v>
+      </c>
+      <c r="D11" s="40">
         <f>IF(COUNTIF(درصد!B$2:B$44,B11)&gt;0, INDEX(گوگل!B$2:B$44,MATCH(B11,درصد!B$2:B$44,0)),"غایب")</f>
-        <v>غایب</v>
+        <v>1031</v>
       </c>
       <c r="L11" s="17"/>
       <c r="M11" s="17"/>
@@ -4893,11 +5588,11 @@
       </c>
       <c r="C12" s="34" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,B12)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
-      </c>
-      <c r="D12" s="40" t="str">
+        <v>حاضر</v>
+      </c>
+      <c r="D12" s="40">
         <f>IF(COUNTIF(درصد!B$2:B$44,B12)&gt;0, INDEX(گوگل!B$2:B$44,MATCH(B12,درصد!B$2:B$44,0)),"غایب")</f>
-        <v>غایب</v>
+        <v>1039</v>
       </c>
       <c r="L12" s="17"/>
       <c r="M12" s="17"/>
@@ -4914,11 +5609,11 @@
       </c>
       <c r="C13" s="34" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,B13)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
-      </c>
-      <c r="D13" s="40" t="str">
+        <v>حاضر</v>
+      </c>
+      <c r="D13" s="40">
         <f>IF(COUNTIF(درصد!B$2:B$44,B13)&gt;0, INDEX(گوگل!B$2:B$44,MATCH(B13,درصد!B$2:B$44,0)),"غایب")</f>
-        <v>غایب</v>
+        <v>1023</v>
       </c>
       <c r="L13" s="17"/>
       <c r="M13" s="17"/>
@@ -4935,11 +5630,11 @@
       </c>
       <c r="C14" s="34" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,B14)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
-      </c>
-      <c r="D14" s="40" t="str">
+        <v>حاضر</v>
+      </c>
+      <c r="D14" s="40">
         <f>IF(COUNTIF(درصد!B$2:B$44,B14)&gt;0, INDEX(گوگل!B$2:B$44,MATCH(B14,درصد!B$2:B$44,0)),"غایب")</f>
-        <v>غایب</v>
+        <v>1028</v>
       </c>
       <c r="AMI14"/>
     </row>
@@ -4952,11 +5647,11 @@
       </c>
       <c r="C15" s="34" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,B15)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
-      </c>
-      <c r="D15" s="40" t="str">
+        <v>حاضر</v>
+      </c>
+      <c r="D15" s="40">
         <f>IF(COUNTIF(درصد!B$2:B$44,B15)&gt;0, INDEX(گوگل!B$2:B$44,MATCH(B15,درصد!B$2:B$44,0)),"غایب")</f>
-        <v>غایب</v>
+        <v>1005</v>
       </c>
       <c r="AMI15"/>
     </row>
@@ -4969,11 +5664,11 @@
       </c>
       <c r="C16" s="34" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,B16)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
-      </c>
-      <c r="D16" s="40" t="str">
+        <v>حاضر</v>
+      </c>
+      <c r="D16" s="40">
         <f>IF(COUNTIF(درصد!B$2:B$44,B16)&gt;0, INDEX(گوگل!B$2:B$44,MATCH(B16,درصد!B$2:B$44,0)),"غایب")</f>
-        <v>غایب</v>
+        <v>1025</v>
       </c>
       <c r="AMI16"/>
     </row>
@@ -4986,11 +5681,11 @@
       </c>
       <c r="C17" s="34" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,B17)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
-      </c>
-      <c r="D17" s="40" t="str">
+        <v>حاضر</v>
+      </c>
+      <c r="D17" s="40">
         <f>IF(COUNTIF(درصد!B$2:B$44,B17)&gt;0, INDEX(گوگل!B$2:B$44,MATCH(B17,درصد!B$2:B$44,0)),"غایب")</f>
-        <v>غایب</v>
+        <v>1007</v>
       </c>
       <c r="AMI17"/>
     </row>
@@ -5003,11 +5698,11 @@
       </c>
       <c r="C18" s="34" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,B18)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
-      </c>
-      <c r="D18" s="40" t="str">
+        <v>حاضر</v>
+      </c>
+      <c r="D18" s="40">
         <f>IF(COUNTIF(درصد!B$2:B$44,B18)&gt;0, INDEX(گوگل!B$2:B$44,MATCH(B18,درصد!B$2:B$44,0)),"غایب")</f>
-        <v>غایب</v>
+        <v>1020</v>
       </c>
       <c r="AMI18"/>
     </row>
@@ -5037,11 +5732,11 @@
       </c>
       <c r="C20" s="34" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,B20)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
-      </c>
-      <c r="D20" s="40" t="str">
+        <v>حاضر</v>
+      </c>
+      <c r="D20" s="40">
         <f>IF(COUNTIF(درصد!B$2:B$44,B20)&gt;0, INDEX(گوگل!B$2:B$44,MATCH(B20,درصد!B$2:B$44,0)),"غایب")</f>
-        <v>غایب</v>
+        <v>1037</v>
       </c>
       <c r="AMI20"/>
     </row>
@@ -5054,11 +5749,11 @@
       </c>
       <c r="C21" s="34" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,B21)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
-      </c>
-      <c r="D21" s="40" t="str">
+        <v>حاضر</v>
+      </c>
+      <c r="D21" s="40">
         <f>IF(COUNTIF(درصد!B$2:B$44,B21)&gt;0, INDEX(گوگل!B$2:B$44,MATCH(B21,درصد!B$2:B$44,0)),"غایب")</f>
-        <v>غایب</v>
+        <v>1040</v>
       </c>
       <c r="AMI21"/>
     </row>
@@ -5071,11 +5766,11 @@
       </c>
       <c r="C22" s="34" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,B22)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
-      </c>
-      <c r="D22" s="40" t="str">
+        <v>حاضر</v>
+      </c>
+      <c r="D22" s="40">
         <f>IF(COUNTIF(درصد!B$2:B$44,B22)&gt;0, INDEX(گوگل!B$2:B$44,MATCH(B22,درصد!B$2:B$44,0)),"غایب")</f>
-        <v>غایب</v>
+        <v>1004</v>
       </c>
       <c r="AMI22"/>
     </row>
@@ -5088,11 +5783,11 @@
       </c>
       <c r="C23" s="34" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,B23)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
-      </c>
-      <c r="D23" s="40" t="str">
+        <v>حاضر</v>
+      </c>
+      <c r="D23" s="40">
         <f>IF(COUNTIF(درصد!B$2:B$44,B23)&gt;0, INDEX(گوگل!B$2:B$44,MATCH(B23,درصد!B$2:B$44,0)),"غایب")</f>
-        <v>غایب</v>
+        <v>1014</v>
       </c>
       <c r="AMI23"/>
     </row>
@@ -5105,11 +5800,11 @@
       </c>
       <c r="C24" s="34" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,B24)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
-      </c>
-      <c r="D24" s="40" t="str">
+        <v>حاضر</v>
+      </c>
+      <c r="D24" s="40">
         <f>IF(COUNTIF(درصد!B$2:B$44,B24)&gt;0, INDEX(گوگل!B$2:B$44,MATCH(B24,درصد!B$2:B$44,0)),"غایب")</f>
-        <v>غایب</v>
+        <v>1013</v>
       </c>
       <c r="AMI24"/>
     </row>
@@ -5122,11 +5817,11 @@
       </c>
       <c r="C25" s="34" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,B25)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
-      </c>
-      <c r="D25" s="40" t="str">
+        <v>حاضر</v>
+      </c>
+      <c r="D25" s="40">
         <f>IF(COUNTIF(درصد!B$2:B$44,B25)&gt;0, INDEX(گوگل!B$2:B$44,MATCH(B25,درصد!B$2:B$44,0)),"غایب")</f>
-        <v>غایب</v>
+        <v>1017</v>
       </c>
       <c r="AMI25"/>
     </row>
@@ -5139,11 +5834,11 @@
       </c>
       <c r="C26" s="34" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,B26)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
-      </c>
-      <c r="D26" s="40" t="str">
+        <v>حاضر</v>
+      </c>
+      <c r="D26" s="40">
         <f>IF(COUNTIF(درصد!B$2:B$44,B26)&gt;0, INDEX(گوگل!B$2:B$44,MATCH(B26,درصد!B$2:B$44,0)),"غایب")</f>
-        <v>غایب</v>
+        <v>1019</v>
       </c>
       <c r="AMI26"/>
     </row>
@@ -5156,11 +5851,11 @@
       </c>
       <c r="C27" s="34" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,B27)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
-      </c>
-      <c r="D27" s="40" t="str">
+        <v>حاضر</v>
+      </c>
+      <c r="D27" s="40">
         <f>IF(COUNTIF(درصد!B$2:B$44,B27)&gt;0, INDEX(گوگل!B$2:B$44,MATCH(B27,درصد!B$2:B$44,0)),"غایب")</f>
-        <v>غایب</v>
+        <v>1033</v>
       </c>
       <c r="AMI27"/>
     </row>
@@ -5173,11 +5868,11 @@
       </c>
       <c r="C28" s="34" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,B28)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
-      </c>
-      <c r="D28" s="40" t="str">
+        <v>حاضر</v>
+      </c>
+      <c r="D28" s="40">
         <f>IF(COUNTIF(درصد!B$2:B$44,B28)&gt;0, INDEX(گوگل!B$2:B$44,MATCH(B28,درصد!B$2:B$44,0)),"غایب")</f>
-        <v>غایب</v>
+        <v>1036</v>
       </c>
       <c r="AMI28"/>
     </row>
@@ -5190,11 +5885,11 @@
       </c>
       <c r="C29" s="34" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,B29)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
-      </c>
-      <c r="D29" s="40" t="str">
+        <v>حاضر</v>
+      </c>
+      <c r="D29" s="40">
         <f>IF(COUNTIF(درصد!B$2:B$44,B29)&gt;0, INDEX(گوگل!B$2:B$44,MATCH(B29,درصد!B$2:B$44,0)),"غایب")</f>
-        <v>غایب</v>
+        <v>1003</v>
       </c>
       <c r="AMI29"/>
     </row>
@@ -5207,11 +5902,11 @@
       </c>
       <c r="C30" s="34" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,B30)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
-      </c>
-      <c r="D30" s="40" t="str">
+        <v>حاضر</v>
+      </c>
+      <c r="D30" s="40">
         <f>IF(COUNTIF(درصد!B$2:B$44,B30)&gt;0, INDEX(گوگل!B$2:B$44,MATCH(B30,درصد!B$2:B$44,0)),"غایب")</f>
-        <v>غایب</v>
+        <v>1001</v>
       </c>
       <c r="AMI30"/>
     </row>
@@ -5224,11 +5919,11 @@
       </c>
       <c r="C31" s="34" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,B31)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
-      </c>
-      <c r="D31" s="40" t="str">
+        <v>حاضر</v>
+      </c>
+      <c r="D31" s="40">
         <f>IF(COUNTIF(درصد!B$2:B$44,B31)&gt;0, INDEX(گوگل!B$2:B$44,MATCH(B31,درصد!B$2:B$44,0)),"غایب")</f>
-        <v>غایب</v>
+        <v>1016</v>
       </c>
       <c r="AMI31"/>
     </row>
@@ -5241,11 +5936,11 @@
       </c>
       <c r="C32" s="34" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,B32)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
-      </c>
-      <c r="D32" s="40" t="str">
+        <v>حاضر</v>
+      </c>
+      <c r="D32" s="40">
         <f>IF(COUNTIF(درصد!B$2:B$44,B32)&gt;0, INDEX(گوگل!B$2:B$44,MATCH(B32,درصد!B$2:B$44,0)),"غایب")</f>
-        <v>غایب</v>
+        <v>1022</v>
       </c>
       <c r="AMI32"/>
     </row>
@@ -5258,11 +5953,11 @@
       </c>
       <c r="C33" s="34" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,B33)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
-      </c>
-      <c r="D33" s="40" t="str">
+        <v>حاضر</v>
+      </c>
+      <c r="D33" s="40">
         <f>IF(COUNTIF(درصد!B$2:B$44,B33)&gt;0, INDEX(گوگل!B$2:B$44,MATCH(B33,درصد!B$2:B$44,0)),"غایب")</f>
-        <v>غایب</v>
+        <v>1029</v>
       </c>
       <c r="AMI33"/>
     </row>
@@ -5275,11 +5970,11 @@
       </c>
       <c r="C34" s="34" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,B34)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
-      </c>
-      <c r="D34" s="40" t="str">
+        <v>حاضر</v>
+      </c>
+      <c r="D34" s="40">
         <f>IF(COUNTIF(درصد!B$2:B$44,B34)&gt;0, INDEX(گوگل!B$2:B$44,MATCH(B34,درصد!B$2:B$44,0)),"غایب")</f>
-        <v>غایب</v>
+        <v>1038</v>
       </c>
       <c r="AMI34"/>
     </row>
@@ -5309,11 +6004,11 @@
       </c>
       <c r="C36" s="34" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,B36)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
-      </c>
-      <c r="D36" s="40" t="str">
+        <v>حاضر</v>
+      </c>
+      <c r="D36" s="40">
         <f>IF(COUNTIF(درصد!B$2:B$44,B36)&gt;0, INDEX(گوگل!B$2:B$44,MATCH(B36,درصد!B$2:B$44,0)),"غایب")</f>
-        <v>غایب</v>
+        <v>1015</v>
       </c>
       <c r="AMI36"/>
     </row>
@@ -5360,11 +6055,11 @@
       </c>
       <c r="C39" s="34" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,B39)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
-      </c>
-      <c r="D39" s="40" t="str">
+        <v>حاضر</v>
+      </c>
+      <c r="D39" s="40">
         <f>IF(COUNTIF(درصد!B$2:B$44,B39)&gt;0, INDEX(گوگل!B$2:B$44,MATCH(B39,درصد!B$2:B$44,0)),"غایب")</f>
-        <v>غایب</v>
+        <v>1041</v>
       </c>
       <c r="AMI39"/>
     </row>
@@ -5377,11 +6072,11 @@
       </c>
       <c r="C40" s="34" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,B40)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
-      </c>
-      <c r="D40" s="40" t="str">
+        <v>حاضر</v>
+      </c>
+      <c r="D40" s="40">
         <f>IF(COUNTIF(درصد!B$2:B$44,B40)&gt;0, INDEX(گوگل!B$2:B$44,MATCH(B40,درصد!B$2:B$44,0)),"غایب")</f>
-        <v>غایب</v>
+        <v>1010</v>
       </c>
       <c r="AMI40"/>
     </row>
@@ -5394,11 +6089,11 @@
       </c>
       <c r="C41" s="34" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,B41)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
-      </c>
-      <c r="D41" s="40" t="str">
+        <v>حاضر</v>
+      </c>
+      <c r="D41" s="40">
         <f>IF(COUNTIF(درصد!B$2:B$44,B41)&gt;0, INDEX(گوگل!B$2:B$44,MATCH(B41,درصد!B$2:B$44,0)),"غایب")</f>
-        <v>غایب</v>
+        <v>1035</v>
       </c>
       <c r="AMI41"/>
     </row>
@@ -5411,11 +6106,11 @@
       </c>
       <c r="C42" s="34" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,B42)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
-      </c>
-      <c r="D42" s="40" t="str">
+        <v>حاضر</v>
+      </c>
+      <c r="D42" s="40">
         <f>IF(COUNTIF(درصد!B$2:B$44,B42)&gt;0, INDEX(گوگل!B$2:B$44,MATCH(B42,درصد!B$2:B$44,0)),"غایب")</f>
-        <v>غایب</v>
+        <v>1006</v>
       </c>
       <c r="AMI42"/>
     </row>
@@ -5430,7 +6125,7 @@
       </c>
       <c r="C44" s="24">
         <f>COUNTIF('نتایج روزانه'!D2:D42,"غایب")</f>
-        <v>41</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:1023" x14ac:dyDescent="0.25">
@@ -5524,7 +6219,7 @@
     <row r="2" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A2" s="26">
         <f>RANK(O2, O$2:O$42)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2" s="30" t="s">
         <v>14</v>
@@ -5534,57 +6229,57 @@
       </c>
       <c r="D2" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C2)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E2" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C2)&gt;0, INDEX(درصد!C$2:C$44,MATCH(C2,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F2" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C2)&gt;0, INDEX(درصد!D$2:D$44,MATCH(C2,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G2" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C2)&gt;0, INDEX(درصد!E$2:E$44,MATCH(C2,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H2" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C2)&gt;0, INDEX(درصد!F$2:F$44,MATCH(C2,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I2" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C2)&gt;0, INDEX(درصد!G$2:G$44,MATCH(C2,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J2" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C2)&gt;0, INDEX(درصد!H$2:H$44,MATCH(C2,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K2" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C2)&gt;0, INDEX(درصد!I$2:I$44,MATCH(C2,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L2" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C2)&gt;0, INDEX(درصد!J$2:J$44,MATCH(C2,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M2" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C2)&gt;0, INDEX(درصد!K$2:K$44,MATCH(C2,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N2" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C2)&gt;0, INDEX(درصد!L$2:L$44,MATCH(C2,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O2" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C2)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C2,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A3" s="26">
         <f t="shared" ref="A3:A42" si="0">RANK(O3, O$2:O$42)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="30" t="s">
         <v>19</v>
@@ -5594,35 +6289,35 @@
       </c>
       <c r="D3" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C3)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E3" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C3)&gt;0, INDEX(درصد!C$2:C$44,MATCH(C3,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F3" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C3)&gt;0, INDEX(درصد!D$2:D$44,MATCH(C3,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G3" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C3)&gt;0, INDEX(درصد!E$2:E$44,MATCH(C3,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H3" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C3)&gt;0, INDEX(درصد!F$2:F$44,MATCH(C3,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I3" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C3)&gt;0, INDEX(درصد!G$2:G$44,MATCH(C3,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J3" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C3)&gt;0, INDEX(درصد!H$2:H$44,MATCH(C3,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K3" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C3)&gt;0, INDEX(درصد!I$2:I$44,MATCH(C3,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L3" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C3)&gt;0, INDEX(درصد!J$2:J$44,MATCH(C3,درصد!B$2:B$44,0)),0)</f>
@@ -5630,15 +6325,15 @@
       </c>
       <c r="M3" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C3)&gt;0, INDEX(درصد!K$2:K$44,MATCH(C3,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N3" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C3)&gt;0, INDEX(درصد!L$2:L$44,MATCH(C3,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O3" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C3)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C3,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>63.333333333333329</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
@@ -5654,23 +6349,23 @@
       </c>
       <c r="D4" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C4)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E4" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C4)&gt;0, INDEX(درصد!C$2:C$44,MATCH(C4,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F4" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C4)&gt;0, INDEX(درصد!D$2:D$44,MATCH(C4,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G4" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C4)&gt;0, INDEX(درصد!E$2:E$44,MATCH(C4,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H4" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C4)&gt;0, INDEX(درصد!F$2:F$44,MATCH(C4,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I4" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C4)&gt;0, INDEX(درصد!G$2:G$44,MATCH(C4,درصد!B$2:B$44,0)),0)</f>
@@ -5678,15 +6373,15 @@
       </c>
       <c r="J4" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C4)&gt;0, INDEX(درصد!H$2:H$44,MATCH(C4,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K4" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C4)&gt;0, INDEX(درصد!I$2:I$44,MATCH(C4,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L4" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C4)&gt;0, INDEX(درصد!J$2:J$44,MATCH(C4,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M4" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C4)&gt;0, INDEX(درصد!K$2:K$44,MATCH(C4,درصد!B$2:B$44,0)),0)</f>
@@ -5694,17 +6389,17 @@
       </c>
       <c r="N4" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C4)&gt;0, INDEX(درصد!L$2:L$44,MATCH(C4,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O4" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C4)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C4,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>66.666666666666657</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A5" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="B5" s="30" t="s">
         <v>22</v>
@@ -5714,7 +6409,7 @@
       </c>
       <c r="D5" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C5)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E5" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C5)&gt;0, INDEX(درصد!C$2:C$44,MATCH(C5,درصد!B$2:B$44,0)),0)</f>
@@ -5722,7 +6417,7 @@
       </c>
       <c r="F5" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C5)&gt;0, INDEX(درصد!D$2:D$44,MATCH(C5,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G5" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C5)&gt;0, INDEX(درصد!E$2:E$44,MATCH(C5,درصد!B$2:B$44,0)),0)</f>
@@ -5734,23 +6429,23 @@
       </c>
       <c r="I5" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C5)&gt;0, INDEX(درصد!G$2:G$44,MATCH(C5,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J5" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C5)&gt;0, INDEX(درصد!H$2:H$44,MATCH(C5,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K5" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C5)&gt;0, INDEX(درصد!I$2:I$44,MATCH(C5,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L5" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C5)&gt;0, INDEX(درصد!J$2:J$44,MATCH(C5,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M5" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C5)&gt;0, INDEX(درصد!K$2:K$44,MATCH(C5,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N5" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C5)&gt;0, INDEX(درصد!L$2:L$44,MATCH(C5,درصد!B$2:B$44,0)),0)</f>
@@ -5758,13 +6453,13 @@
       </c>
       <c r="O5" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C5)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C5,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>33.333333333333329</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A6" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B6" s="30" t="s">
         <v>28</v>
@@ -5774,57 +6469,57 @@
       </c>
       <c r="D6" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C6)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E6" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C6)&gt;0, INDEX(درصد!C$2:C$44,MATCH(C6,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F6" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C6)&gt;0, INDEX(درصد!D$2:D$44,MATCH(C6,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G6" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C6)&gt;0, INDEX(درصد!E$2:E$44,MATCH(C6,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H6" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C6)&gt;0, INDEX(درصد!F$2:F$44,MATCH(C6,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I6" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C6)&gt;0, INDEX(درصد!G$2:G$44,MATCH(C6,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J6" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C6)&gt;0, INDEX(درصد!H$2:H$44,MATCH(C6,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K6" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C6)&gt;0, INDEX(درصد!I$2:I$44,MATCH(C6,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L6" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C6)&gt;0, INDEX(درصد!J$2:J$44,MATCH(C6,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M6" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C6)&gt;0, INDEX(درصد!K$2:K$44,MATCH(C6,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N6" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C6)&gt;0, INDEX(درصد!L$2:L$44,MATCH(C6,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O6" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C6)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C6,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A7" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="B7" s="30" t="s">
         <v>37</v>
@@ -5834,7 +6529,7 @@
       </c>
       <c r="D7" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C7)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E7" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C7)&gt;0, INDEX(درصد!C$2:C$44,MATCH(C7,درصد!B$2:B$44,0)),0)</f>
@@ -5842,7 +6537,7 @@
       </c>
       <c r="F7" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C7)&gt;0, INDEX(درصد!D$2:D$44,MATCH(C7,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G7" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C7)&gt;0, INDEX(درصد!E$2:E$44,MATCH(C7,درصد!B$2:B$44,0)),0)</f>
@@ -5850,7 +6545,7 @@
       </c>
       <c r="H7" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C7)&gt;0, INDEX(درصد!F$2:F$44,MATCH(C7,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I7" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C7)&gt;0, INDEX(درصد!G$2:G$44,MATCH(C7,درصد!B$2:B$44,0)),0)</f>
@@ -5858,11 +6553,11 @@
       </c>
       <c r="J7" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C7)&gt;0, INDEX(درصد!H$2:H$44,MATCH(C7,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K7" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C7)&gt;0, INDEX(درصد!I$2:I$44,MATCH(C7,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L7" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C7)&gt;0, INDEX(درصد!J$2:J$44,MATCH(C7,درصد!B$2:B$44,0)),0)</f>
@@ -5874,17 +6569,17 @@
       </c>
       <c r="N7" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C7)&gt;0, INDEX(درصد!L$2:L$44,MATCH(C7,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O7" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C7)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C7,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>36.666666666666664</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A8" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B8" s="30" t="s">
         <v>43</v>
@@ -5894,19 +6589,19 @@
       </c>
       <c r="D8" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C8)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E8" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C8)&gt;0, INDEX(درصد!C$2:C$44,MATCH(C8,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F8" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C8)&gt;0, INDEX(درصد!D$2:D$44,MATCH(C8,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G8" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C8)&gt;0, INDEX(درصد!E$2:E$44,MATCH(C8,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H8" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C8)&gt;0, INDEX(درصد!F$2:F$44,MATCH(C8,درصد!B$2:B$44,0)),0)</f>
@@ -5918,19 +6613,19 @@
       </c>
       <c r="J8" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C8)&gt;0, INDEX(درصد!H$2:H$44,MATCH(C8,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K8" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C8)&gt;0, INDEX(درصد!I$2:I$44,MATCH(C8,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L8" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C8)&gt;0, INDEX(درصد!J$2:J$44,MATCH(C8,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M8" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C8)&gt;0, INDEX(درصد!K$2:K$44,MATCH(C8,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N8" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C8)&gt;0, INDEX(درصد!L$2:L$44,MATCH(C8,درصد!B$2:B$44,0)),0)</f>
@@ -5938,13 +6633,13 @@
       </c>
       <c r="O8" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C8)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C8,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>43.333333333333336</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A9" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B9" s="30" t="s">
         <v>46</v>
@@ -5954,15 +6649,15 @@
       </c>
       <c r="D9" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C9)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E9" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C9)&gt;0, INDEX(درصد!C$2:C$44,MATCH(C9,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F9" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C9)&gt;0, INDEX(درصد!D$2:D$44,MATCH(C9,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G9" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C9)&gt;0, INDEX(درصد!E$2:E$44,MATCH(C9,درصد!B$2:B$44,0)),0)</f>
@@ -5970,7 +6665,7 @@
       </c>
       <c r="H9" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C9)&gt;0, INDEX(درصد!F$2:F$44,MATCH(C9,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I9" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C9)&gt;0, INDEX(درصد!G$2:G$44,MATCH(C9,درصد!B$2:B$44,0)),0)</f>
@@ -5978,19 +6673,19 @@
       </c>
       <c r="J9" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C9)&gt;0, INDEX(درصد!H$2:H$44,MATCH(C9,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K9" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C9)&gt;0, INDEX(درصد!I$2:I$44,MATCH(C9,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L9" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C9)&gt;0, INDEX(درصد!J$2:J$44,MATCH(C9,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M9" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C9)&gt;0, INDEX(درصد!K$2:K$44,MATCH(C9,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N9" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C9)&gt;0, INDEX(درصد!L$2:L$44,MATCH(C9,درصد!B$2:B$44,0)),0)</f>
@@ -5998,13 +6693,13 @@
       </c>
       <c r="O9" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C9)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C9,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>56.666666666666664</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A10" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="B10" s="30" t="s">
         <v>15</v>
@@ -6014,7 +6709,7 @@
       </c>
       <c r="D10" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C10)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E10" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C10)&gt;0, INDEX(درصد!C$2:C$44,MATCH(C10,درصد!B$2:B$44,0)),0)</f>
@@ -6022,7 +6717,7 @@
       </c>
       <c r="F10" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C10)&gt;0, INDEX(درصد!D$2:D$44,MATCH(C10,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G10" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C10)&gt;0, INDEX(درصد!E$2:E$44,MATCH(C10,درصد!B$2:B$44,0)),0)</f>
@@ -6050,7 +6745,7 @@
       </c>
       <c r="M10" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C10)&gt;0, INDEX(درصد!K$2:K$44,MATCH(C10,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N10" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C10)&gt;0, INDEX(درصد!L$2:L$44,MATCH(C10,درصد!B$2:B$44,0)),0)</f>
@@ -6058,13 +6753,13 @@
       </c>
       <c r="O10" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C10)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C10,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>6.666666666666667</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A11" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="B11" s="30" t="s">
         <v>45</v>
@@ -6074,7 +6769,7 @@
       </c>
       <c r="D11" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C11)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E11" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C11)&gt;0, INDEX(درصد!C$2:C$44,MATCH(C11,درصد!B$2:B$44,0)),0)</f>
@@ -6082,11 +6777,11 @@
       </c>
       <c r="F11" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C11)&gt;0, INDEX(درصد!D$2:D$44,MATCH(C11,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G11" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C11)&gt;0, INDEX(درصد!E$2:E$44,MATCH(C11,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H11" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C11)&gt;0, INDEX(درصد!F$2:F$44,MATCH(C11,درصد!B$2:B$44,0)),0)</f>
@@ -6094,11 +6789,11 @@
       </c>
       <c r="I11" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C11)&gt;0, INDEX(درصد!G$2:G$44,MATCH(C11,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J11" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C11)&gt;0, INDEX(درصد!H$2:H$44,MATCH(C11,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K11" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C11)&gt;0, INDEX(درصد!I$2:I$44,MATCH(C11,درصد!B$2:B$44,0)),0)</f>
@@ -6110,7 +6805,7 @@
       </c>
       <c r="M11" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C11)&gt;0, INDEX(درصد!K$2:K$44,MATCH(C11,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N11" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C11)&gt;0, INDEX(درصد!L$2:L$44,MATCH(C11,درصد!B$2:B$44,0)),0)</f>
@@ -6118,13 +6813,13 @@
       </c>
       <c r="O11" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C11)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C11,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>36.666666666666664</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A12" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B12" s="30" t="s">
         <v>25</v>
@@ -6134,39 +6829,39 @@
       </c>
       <c r="D12" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C12)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E12" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C12)&gt;0, INDEX(درصد!C$2:C$44,MATCH(C12,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F12" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C12)&gt;0, INDEX(درصد!D$2:D$44,MATCH(C12,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G12" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C12)&gt;0, INDEX(درصد!E$2:E$44,MATCH(C12,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H12" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C12)&gt;0, INDEX(درصد!F$2:F$44,MATCH(C12,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I12" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C12)&gt;0, INDEX(درصد!G$2:G$44,MATCH(C12,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J12" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C12)&gt;0, INDEX(درصد!H$2:H$44,MATCH(C12,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K12" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C12)&gt;0, INDEX(درصد!I$2:I$44,MATCH(C12,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L12" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C12)&gt;0, INDEX(درصد!J$2:J$44,MATCH(C12,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M12" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C12)&gt;0, INDEX(درصد!K$2:K$44,MATCH(C12,درصد!B$2:B$44,0)),0)</f>
@@ -6174,17 +6869,17 @@
       </c>
       <c r="N12" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C12)&gt;0, INDEX(درصد!L$2:L$44,MATCH(C12,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O12" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C12)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C12,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A13" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B13" s="30" t="s">
         <v>30</v>
@@ -6194,57 +6889,57 @@
       </c>
       <c r="D13" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C13)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E13" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C13)&gt;0, INDEX(درصد!C$2:C$44,MATCH(C13,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F13" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C13)&gt;0, INDEX(درصد!D$2:D$44,MATCH(C13,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G13" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C13)&gt;0, INDEX(درصد!E$2:E$44,MATCH(C13,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H13" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C13)&gt;0, INDEX(درصد!F$2:F$44,MATCH(C13,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I13" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C13)&gt;0, INDEX(درصد!G$2:G$44,MATCH(C13,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J13" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C13)&gt;0, INDEX(درصد!H$2:H$44,MATCH(C13,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K13" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C13)&gt;0, INDEX(درصد!I$2:I$44,MATCH(C13,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L13" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C13)&gt;0, INDEX(درصد!J$2:J$44,MATCH(C13,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M13" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C13)&gt;0, INDEX(درصد!K$2:K$44,MATCH(C13,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N13" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C13)&gt;0, INDEX(درصد!L$2:L$44,MATCH(C13,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O13" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C13)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C13,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A14" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B14" s="30" t="s">
         <v>16</v>
@@ -6254,35 +6949,35 @@
       </c>
       <c r="D14" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C14)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E14" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C14)&gt;0, INDEX(درصد!C$2:C$44,MATCH(C14,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F14" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C14)&gt;0, INDEX(درصد!D$2:D$44,MATCH(C14,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G14" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C14)&gt;0, INDEX(درصد!E$2:E$44,MATCH(C14,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H14" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C14)&gt;0, INDEX(درصد!F$2:F$44,MATCH(C14,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I14" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C14)&gt;0, INDEX(درصد!G$2:G$44,MATCH(C14,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J14" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C14)&gt;0, INDEX(درصد!H$2:H$44,MATCH(C14,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K14" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C14)&gt;0, INDEX(درصد!I$2:I$44,MATCH(C14,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L14" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C14)&gt;0, INDEX(درصد!J$2:J$44,MATCH(C14,درصد!B$2:B$44,0)),0)</f>
@@ -6298,13 +6993,13 @@
       </c>
       <c r="O14" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C14)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C14,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>56.666666666666664</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A15" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="B15" s="30" t="s">
         <v>34</v>
@@ -6314,7 +7009,7 @@
       </c>
       <c r="D15" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C15)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E15" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C15)&gt;0, INDEX(درصد!C$2:C$44,MATCH(C15,درصد!B$2:B$44,0)),0)</f>
@@ -6322,11 +7017,11 @@
       </c>
       <c r="F15" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C15)&gt;0, INDEX(درصد!D$2:D$44,MATCH(C15,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G15" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C15)&gt;0, INDEX(درصد!E$2:E$44,MATCH(C15,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H15" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C15)&gt;0, INDEX(درصد!F$2:F$44,MATCH(C15,درصد!B$2:B$44,0)),0)</f>
@@ -6338,7 +7033,7 @@
       </c>
       <c r="J15" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C15)&gt;0, INDEX(درصد!H$2:H$44,MATCH(C15,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K15" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C15)&gt;0, INDEX(درصد!I$2:I$44,MATCH(C15,درصد!B$2:B$44,0)),0)</f>
@@ -6346,11 +7041,11 @@
       </c>
       <c r="L15" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C15)&gt;0, INDEX(درصد!J$2:J$44,MATCH(C15,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M15" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C15)&gt;0, INDEX(درصد!K$2:K$44,MATCH(C15,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N15" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C15)&gt;0, INDEX(درصد!L$2:L$44,MATCH(C15,درصد!B$2:B$44,0)),0)</f>
@@ -6358,13 +7053,13 @@
       </c>
       <c r="O15" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C15)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C15,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>36.666666666666664</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A16" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="B16" s="30" t="s">
         <v>31</v>
@@ -6374,19 +7069,19 @@
       </c>
       <c r="D16" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C16)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E16" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C16)&gt;0, INDEX(درصد!C$2:C$44,MATCH(C16,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F16" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C16)&gt;0, INDEX(درصد!D$2:D$44,MATCH(C16,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G16" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C16)&gt;0, INDEX(درصد!E$2:E$44,MATCH(C16,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H16" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C16)&gt;0, INDEX(درصد!F$2:F$44,MATCH(C16,درصد!B$2:B$44,0)),0)</f>
@@ -6398,11 +7093,11 @@
       </c>
       <c r="J16" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C16)&gt;0, INDEX(درصد!H$2:H$44,MATCH(C16,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K16" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C16)&gt;0, INDEX(درصد!I$2:I$44,MATCH(C16,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L16" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C16)&gt;0, INDEX(درصد!J$2:J$44,MATCH(C16,درصد!B$2:B$44,0)),0)</f>
@@ -6418,13 +7113,13 @@
       </c>
       <c r="O16" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C16)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C16,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>36.666666666666664</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A17" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="B17" s="30" t="s">
         <v>13</v>
@@ -6434,7 +7129,7 @@
       </c>
       <c r="D17" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C17)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E17" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C17)&gt;0, INDEX(درصد!C$2:C$44,MATCH(C17,درصد!B$2:B$44,0)),0)</f>
@@ -6442,11 +7137,11 @@
       </c>
       <c r="F17" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C17)&gt;0, INDEX(درصد!D$2:D$44,MATCH(C17,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G17" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C17)&gt;0, INDEX(درصد!E$2:E$44,MATCH(C17,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H17" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C17)&gt;0, INDEX(درصد!F$2:F$44,MATCH(C17,درصد!B$2:B$44,0)),0)</f>
@@ -6454,11 +7149,11 @@
       </c>
       <c r="I17" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C17)&gt;0, INDEX(درصد!G$2:G$44,MATCH(C17,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J17" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C17)&gt;0, INDEX(درصد!H$2:H$44,MATCH(C17,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K17" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C17)&gt;0, INDEX(درصد!I$2:I$44,MATCH(C17,درصد!B$2:B$44,0)),0)</f>
@@ -6470,7 +7165,7 @@
       </c>
       <c r="M17" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C17)&gt;0, INDEX(درصد!K$2:K$44,MATCH(C17,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N17" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C17)&gt;0, INDEX(درصد!L$2:L$44,MATCH(C17,درصد!B$2:B$44,0)),0)</f>
@@ -6478,13 +7173,13 @@
       </c>
       <c r="O17" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C17)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C17,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>36.666666666666664</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A18" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B18" s="30" t="s">
         <v>17</v>
@@ -6494,23 +7189,23 @@
       </c>
       <c r="D18" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C18)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E18" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C18)&gt;0, INDEX(درصد!C$2:C$44,MATCH(C18,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F18" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C18)&gt;0, INDEX(درصد!D$2:D$44,MATCH(C18,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G18" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C18)&gt;0, INDEX(درصد!E$2:E$44,MATCH(C18,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H18" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C18)&gt;0, INDEX(درصد!F$2:F$44,MATCH(C18,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I18" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C18)&gt;0, INDEX(درصد!G$2:G$44,MATCH(C18,درصد!B$2:B$44,0)),0)</f>
@@ -6518,15 +7213,15 @@
       </c>
       <c r="J18" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C18)&gt;0, INDEX(درصد!H$2:H$44,MATCH(C18,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K18" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C18)&gt;0, INDEX(درصد!I$2:I$44,MATCH(C18,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L18" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C18)&gt;0, INDEX(درصد!J$2:J$44,MATCH(C18,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M18" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C18)&gt;0, INDEX(درصد!K$2:K$44,MATCH(C18,درصد!B$2:B$44,0)),0)</f>
@@ -6534,17 +7229,17 @@
       </c>
       <c r="N18" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C18)&gt;0, INDEX(درصد!L$2:L$44,MATCH(C18,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O18" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C18)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C18,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>53.333333333333336</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A19" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="B19" s="30" t="s">
         <v>44</v>
@@ -6604,7 +7299,7 @@
     <row r="20" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A20" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B20" s="30" t="s">
         <v>29</v>
@@ -6614,19 +7309,19 @@
       </c>
       <c r="D20" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C20)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E20" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C20)&gt;0, INDEX(درصد!C$2:C$44,MATCH(C20,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F20" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C20)&gt;0, INDEX(درصد!D$2:D$44,MATCH(C20,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G20" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C20)&gt;0, INDEX(درصد!E$2:E$44,MATCH(C20,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H20" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C20)&gt;0, INDEX(درصد!F$2:F$44,MATCH(C20,درصد!B$2:B$44,0)),0)</f>
@@ -6638,19 +7333,19 @@
       </c>
       <c r="J20" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C20)&gt;0, INDEX(درصد!H$2:H$44,MATCH(C20,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K20" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C20)&gt;0, INDEX(درصد!I$2:I$44,MATCH(C20,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L20" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C20)&gt;0, INDEX(درصد!J$2:J$44,MATCH(C20,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M20" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C20)&gt;0, INDEX(درصد!K$2:K$44,MATCH(C20,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N20" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C20)&gt;0, INDEX(درصد!L$2:L$44,MATCH(C20,درصد!B$2:B$44,0)),0)</f>
@@ -6658,13 +7353,13 @@
       </c>
       <c r="O20" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C20)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C20,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>43.333333333333336</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A21" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="B21" s="30" t="s">
         <v>42</v>
@@ -6674,19 +7369,19 @@
       </c>
       <c r="D21" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C21)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E21" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C21)&gt;0, INDEX(درصد!C$2:C$44,MATCH(C21,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F21" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C21)&gt;0, INDEX(درصد!D$2:D$44,MATCH(C21,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G21" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C21)&gt;0, INDEX(درصد!E$2:E$44,MATCH(C21,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H21" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C21)&gt;0, INDEX(درصد!F$2:F$44,MATCH(C21,درصد!B$2:B$44,0)),0)</f>
@@ -6694,23 +7389,23 @@
       </c>
       <c r="I21" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C21)&gt;0, INDEX(درصد!G$2:G$44,MATCH(C21,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J21" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C21)&gt;0, INDEX(درصد!H$2:H$44,MATCH(C21,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K21" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C21)&gt;0, INDEX(درصد!I$2:I$44,MATCH(C21,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L21" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C21)&gt;0, INDEX(درصد!J$2:J$44,MATCH(C21,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M21" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C21)&gt;0, INDEX(درصد!K$2:K$44,MATCH(C21,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N21" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C21)&gt;0, INDEX(درصد!L$2:L$44,MATCH(C21,درصد!B$2:B$44,0)),0)</f>
@@ -6724,7 +7419,7 @@
     <row r="22" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A22" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="B22" s="30" t="s">
         <v>38</v>
@@ -6734,57 +7429,57 @@
       </c>
       <c r="D22" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C22)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E22" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C22)&gt;0, INDEX(درصد!C$2:C$44,MATCH(C22,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F22" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C22)&gt;0, INDEX(درصد!D$2:D$44,MATCH(C22,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G22" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C22)&gt;0, INDEX(درصد!E$2:E$44,MATCH(C22,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H22" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C22)&gt;0, INDEX(درصد!F$2:F$44,MATCH(C22,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I22" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C22)&gt;0, INDEX(درصد!G$2:G$44,MATCH(C22,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J22" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C22)&gt;0, INDEX(درصد!H$2:H$44,MATCH(C22,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K22" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C22)&gt;0, INDEX(درصد!I$2:I$44,MATCH(C22,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L22" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C22)&gt;0, INDEX(درصد!J$2:J$44,MATCH(C22,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M22" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C22)&gt;0, INDEX(درصد!K$2:K$44,MATCH(C22,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N22" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C22)&gt;0, INDEX(درصد!L$2:L$44,MATCH(C22,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O22" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C22)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C22,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>33.333333333333329</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A23" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="B23" s="30" t="s">
         <v>33</v>
@@ -6794,7 +7489,7 @@
       </c>
       <c r="D23" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C23)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E23" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C23)&gt;0, INDEX(درصد!C$2:C$44,MATCH(C23,درصد!B$2:B$44,0)),0)</f>
@@ -6802,11 +7497,11 @@
       </c>
       <c r="F23" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C23)&gt;0, INDEX(درصد!D$2:D$44,MATCH(C23,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G23" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C23)&gt;0, INDEX(درصد!E$2:E$44,MATCH(C23,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H23" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C23)&gt;0, INDEX(درصد!F$2:F$44,MATCH(C23,درصد!B$2:B$44,0)),0)</f>
@@ -6818,19 +7513,19 @@
       </c>
       <c r="J23" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C23)&gt;0, INDEX(درصد!H$2:H$44,MATCH(C23,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K23" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C23)&gt;0, INDEX(درصد!I$2:I$44,MATCH(C23,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L23" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C23)&gt;0, INDEX(درصد!J$2:J$44,MATCH(C23,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M23" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C23)&gt;0, INDEX(درصد!K$2:K$44,MATCH(C23,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N23" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C23)&gt;0, INDEX(درصد!L$2:L$44,MATCH(C23,درصد!B$2:B$44,0)),0)</f>
@@ -6838,13 +7533,13 @@
       </c>
       <c r="O23" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C23)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C23,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>33.333333333333329</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A24" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B24" s="30" t="s">
         <v>35</v>
@@ -6854,39 +7549,39 @@
       </c>
       <c r="D24" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C24)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E24" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C24)&gt;0, INDEX(درصد!C$2:C$44,MATCH(C24,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F24" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C24)&gt;0, INDEX(درصد!D$2:D$44,MATCH(C24,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G24" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C24)&gt;0, INDEX(درصد!E$2:E$44,MATCH(C24,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H24" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C24)&gt;0, INDEX(درصد!F$2:F$44,MATCH(C24,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I24" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C24)&gt;0, INDEX(درصد!G$2:G$44,MATCH(C24,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J24" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C24)&gt;0, INDEX(درصد!H$2:H$44,MATCH(C24,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K24" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C24)&gt;0, INDEX(درصد!I$2:I$44,MATCH(C24,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L24" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C24)&gt;0, INDEX(درصد!J$2:J$44,MATCH(C24,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M24" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C24)&gt;0, INDEX(درصد!K$2:K$44,MATCH(C24,درصد!B$2:B$44,0)),0)</f>
@@ -6898,13 +7593,13 @@
       </c>
       <c r="O24" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C24)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C24,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>53.333333333333336</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A25" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="B25" s="30" t="s">
         <v>23</v>
@@ -6914,7 +7609,7 @@
       </c>
       <c r="D25" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C25)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E25" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C25)&gt;0, INDEX(درصد!C$2:C$44,MATCH(C25,درصد!B$2:B$44,0)),0)</f>
@@ -6922,11 +7617,11 @@
       </c>
       <c r="F25" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C25)&gt;0, INDEX(درصد!D$2:D$44,MATCH(C25,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G25" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C25)&gt;0, INDEX(درصد!E$2:E$44,MATCH(C25,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H25" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C25)&gt;0, INDEX(درصد!F$2:F$44,MATCH(C25,درصد!B$2:B$44,0)),0)</f>
@@ -6938,33 +7633,33 @@
       </c>
       <c r="J25" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C25)&gt;0, INDEX(درصد!H$2:H$44,MATCH(C25,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K25" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C25)&gt;0, INDEX(درصد!I$2:I$44,MATCH(C25,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L25" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C25)&gt;0, INDEX(درصد!J$2:J$44,MATCH(C25,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M25" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C25)&gt;0, INDEX(درصد!K$2:K$44,MATCH(C25,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N25" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C25)&gt;0, INDEX(درصد!L$2:L$44,MATCH(C25,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O25" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C25)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C25,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3.3333333333333335</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A26" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B26" s="30" t="s">
         <v>40</v>
@@ -6974,19 +7669,19 @@
       </c>
       <c r="D26" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C26)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E26" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C26)&gt;0, INDEX(درصد!C$2:C$44,MATCH(C26,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F26" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C26)&gt;0, INDEX(درصد!D$2:D$44,MATCH(C26,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G26" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C26)&gt;0, INDEX(درصد!E$2:E$44,MATCH(C26,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H26" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C26)&gt;0, INDEX(درصد!F$2:F$44,MATCH(C26,درصد!B$2:B$44,0)),0)</f>
@@ -6994,11 +7689,11 @@
       </c>
       <c r="I26" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C26)&gt;0, INDEX(درصد!G$2:G$44,MATCH(C26,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J26" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C26)&gt;0, INDEX(درصد!H$2:H$44,MATCH(C26,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K26" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C26)&gt;0, INDEX(درصد!I$2:I$44,MATCH(C26,درصد!B$2:B$44,0)),0)</f>
@@ -7010,21 +7705,21 @@
       </c>
       <c r="M26" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C26)&gt;0, INDEX(درصد!K$2:K$44,MATCH(C26,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N26" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C26)&gt;0, INDEX(درصد!L$2:L$44,MATCH(C26,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O26" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C26)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C26,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>43.333333333333336</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A27" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B27" s="30" t="s">
         <v>49</v>
@@ -7034,11 +7729,11 @@
       </c>
       <c r="D27" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C27)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E27" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C27)&gt;0, INDEX(درصد!C$2:C$44,MATCH(C27,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F27" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C27)&gt;0, INDEX(درصد!D$2:D$44,MATCH(C27,درصد!B$2:B$44,0)),0)</f>
@@ -7058,33 +7753,33 @@
       </c>
       <c r="J27" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C27)&gt;0, INDEX(درصد!H$2:H$44,MATCH(C27,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K27" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C27)&gt;0, INDEX(درصد!I$2:I$44,MATCH(C27,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L27" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C27)&gt;0, INDEX(درصد!J$2:J$44,MATCH(C27,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M27" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C27)&gt;0, INDEX(درصد!K$2:K$44,MATCH(C27,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N27" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C27)&gt;0, INDEX(درصد!L$2:L$44,MATCH(C27,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O27" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C27)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C27,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A28" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="B28" s="30" t="s">
         <v>41</v>
@@ -7094,7 +7789,7 @@
       </c>
       <c r="D28" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C28)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E28" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C28)&gt;0, INDEX(درصد!C$2:C$44,MATCH(C28,درصد!B$2:B$44,0)),0)</f>
@@ -7106,31 +7801,31 @@
       </c>
       <c r="G28" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C28)&gt;0, INDEX(درصد!E$2:E$44,MATCH(C28,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H28" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C28)&gt;0, INDEX(درصد!F$2:F$44,MATCH(C28,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I28" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C28)&gt;0, INDEX(درصد!G$2:G$44,MATCH(C28,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J28" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C28)&gt;0, INDEX(درصد!H$2:H$44,MATCH(C28,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K28" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C28)&gt;0, INDEX(درصد!I$2:I$44,MATCH(C28,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L28" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C28)&gt;0, INDEX(درصد!J$2:J$44,MATCH(C28,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M28" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C28)&gt;0, INDEX(درصد!K$2:K$44,MATCH(C28,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N28" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C28)&gt;0, INDEX(درصد!L$2:L$44,MATCH(C28,درصد!B$2:B$44,0)),0)</f>
@@ -7138,13 +7833,13 @@
       </c>
       <c r="O28" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C28)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C28,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>16.666666666666664</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A29" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B29" s="30" t="s">
         <v>26</v>
@@ -7154,23 +7849,23 @@
       </c>
       <c r="D29" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C29)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E29" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C29)&gt;0, INDEX(درصد!C$2:C$44,MATCH(C29,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F29" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C29)&gt;0, INDEX(درصد!D$2:D$44,MATCH(C29,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G29" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C29)&gt;0, INDEX(درصد!E$2:E$44,MATCH(C29,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H29" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C29)&gt;0, INDEX(درصد!F$2:F$44,MATCH(C29,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I29" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C29)&gt;0, INDEX(درصد!G$2:G$44,MATCH(C29,درصد!B$2:B$44,0)),0)</f>
@@ -7178,19 +7873,19 @@
       </c>
       <c r="J29" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C29)&gt;0, INDEX(درصد!H$2:H$44,MATCH(C29,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K29" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C29)&gt;0, INDEX(درصد!I$2:I$44,MATCH(C29,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L29" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C29)&gt;0, INDEX(درصد!J$2:J$44,MATCH(C29,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M29" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C29)&gt;0, INDEX(درصد!K$2:K$44,MATCH(C29,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N29" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C29)&gt;0, INDEX(درصد!L$2:L$44,MATCH(C29,درصد!B$2:B$44,0)),0)</f>
@@ -7198,13 +7893,13 @@
       </c>
       <c r="O29" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C29)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C29,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A30" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="B30" s="30" t="s">
         <v>36</v>
@@ -7214,23 +7909,23 @@
       </c>
       <c r="D30" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C30)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E30" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C30)&gt;0, INDEX(درصد!C$2:C$44,MATCH(C30,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F30" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C30)&gt;0, INDEX(درصد!D$2:D$44,MATCH(C30,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G30" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C30)&gt;0, INDEX(درصد!E$2:E$44,MATCH(C30,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H30" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C30)&gt;0, INDEX(درصد!F$2:F$44,MATCH(C30,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I30" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C30)&gt;0, INDEX(درصد!G$2:G$44,MATCH(C30,درصد!B$2:B$44,0)),0)</f>
@@ -7238,11 +7933,11 @@
       </c>
       <c r="J30" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C30)&gt;0, INDEX(درصد!H$2:H$44,MATCH(C30,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K30" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C30)&gt;0, INDEX(درصد!I$2:I$44,MATCH(C30,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L30" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C30)&gt;0, INDEX(درصد!J$2:J$44,MATCH(C30,درصد!B$2:B$44,0)),0)</f>
@@ -7250,11 +7945,11 @@
       </c>
       <c r="M30" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C30)&gt;0, INDEX(درصد!K$2:K$44,MATCH(C30,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N30" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C30)&gt;0, INDEX(درصد!L$2:L$44,MATCH(C30,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O30" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C30)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C30,درصد!B$2:B$44,0)),0)</f>
@@ -7264,7 +7959,7 @@
     <row r="31" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A31" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B31" s="30" t="s">
         <v>48</v>
@@ -7274,15 +7969,15 @@
       </c>
       <c r="D31" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C31)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E31" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C31)&gt;0, INDEX(درصد!C$2:C$44,MATCH(C31,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F31" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C31)&gt;0, INDEX(درصد!D$2:D$44,MATCH(C31,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G31" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C31)&gt;0, INDEX(درصد!E$2:E$44,MATCH(C31,درصد!B$2:B$44,0)),0)</f>
@@ -7290,7 +7985,7 @@
       </c>
       <c r="H31" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C31)&gt;0, INDEX(درصد!F$2:F$44,MATCH(C31,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I31" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C31)&gt;0, INDEX(درصد!G$2:G$44,MATCH(C31,درصد!B$2:B$44,0)),0)</f>
@@ -7298,33 +7993,33 @@
       </c>
       <c r="J31" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C31)&gt;0, INDEX(درصد!H$2:H$44,MATCH(C31,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K31" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C31)&gt;0, INDEX(درصد!I$2:I$44,MATCH(C31,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L31" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C31)&gt;0, INDEX(درصد!J$2:J$44,MATCH(C31,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M31" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C31)&gt;0, INDEX(درصد!K$2:K$44,MATCH(C31,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N31" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C31)&gt;0, INDEX(درصد!L$2:L$44,MATCH(C31,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O31" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C31)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C31,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A32" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B32" s="30" t="s">
         <v>20</v>
@@ -7334,15 +8029,15 @@
       </c>
       <c r="D32" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C32)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E32" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C32)&gt;0, INDEX(درصد!C$2:C$44,MATCH(C32,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F32" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C32)&gt;0, INDEX(درصد!D$2:D$44,MATCH(C32,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G32" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C32)&gt;0, INDEX(درصد!E$2:E$44,MATCH(C32,درصد!B$2:B$44,0)),0)</f>
@@ -7350,27 +8045,27 @@
       </c>
       <c r="H32" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C32)&gt;0, INDEX(درصد!F$2:F$44,MATCH(C32,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I32" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C32)&gt;0, INDEX(درصد!G$2:G$44,MATCH(C32,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J32" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C32)&gt;0, INDEX(درصد!H$2:H$44,MATCH(C32,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K32" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C32)&gt;0, INDEX(درصد!I$2:I$44,MATCH(C32,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L32" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C32)&gt;0, INDEX(درصد!J$2:J$44,MATCH(C32,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M32" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C32)&gt;0, INDEX(درصد!K$2:K$44,MATCH(C32,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N32" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C32)&gt;0, INDEX(درصد!L$2:L$44,MATCH(C32,درصد!B$2:B$44,0)),0)</f>
@@ -7378,13 +8073,13 @@
       </c>
       <c r="O32" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C32)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C32,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A33" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="B33" s="30" t="s">
         <v>47</v>
@@ -7394,7 +8089,7 @@
       </c>
       <c r="D33" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C33)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E33" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C33)&gt;0, INDEX(درصد!C$2:C$44,MATCH(C33,درصد!B$2:B$44,0)),0)</f>
@@ -7406,23 +8101,23 @@
       </c>
       <c r="G33" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C33)&gt;0, INDEX(درصد!E$2:E$44,MATCH(C33,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H33" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C33)&gt;0, INDEX(درصد!F$2:F$44,MATCH(C33,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I33" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C33)&gt;0, INDEX(درصد!G$2:G$44,MATCH(C33,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J33" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C33)&gt;0, INDEX(درصد!H$2:H$44,MATCH(C33,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K33" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C33)&gt;0, INDEX(درصد!I$2:I$44,MATCH(C33,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L33" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C33)&gt;0, INDEX(درصد!J$2:J$44,MATCH(C33,درصد!B$2:B$44,0)),0)</f>
@@ -7430,21 +8125,21 @@
       </c>
       <c r="M33" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C33)&gt;0, INDEX(درصد!K$2:K$44,MATCH(C33,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N33" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C33)&gt;0, INDEX(درصد!L$2:L$44,MATCH(C33,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O33" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C33)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C33,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A34" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B34" s="30" t="s">
         <v>21</v>
@@ -7454,57 +8149,57 @@
       </c>
       <c r="D34" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C34)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E34" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C34)&gt;0, INDEX(درصد!C$2:C$44,MATCH(C34,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F34" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C34)&gt;0, INDEX(درصد!D$2:D$44,MATCH(C34,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G34" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C34)&gt;0, INDEX(درصد!E$2:E$44,MATCH(C34,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H34" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C34)&gt;0, INDEX(درصد!F$2:F$44,MATCH(C34,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I34" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C34)&gt;0, INDEX(درصد!G$2:G$44,MATCH(C34,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J34" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C34)&gt;0, INDEX(درصد!H$2:H$44,MATCH(C34,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K34" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C34)&gt;0, INDEX(درصد!I$2:I$44,MATCH(C34,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L34" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C34)&gt;0, INDEX(درصد!J$2:J$44,MATCH(C34,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M34" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C34)&gt;0, INDEX(درصد!K$2:K$44,MATCH(C34,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N34" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C34)&gt;0, INDEX(درصد!L$2:L$44,MATCH(C34,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O34" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C34)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C34,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A35" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="B35" s="30" t="s">
         <v>24</v>
@@ -7564,7 +8259,7 @@
     <row r="36" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A36" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B36" s="30" t="s">
         <v>61</v>
@@ -7574,15 +8269,15 @@
       </c>
       <c r="D36" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C36)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E36" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C36)&gt;0, INDEX(درصد!C$2:C$44,MATCH(C36,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F36" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C36)&gt;0, INDEX(درصد!D$2:D$44,MATCH(C36,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G36" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C36)&gt;0, INDEX(درصد!E$2:E$44,MATCH(C36,درصد!B$2:B$44,0)),0)</f>
@@ -7598,33 +8293,33 @@
       </c>
       <c r="J36" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C36)&gt;0, INDEX(درصد!H$2:H$44,MATCH(C36,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K36" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C36)&gt;0, INDEX(درصد!I$2:I$44,MATCH(C36,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L36" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C36)&gt;0, INDEX(درصد!J$2:J$44,MATCH(C36,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M36" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C36)&gt;0, INDEX(درصد!K$2:K$44,MATCH(C36,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N36" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C36)&gt;0, INDEX(درصد!L$2:L$44,MATCH(C36,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O36" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C36)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C36,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>56.666666666666664</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A37" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="B37" s="30" t="s">
         <v>12</v>
@@ -7684,7 +8379,7 @@
     <row r="38" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A38" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="B38" s="30" t="s">
         <v>58</v>
@@ -7744,7 +8439,7 @@
     <row r="39" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A39" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B39" s="30" t="s">
         <v>59</v>
@@ -7754,57 +8449,57 @@
       </c>
       <c r="D39" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C39)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E39" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C39)&gt;0, INDEX(درصد!C$2:C$44,MATCH(C39,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F39" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C39)&gt;0, INDEX(درصد!D$2:D$44,MATCH(C39,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G39" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C39)&gt;0, INDEX(درصد!E$2:E$44,MATCH(C39,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H39" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C39)&gt;0, INDEX(درصد!F$2:F$44,MATCH(C39,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I39" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C39)&gt;0, INDEX(درصد!G$2:G$44,MATCH(C39,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J39" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C39)&gt;0, INDEX(درصد!H$2:H$44,MATCH(C39,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K39" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C39)&gt;0, INDEX(درصد!I$2:I$44,MATCH(C39,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L39" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C39)&gt;0, INDEX(درصد!J$2:J$44,MATCH(C39,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M39" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C39)&gt;0, INDEX(درصد!K$2:K$44,MATCH(C39,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N39" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C39)&gt;0, INDEX(درصد!L$2:L$44,MATCH(C39,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O39" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C39)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C39,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A40" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="B40" s="30" t="s">
         <v>39</v>
@@ -7814,15 +8509,15 @@
       </c>
       <c r="D40" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C40)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E40" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C40)&gt;0, INDEX(درصد!C$2:C$44,MATCH(C40,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F40" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C40)&gt;0, INDEX(درصد!D$2:D$44,MATCH(C40,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G40" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C40)&gt;0, INDEX(درصد!E$2:E$44,MATCH(C40,درصد!B$2:B$44,0)),0)</f>
@@ -7838,11 +8533,11 @@
       </c>
       <c r="J40" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C40)&gt;0, INDEX(درصد!H$2:H$44,MATCH(C40,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K40" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C40)&gt;0, INDEX(درصد!I$2:I$44,MATCH(C40,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L40" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C40)&gt;0, INDEX(درصد!J$2:J$44,MATCH(C40,درصد!B$2:B$44,0)),0)</f>
@@ -7858,13 +8553,13 @@
       </c>
       <c r="O40" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C40)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C40,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>26.666666666666668</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A41" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="B41" s="30" t="s">
         <v>32</v>
@@ -7874,39 +8569,39 @@
       </c>
       <c r="D41" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C41)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E41" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C41)&gt;0, INDEX(درصد!C$2:C$44,MATCH(C41,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F41" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C41)&gt;0, INDEX(درصد!D$2:D$44,MATCH(C41,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G41" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C41)&gt;0, INDEX(درصد!E$2:E$44,MATCH(C41,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H41" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C41)&gt;0, INDEX(درصد!F$2:F$44,MATCH(C41,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I41" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C41)&gt;0, INDEX(درصد!G$2:G$44,MATCH(C41,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J41" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C41)&gt;0, INDEX(درصد!H$2:H$44,MATCH(C41,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K41" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C41)&gt;0, INDEX(درصد!I$2:I$44,MATCH(C41,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L41" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C41)&gt;0, INDEX(درصد!J$2:J$44,MATCH(C41,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M41" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C41)&gt;0, INDEX(درصد!K$2:K$44,MATCH(C41,درصد!B$2:B$44,0)),0)</f>
@@ -7914,17 +8609,17 @@
       </c>
       <c r="N41" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C41)&gt;0, INDEX(درصد!L$2:L$44,MATCH(C41,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O41" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C41)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C41,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>36.666666666666664</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A42" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B42" s="30" t="s">
         <v>27</v>
@@ -7934,39 +8629,39 @@
       </c>
       <c r="D42" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C42)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E42" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C42)&gt;0, INDEX(درصد!C$2:C$44,MATCH(C42,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F42" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C42)&gt;0, INDEX(درصد!D$2:D$44,MATCH(C42,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G42" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C42)&gt;0, INDEX(درصد!E$2:E$44,MATCH(C42,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H42" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C42)&gt;0, INDEX(درصد!F$2:F$44,MATCH(C42,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I42" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C42)&gt;0, INDEX(درصد!G$2:G$44,MATCH(C42,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J42" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C42)&gt;0, INDEX(درصد!H$2:H$44,MATCH(C42,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K42" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C42)&gt;0, INDEX(درصد!I$2:I$44,MATCH(C42,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L42" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C42)&gt;0, INDEX(درصد!J$2:J$44,MATCH(C42,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M42" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C42)&gt;0, INDEX(درصد!K$2:K$44,MATCH(C42,درصد!B$2:B$44,0)),0)</f>
@@ -7974,11 +8669,11 @@
       </c>
       <c r="N42" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C42)&gt;0, INDEX(درصد!L$2:L$44,MATCH(C42,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O42" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C42)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C42,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>63.333333333333329</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.5">
@@ -8147,7 +8842,7 @@
       </c>
       <c r="C3" s="43">
         <f>IF(COUNTIF(درصد!B$2:B$44,B3)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B3,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>33.333333333333329</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -8159,7 +8854,7 @@
       </c>
       <c r="C4" s="43">
         <f>IF(COUNTIF(درصد!B$2:B$44,B4)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B4,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -8171,7 +8866,7 @@
       </c>
       <c r="C5" s="43">
         <f>IF(COUNTIF(درصد!B$2:B$44,B5)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B5,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>33.333333333333329</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -8183,7 +8878,7 @@
       </c>
       <c r="C6" s="43">
         <f>IF(COUNTIF(درصد!B$2:B$44,B6)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B6,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>36.666666666666664</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -8195,7 +8890,7 @@
       </c>
       <c r="C7" s="43">
         <f>IF(COUNTIF(درصد!B$2:B$44,B7)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B7,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>63.333333333333329</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -8207,7 +8902,7 @@
       </c>
       <c r="C8" s="43">
         <f>IF(COUNTIF(درصد!B$2:B$44,B8)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B8,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>36.666666666666664</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -8219,7 +8914,7 @@
       </c>
       <c r="C9" s="43">
         <f>IF(COUNTIF(درصد!B$2:B$44,B9)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B9,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -8231,7 +8926,7 @@
       </c>
       <c r="C10" s="43">
         <f>IF(COUNTIF(درصد!B$2:B$44,B10)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B10,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>43.333333333333336</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -8243,7 +8938,7 @@
       </c>
       <c r="C11" s="43">
         <f>IF(COUNTIF(درصد!B$2:B$44,B11)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B11,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>26.666666666666668</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -8255,7 +8950,7 @@
       </c>
       <c r="C12" s="43">
         <f>IF(COUNTIF(درصد!B$2:B$44,B12)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B12,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>63.333333333333329</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -8267,7 +8962,7 @@
       </c>
       <c r="C13" s="43">
         <f>IF(COUNTIF(درصد!B$2:B$44,B13)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B13,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>56.666666666666664</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -8279,7 +8974,7 @@
       </c>
       <c r="C14" s="43">
         <f>IF(COUNTIF(درصد!B$2:B$44,B14)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B14,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>53.333333333333336</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -8291,7 +8986,7 @@
       </c>
       <c r="C15" s="43">
         <f>IF(COUNTIF(درصد!B$2:B$44,B15)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B15,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>33.333333333333329</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -8303,7 +8998,7 @@
       </c>
       <c r="C16" s="43">
         <f>IF(COUNTIF(درصد!B$2:B$44,B16)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B16,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>56.666666666666664</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -8315,7 +9010,7 @@
       </c>
       <c r="C17" s="43">
         <f>IF(COUNTIF(درصد!B$2:B$44,B17)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B17,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -8327,7 +9022,7 @@
       </c>
       <c r="C18" s="43">
         <f>IF(COUNTIF(درصد!B$2:B$44,B18)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B18,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3.3333333333333335</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -8339,7 +9034,7 @@
       </c>
       <c r="C19" s="43">
         <f>IF(COUNTIF(درصد!B$2:B$44,B19)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B19,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -8351,7 +9046,7 @@
       </c>
       <c r="C20" s="43">
         <f>IF(COUNTIF(درصد!B$2:B$44,B20)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B20,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>43.333333333333336</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -8363,7 +9058,7 @@
       </c>
       <c r="C21" s="43">
         <f>IF(COUNTIF(درصد!B$2:B$44,B21)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B21,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>53.333333333333336</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -8387,7 +9082,7 @@
       </c>
       <c r="C23" s="43">
         <f>IF(COUNTIF(درصد!B$2:B$44,B23)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B23,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -8399,7 +9094,7 @@
       </c>
       <c r="C24" s="43">
         <f>IF(COUNTIF(درصد!B$2:B$44,B24)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B24,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -8411,7 +9106,7 @@
       </c>
       <c r="C25" s="43">
         <f>IF(COUNTIF(درصد!B$2:B$44,B25)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B25,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>6.666666666666667</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -8423,7 +9118,7 @@
       </c>
       <c r="C26" s="43">
         <f>IF(COUNTIF(درصد!B$2:B$44,B26)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B26,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>36.666666666666664</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -8435,7 +9130,7 @@
       </c>
       <c r="C27" s="43">
         <f>IF(COUNTIF(درصد!B$2:B$44,B27)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B27,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>66.666666666666657</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -8459,7 +9154,7 @@
       </c>
       <c r="C29" s="43">
         <f>IF(COUNTIF(درصد!B$2:B$44,B29)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B29,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>56.666666666666664</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -8471,7 +9166,7 @@
       </c>
       <c r="C30" s="43">
         <f>IF(COUNTIF(درصد!B$2:B$44,B30)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B30,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -8483,7 +9178,7 @@
       </c>
       <c r="C31" s="43">
         <f>IF(COUNTIF(درصد!B$2:B$44,B31)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B31,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>36.666666666666664</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -8495,7 +9190,7 @@
       </c>
       <c r="C32" s="43">
         <f>IF(COUNTIF(درصد!B$2:B$44,B32)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B32,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>36.666666666666664</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -8519,7 +9214,7 @@
       </c>
       <c r="C34" s="43">
         <f>IF(COUNTIF(درصد!B$2:B$44,B34)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B34,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -8543,7 +9238,7 @@
       </c>
       <c r="C36" s="43">
         <f>IF(COUNTIF(درصد!B$2:B$44,B36)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B36,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>36.666666666666664</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -8555,7 +9250,7 @@
       </c>
       <c r="C37" s="43">
         <f>IF(COUNTIF(درصد!B$2:B$44,B37)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B37,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>16.666666666666664</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -8567,7 +9262,7 @@
       </c>
       <c r="C38" s="43">
         <f>IF(COUNTIF(درصد!B$2:B$44,B38)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B38,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>43.333333333333336</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -8579,7 +9274,7 @@
       </c>
       <c r="C39" s="43">
         <f>IF(COUNTIF(درصد!B$2:B$44,B39)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B39,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -8591,7 +9286,7 @@
       </c>
       <c r="C40" s="43">
         <f>IF(COUNTIF(درصد!B$2:B$44,B40)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B40,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -8615,7 +9310,7 @@
       </c>
       <c r="C42" s="43">
         <f>IF(COUNTIF(درصد!B$2:B$44,B42)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B42,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -8628,8 +9323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="O44" sqref="A1:O44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -8690,30 +9385,30 @@
         <v>1</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C2" s="23">
-        <v>1008</v>
+        <v>1026</v>
       </c>
       <c r="D2" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C2)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E2" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C2)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C2,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F2" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C2)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C2,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G2" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C2)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C2,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H2" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C2)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C2,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C2)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C2,گوگل!$B$2:$B$44,0)),0)</f>
@@ -8721,15 +9416,15 @@
       </c>
       <c r="J2" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C2)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C2,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C2)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C2,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L2" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C2)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C2,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M2" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C2)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C2,گوگل!$B$2:$B$44,0)),0)</f>
@@ -8737,17 +9432,17 @@
       </c>
       <c r="N2" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C2)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C2,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O2" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C2)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C2,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>66.666666666666657</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A3" s="26">
         <f t="shared" ref="A3:A42" si="0">RANK(O3, O$2:O$42)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="30" t="s">
         <v>19</v>
@@ -8757,35 +9452,35 @@
       </c>
       <c r="D3" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C3)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E3" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C3)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C3,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F3" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C3)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C3,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G3" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C3)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C3,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H3" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C3)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C3,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C3)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C3,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J3" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C3)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C3,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C3)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C3,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L3" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C3)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C3,گوگل!$B$2:$B$44,0)),0)</f>
@@ -8793,63 +9488,63 @@
       </c>
       <c r="M3" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C3)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C3,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N3" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C3)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C3,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O3" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C3)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C3,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>63.333333333333329</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A4" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C4" s="23">
-        <v>1026</v>
+        <v>1006</v>
       </c>
       <c r="D4" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C4)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E4" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C4)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C4,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F4" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C4)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C4,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G4" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C4)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C4,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H4" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C4)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C4,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C4)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C4,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J4" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C4)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C4,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C4)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C4,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L4" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C4)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C4,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M4" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C4)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C4,گوگل!$B$2:$B$44,0)),0)</f>
@@ -8857,77 +9552,77 @@
       </c>
       <c r="N4" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C4)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C4,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O4" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C4)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C4,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>63.333333333333329</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A5" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C5" s="23">
-        <v>1002</v>
+        <v>1008</v>
       </c>
       <c r="D5" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C5)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E5" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C5)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C5,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F5" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C5)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C5,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G5" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C5)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C5,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H5" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C5)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C5,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C5)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C5,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J5" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C5)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C5,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C5)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C5,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L5" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C5)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C5,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M5" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C5)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C5,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N5" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C5)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C5,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O5" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C5)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C5,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A6" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B6" s="30" t="s">
         <v>28</v>
@@ -8937,71 +9632,71 @@
       </c>
       <c r="D6" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C6)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E6" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C6)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C6,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F6" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C6)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C6,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G6" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C6)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C6,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H6" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C6)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C6,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C6)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C6,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J6" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C6)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C6,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C6)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C6,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L6" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C6)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C6,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C6)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C6,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N6" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C6)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C6,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O6" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C6)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C6,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A7" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C7" s="23">
-        <v>1030</v>
+        <v>1033</v>
       </c>
       <c r="D7" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C7)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E7" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C7)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C7,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F7" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C7)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C7,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9021,51 +9716,51 @@
       </c>
       <c r="J7" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C7)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C7,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C7)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C7,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L7" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C7)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C7,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M7" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C7)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C7,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N7" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C7)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C7,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O7" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C7)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C7,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A8" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C8" s="23">
-        <v>1009</v>
+        <v>1012</v>
       </c>
       <c r="D8" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C8)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E8" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C8)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C8,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F8" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C8)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C8,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G8" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C8)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C8,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9073,7 +9768,7 @@
       </c>
       <c r="H8" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C8)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C8,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C8)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C8,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9081,19 +9776,19 @@
       </c>
       <c r="J8" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C8)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C8,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C8)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C8,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L8" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C8)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C8,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M8" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C8)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C8,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N8" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C8)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C8,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9101,51 +9796,51 @@
       </c>
       <c r="O8" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C8)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C8,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>56.666666666666664</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A9" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="C9" s="23">
-        <v>1012</v>
+        <v>1028</v>
       </c>
       <c r="D9" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C9)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E9" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C9)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C9,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F9" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C9)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C9,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G9" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C9)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C9,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H9" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C9)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C9,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C9)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C9,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J9" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C9)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C9,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C9)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C9,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L9" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C9)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C9,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9161,31 +9856,31 @@
       </c>
       <c r="O9" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C9)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C9,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>56.666666666666664</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A10" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="C10" s="23">
-        <v>1024</v>
+        <v>1015</v>
       </c>
       <c r="D10" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C10)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E10" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C10)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C10,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F10" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C10)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C10,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G10" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C10)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C10,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9201,59 +9896,59 @@
       </c>
       <c r="J10" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C10)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C10,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C10)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C10,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L10" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C10)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C10,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M10" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C10)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C10,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N10" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C10)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C10,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C10)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C10,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>56.666666666666664</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A11" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="C11" s="23">
-        <v>1031</v>
+        <v>1020</v>
       </c>
       <c r="D11" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C11)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E11" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C11)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C11,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F11" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C11)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C11,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G11" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C11)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C11,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H11" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C11)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C11,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C11)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C11,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9261,15 +9956,15 @@
       </c>
       <c r="J11" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C11)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C11,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C11)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C11,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L11" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C11)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C11,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M11" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C11)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C11,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9277,59 +9972,59 @@
       </c>
       <c r="N11" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C11)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C11,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O11" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C11)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C11,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>53.333333333333336</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A12" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C12" s="23">
-        <v>1039</v>
+        <v>1013</v>
       </c>
       <c r="D12" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C12)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E12" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C12)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C12,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F12" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C12)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C12,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G12" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C12)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C12,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H12" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C12)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C12,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C12)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C12,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J12" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C12)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C12,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C12)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C12,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L12" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C12)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C12,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M12" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C12)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C12,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9341,55 +10036,55 @@
       </c>
       <c r="O12" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C12)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C12,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>53.333333333333336</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A13" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C13" s="23">
-        <v>1023</v>
+        <v>1039</v>
       </c>
       <c r="D13" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C13)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E13" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C13)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C13,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F13" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C13)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C13,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G13" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C13)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C13,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H13" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C13)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C13,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C13)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C13,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J13" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C13)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C13,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C13)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C13,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L13" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C13)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C13,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M13" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C13)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C13,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9397,39 +10092,39 @@
       </c>
       <c r="N13" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C13)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C13,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C13)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C13,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A14" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="C14" s="23">
-        <v>1028</v>
+        <v>1009</v>
       </c>
       <c r="D14" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C14)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E14" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C14)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C14,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F14" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C14)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C14,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G14" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C14)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C14,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H14" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C14)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C14,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9441,19 +10136,19 @@
       </c>
       <c r="J14" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C14)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C14,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C14)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C14,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C14)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C14,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C14)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C14,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N14" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C14)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C14,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9461,35 +10156,35 @@
       </c>
       <c r="O14" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C14)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C14,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>43.333333333333336</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A15" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C15" s="23">
-        <v>1005</v>
+        <v>1037</v>
       </c>
       <c r="D15" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C15)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E15" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C15)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C15,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F15" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C15)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C15,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C15)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C15,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H15" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C15)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C15,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9501,19 +10196,19 @@
       </c>
       <c r="J15" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C15)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C15,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C15)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C15,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L15" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C15)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C15,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C15)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C15,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N15" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C15)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C15,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9521,35 +10216,35 @@
       </c>
       <c r="O15" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C15)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C15,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>43.333333333333336</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A16" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C16" s="23">
-        <v>1025</v>
+        <v>1019</v>
       </c>
       <c r="D16" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C16)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E16" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C16)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C16,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F16" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C16)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C16,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G16" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C16)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C16,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H16" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C16)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C16,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9557,11 +10252,11 @@
       </c>
       <c r="I16" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C16)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C16,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C16)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C16,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C16)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C16,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9573,47 +10268,47 @@
       </c>
       <c r="M16" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C16)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C16,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N16" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C16)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C16,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O16" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C16)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C16,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>43.333333333333336</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A17" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C17" s="23">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="D17" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C17)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E17" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C17)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C17,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F17" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C17)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C17,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C17)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C17,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H17" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C17)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C17,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C17)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C17,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9621,19 +10316,19 @@
       </c>
       <c r="J17" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C17)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C17,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C17)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C17,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L17" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C17)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C17,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M17" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C17)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C17,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N17" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C17)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C17,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9641,31 +10336,31 @@
       </c>
       <c r="O17" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C17)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C17,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A18" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B18" s="30" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="C18" s="23">
-        <v>1020</v>
+        <v>1016</v>
       </c>
       <c r="D18" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C18)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E18" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C18)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C18,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F18" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C18)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C18,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G18" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C18)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C18,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9673,7 +10368,7 @@
       </c>
       <c r="H18" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C18)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C18,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C18)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C18,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9681,51 +10376,51 @@
       </c>
       <c r="J18" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C18)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C18,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C18)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C18,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L18" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C18)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C18,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M18" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C18)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C18,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N18" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C18)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C18,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O18" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C18)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C18,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A19" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B19" s="30" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="C19" s="23">
-        <v>1034</v>
+        <v>1022</v>
       </c>
       <c r="D19" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C19)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E19" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C19)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C19,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F19" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C19)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C19,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G19" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C19)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C19,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9733,27 +10428,27 @@
       </c>
       <c r="H19" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C19)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C19,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C19)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C19,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J19" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C19)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C19,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K19" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C19)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C19,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L19" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C19)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C19,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M19" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C19)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C19,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N19" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C19)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C19,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9761,23 +10456,23 @@
       </c>
       <c r="O19" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C19)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C19,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A20" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C20" s="23">
-        <v>1037</v>
+        <v>1030</v>
       </c>
       <c r="D20" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C20)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E20" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C20)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C20,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9785,7 +10480,7 @@
       </c>
       <c r="F20" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C20)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C20,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G20" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C20)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C20,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9793,7 +10488,7 @@
       </c>
       <c r="H20" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C20)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C20,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C20)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C20,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9801,11 +10496,11 @@
       </c>
       <c r="J20" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C20)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C20,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C20)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C20,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L20" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C20)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C20,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9817,27 +10512,27 @@
       </c>
       <c r="N20" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C20)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C20,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O20" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C20)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C20,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>36.666666666666664</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A21" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="B21" s="30" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C21" s="23">
-        <v>1040</v>
+        <v>1031</v>
       </c>
       <c r="D21" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C21)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E21" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C21)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C21,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9845,11 +10540,11 @@
       </c>
       <c r="F21" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C21)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C21,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C21)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C21,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H21" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C21)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C21,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9857,11 +10552,11 @@
       </c>
       <c r="I21" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C21)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C21,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C21)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C21,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C21)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C21,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9873,7 +10568,7 @@
       </c>
       <c r="M21" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C21)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C21,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N21" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C21)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C21,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9881,23 +10576,23 @@
       </c>
       <c r="O21" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C21)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C21,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>36.666666666666664</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A22" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="B22" s="30" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C22" s="23">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="D22" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C22)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E22" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C22)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C22,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9905,11 +10600,11 @@
       </c>
       <c r="F22" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C22)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C22,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G22" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C22)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C22,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H22" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C22)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C22,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9921,7 +10616,7 @@
       </c>
       <c r="J22" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C22)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C22,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C22)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C22,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9929,11 +10624,11 @@
       </c>
       <c r="L22" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C22)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C22,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C22)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C22,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N22" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C22)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C22,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9941,35 +10636,35 @@
       </c>
       <c r="O22" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C22)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C22,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>36.666666666666664</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A23" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="B23" s="30" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C23" s="23">
-        <v>1014</v>
+        <v>1025</v>
       </c>
       <c r="D23" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C23)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E23" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C23)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C23,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F23" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C23)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C23,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G23" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C23)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C23,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H23" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C23)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C23,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9981,11 +10676,11 @@
       </c>
       <c r="J23" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C23)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C23,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C23)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C23,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L23" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C23)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C23,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10001,23 +10696,23 @@
       </c>
       <c r="O23" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C23)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C23,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>36.666666666666664</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A24" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="B24" s="30" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="C24" s="23">
-        <v>1013</v>
+        <v>1007</v>
       </c>
       <c r="D24" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C24)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E24" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C24)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C24,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10025,11 +10720,11 @@
       </c>
       <c r="F24" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C24)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C24,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G24" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C24)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C24,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H24" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C24)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C24,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10037,11 +10732,11 @@
       </c>
       <c r="I24" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C24)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C24,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J24" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C24)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C24,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C24)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C24,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10053,7 +10748,7 @@
       </c>
       <c r="M24" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C24)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C24,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N24" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C24)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C24,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10061,55 +10756,55 @@
       </c>
       <c r="O24" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C24)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C24,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>36.666666666666664</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A25" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="B25" s="30" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C25" s="23">
-        <v>1017</v>
+        <v>1035</v>
       </c>
       <c r="D25" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C25)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E25" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C25)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C25,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F25" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C25)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C25,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G25" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C25)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C25,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H25" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C25)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C25,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I25" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C25)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C25,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J25" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C25)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C25,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C25)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C25,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L25" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C25)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C25,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M25" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C25)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C25,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10117,27 +10812,27 @@
       </c>
       <c r="N25" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C25)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C25,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O25" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C25)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C25,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>36.666666666666664</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A26" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="B26" s="30" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="C26" s="23">
-        <v>1019</v>
+        <v>1002</v>
       </c>
       <c r="D26" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C26)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E26" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C26)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C26,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10145,7 +10840,7 @@
       </c>
       <c r="F26" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C26)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C26,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G26" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C26)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C26,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10157,23 +10852,23 @@
       </c>
       <c r="I26" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C26)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C26,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C26)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C26,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C26)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C26,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L26" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C26)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C26,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M26" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C26)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C26,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N26" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C26)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C26,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10181,83 +10876,83 @@
       </c>
       <c r="O26" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C26)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C26,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>33.333333333333329</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A27" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="B27" s="30" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C27" s="23">
-        <v>1033</v>
+        <v>1004</v>
       </c>
       <c r="D27" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C27)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E27" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C27)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C27,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F27" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C27)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C27,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G27" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C27)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C27,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H27" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C27)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C27,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I27" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C27)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C27,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J27" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C27)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C27,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C27)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C27,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L27" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C27)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C27,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M27" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C27)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C27,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N27" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C27)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C27,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O27" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C27)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C27,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>33.333333333333329</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A28" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="B28" s="30" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C28" s="23">
-        <v>1036</v>
+        <v>1014</v>
       </c>
       <c r="D28" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C28)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E28" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C28)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C28,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10265,11 +10960,11 @@
       </c>
       <c r="F28" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C28)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C28,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C28)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C28,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H28" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C28)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C28,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10281,19 +10976,19 @@
       </c>
       <c r="J28" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C28)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C28,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C28)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C28,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L28" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C28)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C28,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M28" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C28)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C28,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N28" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C28)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C28,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10301,23 +10996,23 @@
       </c>
       <c r="O28" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C28)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C28,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>33.333333333333329</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A29" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="B29" s="30" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="C29" s="23">
-        <v>1003</v>
+        <v>1029</v>
       </c>
       <c r="D29" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C29)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E29" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C29)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C29,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10329,23 +11024,23 @@
       </c>
       <c r="G29" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C29)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C29,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H29" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C29)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C29,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C29)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C29,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J29" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C29)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C29,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C29)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C29,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L29" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C29)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C29,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10353,39 +11048,39 @@
       </c>
       <c r="M29" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C29)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C29,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N29" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C29)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C29,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O29" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C29)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C29,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A30" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="B30" s="30" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C30" s="23">
-        <v>1001</v>
+        <v>1010</v>
       </c>
       <c r="D30" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C30)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E30" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C30)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C30,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F30" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C30)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C30,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C30)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C30,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10401,11 +11096,11 @@
       </c>
       <c r="J30" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C30)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C30,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C30)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C30,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L30" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C30)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C30,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10421,203 +11116,203 @@
       </c>
       <c r="O30" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C30)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C30,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>26.666666666666668</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A31" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B31" s="30" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="C31" s="23">
-        <v>1016</v>
+        <v>1023</v>
       </c>
       <c r="D31" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C31)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E31" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C31)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C31,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F31" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C31)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C31,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C31)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C31,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H31" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C31)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C31,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I31" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C31)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C31,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J31" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C31)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C31,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C31)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C31,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L31" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C31)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C31,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M31" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C31)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C31,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N31" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C31)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C31,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O31" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C31)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C31,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A32" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B32" s="30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C32" s="23">
-        <v>1022</v>
+        <v>1038</v>
       </c>
       <c r="D32" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C32)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E32" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C32)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C32,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F32" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C32)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C32,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G32" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C32)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C32,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H32" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C32)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C32,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I32" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C32)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C32,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J32" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C32)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C32,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C32)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C32,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L32" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C32)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C32,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M32" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C32)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C32,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N32" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C32)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C32,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O32" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C32)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C32,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A33" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B33" s="30" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="C33" s="23">
-        <v>1029</v>
+        <v>1041</v>
       </c>
       <c r="D33" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C33)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E33" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C33)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C33,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F33" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C33)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C33,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G33" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C33)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C33,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H33" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C33)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C33,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C33)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C33,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J33" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C33)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C33,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C33)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C33,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L33" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C33)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C33,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M33" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C33)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C33,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N33" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C33)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C33,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O33" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C33)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C33,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A34" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="B34" s="30" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="C34" s="23">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="D34" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C34)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E34" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C34)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C34,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10629,31 +11324,31 @@
       </c>
       <c r="G34" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C34)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C34,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H34" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C34)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C34,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C34)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C34,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J34" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C34)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C34,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K34" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C34)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C34,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L34" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C34)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C34,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M34" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C34)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C34,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N34" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C34)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C34,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10661,23 +11356,23 @@
       </c>
       <c r="O34" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C34)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C34,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>16.666666666666664</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A35" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="B35" s="30" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C35" s="23">
-        <v>1021</v>
+        <v>1024</v>
       </c>
       <c r="D35" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C35)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E35" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C35)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C35,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10685,7 +11380,7 @@
       </c>
       <c r="F35" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C35)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C35,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G35" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C35)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C35,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10713,7 +11408,7 @@
       </c>
       <c r="M35" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C35)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C35,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N35" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C35)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C35,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10721,23 +11416,23 @@
       </c>
       <c r="O35" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C35)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C35,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>6.666666666666667</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A36" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="B36" s="30" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="C36" s="23">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="D36" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C36)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E36" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C36)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C36,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10745,11 +11440,11 @@
       </c>
       <c r="F36" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C36)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C36,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G36" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C36)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C36,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H36" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C36)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C36,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10761,39 +11456,39 @@
       </c>
       <c r="J36" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C36)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C36,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K36" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C36)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C36,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L36" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C36)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C36,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M36" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C36)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C36,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N36" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C36)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C36,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O36" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C36)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C36,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3.3333333333333335</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A37" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="B37" s="30" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="C37" s="23">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="D37" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C37)=1,"حاضر","غایب")</f>
@@ -10847,29 +11542,29 @@
     <row r="38" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A38" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="B38" s="30" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="C38" s="23">
-        <v>1032</v>
+        <v>1040</v>
       </c>
       <c r="D38" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C38)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E38" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C38)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C38,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F38" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C38)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C38,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G38" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C38)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C38,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C38)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C38,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10877,23 +11572,23 @@
       </c>
       <c r="I38" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C38)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C38,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J38" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C38)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C38,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K38" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C38)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C38,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L38" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C38)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C38,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M38" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C38)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C38,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N38" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C38)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C38,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10907,33 +11602,33 @@
     <row r="39" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A39" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="B39" s="30" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="C39" s="23">
-        <v>1041</v>
+        <v>1001</v>
       </c>
       <c r="D39" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C39)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E39" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C39)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C39,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F39" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C39)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C39,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G39" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C39)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C39,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H39" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C39)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C39,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C39)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C39,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10941,11 +11636,11 @@
       </c>
       <c r="J39" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C39)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C39,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K39" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C39)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C39,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L39" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C39)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C39,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10953,11 +11648,11 @@
       </c>
       <c r="M39" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C39)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C39,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N39" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C39)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C39,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O39" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C39)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C39,درصد!B$2:B$44,0)),0)</f>
@@ -10967,13 +11662,13 @@
     <row r="40" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A40" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="B40" s="30" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C40" s="23">
-        <v>1010</v>
+        <v>1021</v>
       </c>
       <c r="D40" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C40)=1,"حاضر","غایب")</f>
@@ -11027,13 +11722,13 @@
     <row r="41" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A41" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="B41" s="30" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="C41" s="23">
-        <v>1035</v>
+        <v>1027</v>
       </c>
       <c r="D41" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C41)=1,"حاضر","غایب")</f>
@@ -11087,13 +11782,13 @@
     <row r="42" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A42" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="B42" s="30" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="C42" s="23">
-        <v>1006</v>
+        <v>1032</v>
       </c>
       <c r="D42" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C42)=1,"حاضر","غایب")</f>
@@ -11219,6 +11914,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState ref="B2:O42">
+    <sortCondition descending="1" ref="O2:O42"/>
+  </sortState>
   <conditionalFormatting sqref="D2:D42">
     <cfRule type="cellIs" dxfId="35" priority="60" operator="equal">
       <formula>"غایب"</formula>
